--- a/deuChatbot/research_result/version_2(1500_0).xlsx
+++ b/deuChatbot/research_result/version_2(1500_0).xlsx
@@ -419,10 +419,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F501"/>
+  <dimension ref="A1:F601"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A387" workbookViewId="0">
-      <selection activeCell="E405" sqref="E405"/>
+    <sheetView tabSelected="1" topLeftCell="A476" workbookViewId="0">
+      <selection activeCell="M505" sqref="M505"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
@@ -33775,6 +33775,6693 @@
         </is>
       </c>
     </row>
+    <row r="502">
+      <c r="A502" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B502" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 주요 사실을 잘 반영하고 있으나, 일부 세부사항이 누락되거나 다소 간략하게 표현되어 있습니다. 예를 들어, 배점에 대한 언급이 없고, 각 주제의 구체적인 목록이 생략되었습니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트와 대체로 일관성을 유지하고 있습니다. 그러나 일부 세부사항이 생략되어 있어 완전한 일관성은 부족합니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련된 정보를 잘 다루고 있으며, 실기시험에 대한 주요 사항을 적절히 설명하고 있습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 읽기 쉽게 잘 구성되어 있습니다. 문장 구조와 표현이 매끄럽습니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 자연스럽게 연결되어 있습니다. 전체적으로 일관된 흐름을 유지하고 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 대체로 정확하게 반영하고 있으나, 일부 세부사항이 누락되어 있어 완전한 정확성은 부족합니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행하고 있으나, 일부 세부사항의 누락으로 인해 완전한 점수를 받지 못했습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬우며, 정보가 잘 전달되고 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C502" t="n">
+        <v>0.8506101953477357</v>
+      </c>
+      <c r="D502" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기시험에 대해서 설명해줘.</t>
+        </is>
+      </c>
+      <c r="E502" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기시험은 시각디자인, 산업디자인, 공예디자인이 모집단위로 나뉘어 진행됩니다. 각 모집단위는 기초디자인 또는 사고의 전환이라는 두 가지 종목 중 하나를 선택하여 응시하게 됩니다.
+기본적으로 실기시험은 다음과 같은 절차와 요구사항을 따릅니다:
+1. **준비물**: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구가 필요합니다.
+2. **실기주제**: 주제A와 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨을 통해 결정합니다. 예시로는 '잠자리와 저울' 또는 '콜라병과 계절' 등이 될 수 있습니다.
+3. **화지크기**: 켄트지3절 크기를 사용하게 됩니다.
+4. **시험시간**: 5시간 동안 진행됩니다.
+실기시험에서는 제공된 사물과 이미지를 기반으로 창의적인 디자인을 제작해야 합니다. 주제에 따라 다양한 아이디어를 발휘하여 표현하며, 제공된 사물은 모두 1회 이상 표현하고 색상 변경은 금지됩니다.
+이와 같이 디자인조형학과의 실기시험은 창의성과 기술력을 평가하는 중요한 부분입니다.</t>
+        </is>
+      </c>
+      <c r="F502" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기시험에 대한 정보는 다음과 같습니다:
+ 모집단위 및 실기종목
+- 모집단위: 시각디자인, 산업디자인, 공예디자인
+- 실기종목: 기초디자인, 사고의 전환
+종목별 배점(비율)
+- 배점 : 700점 (70%)
+실기종목별 준비물, 실기주제, 화지크기 및 시험시간
+1. 기초디자인
+- 준비물 : 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제 : 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 잠자리와 저울)
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+- 조건: 제공된 사물과 이미지 이외의 형상은 표현하지 마시오. 제공된 사물은 모두 1회 이상 표현하시오. 제공된 사물의 색상은 변경하지 마시오.
+- 화지크기 : 켄트지 3절
+- 시험시간 : 5시간
+2.사고의 전환
+- 준비물: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제 : 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 콜라병과 계절)
+- 주제A: 콜라병, 포카리스웨트(캔), 마스크, 시계, 맥가이버 칼
+- 주제B: 바이러스, 자유, 여행, 계절, 꿈
+- 화지크기: 켄트지 2절
+- 시험시간: 5시간
+이와 같은 정보는 디자인조형학과 실기시험을 준비하는 데 중요한 요소들입니다. 추가적인 정보나 문의사항이 있다면 "https://ipsi.deu.ac.kr/main.do"를 방문하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B503" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 실기종목, 준비물, 실기주제, 화지크기, 시간에 대한 정보를 대부분 정확하게 반영하고 있습니다. 그러나 "각각의 종목별 배점 비율은 70%입니다."라는 정보는 원본 텍스트에 포함되어 있지 않으므로, 이 부분에서 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 대체로 일치하지만, 배점 비율에 대한 언급이 추가되어 있어 일관성이 떨어집니다. 원본 텍스트에는 배점 비율에 대한 정보가 없으므로, 이로 인해 일관성이 약간 저하되었습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 주제와 내용을 잘 반영하고 있으며, 실기종목, 준비물, 실기주제, 화지크기, 시간에 대한 정보를 직접적으로 다루고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 약간의 문장 연결이 매끄럽지 않은 부분이 있어 완벽한 유창성에는 미치지 못합니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 구분되어 있습니다. 그러나 배점 비율에 대한 추가 정보가 포함되어 있어 약간의 논리적 흐름이 방해받을 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 대부분 정확하게 반영하고 있지만, 배점 비율에 대한 정보가 추가되어 있어 정확성에 약간의 문제가 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 유지하고 있으며, 사실성, 일관성, 관련성, 유창성, 일관성 등 여러 차원에서 좋은 점수를 받고 있습니다. 그러나 배점 비율의 추가로 인해 약간의 감점이 있었습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하지만, 배점 비율에 대한 언급이 추가되어 있어 의미적으로 약간의 부적절함이 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되어 있습니다. 그러나 배점 비율에 대한 추가 정보가 혼란을 줄 수 있어 완벽한 이해 가능성에는 미치지 못합니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C503" t="n">
+        <v>0.804024725470965</v>
+      </c>
+      <c r="D503" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기종목과 준비물, 실기주제, 화지크기, 시간에 대해서 알려줘.</t>
+        </is>
+      </c>
+      <c r="E503" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기종목은 기초디자인과 사고의 전환으로 나뉘며, 각각의 종목별 배점 비율은 70%입니다.
+기초디자인의 준비물은 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구이며, 실기주제는 주제A와 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨합니다. 예시로 잠자리와 저울을 제시하며, 화지크기는 켄트지3절이며, 시간은 5시간입니다.
+사고의 전환의 준비물 역시 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구이며, 실기주제는 주제A와 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨합니다. 예시로 콜라병과 계절을 제시하며, 화지크기는 켄트지2절이며, 시간은 5시간입니다.</t>
+        </is>
+      </c>
+      <c r="F503" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기종목, 준비물, 실기주제, 화지크기, 시간에 대한 정보는 다음과 같습니다:
+1.실기종목: 기초디자인
+- 준비물: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제: 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 잠자리와 저울)
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+- 조건: 제공된 사물과 이미지 이외의 형상은 표현하지 마시오. 제공된 사물은 모두 1회 이상 표현하시오. 제공된 사물의 색상은 변경하지 마시오.
+- 화지크기: 켄트지 3절
+- 시간: 5시간
+2.실기종목: 사고의 전환
+- 준비물: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제: 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 콜라병과 계절)
+- 주제A: 콜라병, 포카리스웨트(캔), 마스크, 시계, 맥가이버 칼
+- 주제B: 바이러스, 자유, 여행, 계절, 꿈
+- 화지크기: 켄트지 2절
+- 시간: 5시간</t>
+        </is>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B504" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 대회 목록이 정확하게 나열되어 있습니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 대회에 대한 정보가 일치합니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 주제와 관련이 있으며, 대회에 대한 정보를 직접적으로 다루고 있습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 읽기 쉬우며, 자연스러운 표현을 사용하고 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 매끄럽습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C504" t="n">
+        <v>0.9150086599981222</v>
+      </c>
+      <c r="D504" t="inlineStr">
+        <is>
+          <t>경기지도학과 모집종목별 인정대회에는 어떤 대회들이 있는지 알려줘.</t>
+        </is>
+      </c>
+      <c r="E504" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 경기지도학과 모집종목별 인정대회에 대한 정보는 종목별로 다르게 되어 있습니다.
+배드민턴(남)의 경우, 다음과 같은 대회가 인정됩니다:
+- 한국중·고연맹회장기전국학생선수권대회
+- 대한배드민턴협회장기전국종별배드민턴선수권대회
+- 전국학교대항배드민턴선수권대회
+- 전국종별배드민턴선수권대회
+- 전국연맹종별배드민턴선수권대회
+- 전국체육대회
+- 각종국제대회 (국가대표팀, 주니어팀 소속으로 출전한 대회만 인정)
+- 광역시·도 협회장기 종별대회
+축구(남)의 경우, 다음과 같은 대회가 인정됩니다:
+- 춘계한국고등학교축구연맹전
+- 추계한국고등학교축구연맹전
+- 대한축구협회장배전국고등학교축구대회
+- 문화체육관광부장관기전국고등학교축구대회
+- 문화체육관광부장관배전국고등학교축구대회
+- 백운기전국고등학교축구대회
+- 전국고등축구리그(권역별고교축구리그)
+- 전국고등축구리그왕중왕전
+- 무학기전국고등학교축구대회
+- 청룡기전국고등학교축구대회
+- 백록기전국고등학교축구대회
+- 금강대기전국고등학교축구대회
+- 대통령금배전국고등학교축구대회
+- 금석배전국고등학생축구대회
+- 부산MBC전국고등학생축구대회
+- K리그 U18 챔피언십
+- K리그 U18 챔피언십왕중왕전
+이러한 대회의 정보를 참고하여 지원할 수 있는 대회를 선택하시면 좋을 것 같습니다.</t>
+        </is>
+      </c>
+      <c r="F504" t="inlineStr">
+        <is>
+          <t>경기지도학과 모집종목별 인정대회는 다음과 같습니다:
+배드민턴(남)
+- 한국중·고연맹회장기전국학생선수권대회
+- 대한배드민턴협회장기전국종별배드민턴선수권대회
+- 전국학교대항배드민턴선수권대회
+- 전국종별배드민턴선수권대회
+- 전국연맹종별배드민턴선수권대회
+- 전국체육대회
+- 각종국제대회
+- 주니어국제대회(국가대표팀, 주니어팀 소속으로 출전한 대회만 인정)
+- 광역시·도 협회장기 종별대회
+축구(남)
+- 춘계한국고등학교축구연맹전
+- 추계한국고등학교축구연맹전
+- 대한축구협회장배전국고등학교축구대회
+- 문화체육관광부장관기전국고등학교축구대회
+- 문화체육관광부장관배전국고등학교축구대회
+- 백운기전국고등학교축구대회
+- 전국고등축구리그(권역별고교축구리그)
+- 전국고등축구리그왕중왕전
+- 무학기전국고등학교축구대회
+- 청룡기전국고등학교축구대회
+- 백록기전국고등학교축구대회
+- 금강대기전국고등학교축구대회
+- 대통령금배전국고등학교축구대회
+- 금석배전국고등학생축구대회
+- 부산MBC전국고등학생축구대회
+- K리그 U18 챔피언십
+- K리그 U18 챔피언십왕중왕전</t>
+        </is>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B505" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있습니다. 주제A와 주제B의 항목들이 모두 포함되어 있으며, 시험 당일의 주제 선정 방식도 정확하게 설명하고 있습니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 정보가 서로 충돌하지 않습니다. 주제와 관련된 내용이 일관되게 전달되고 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 주제와 관련이 깊습니다. 기초디자인 실기시험의 주제와 관련된 정보를 직접적으로 다루고 있습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 읽기 쉽게 작성되어 있습니다. 문장 구조와 표현이 매끄럽습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 자연스럽습니다. 각 주제와 관련된 내용이 잘 연결되어 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 잘못된 정보나 누락된 내용이 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합합니다. 주제와 관련된 내용이 잘 전달되고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C505" t="n">
+        <v>0.7568780490132165</v>
+      </c>
+      <c r="D505" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 기초디자인 실기시험에 있는 주제들을 모두 알려줘.</t>
+        </is>
+      </c>
+      <c r="E505" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 디자인조형학과의 기초디자인 실기시험에서는 주제A와 주제B 각각에서 1개씩 선정하여 연결된 주제를 준비해야 합니다. 예시로 주제A는 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지 등이며, 주제B는 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음 등입니다.</t>
+        </is>
+      </c>
+      <c r="F505" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 기초디자인 실기시험 주제는 다음과 같습니다:
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+시험 당일에는 주제A와 주제B에서 각각 1개씩 선정하여 연결된 주제를 추첨하게 됩니다. 예시로는 "잠자리와 저울"이 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B506" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 출결 점수가 반영되지 않는다는 사실을 정확하게 전달하고 있지만, 추가적인 전형 유형에 대한 정보가 포함되어 있어 원래의 질문에 대한 직접적인 답변을 넘어서는 부분이 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 응답은 출결 점수가 반영되지 않는다는 점에서 일관성을 유지하고 있지만, 여러 전형 유형을 나열하면서 원래의 질문과는 다소 다른 방향으로 나아가고 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 출결 점수와 관련된 정보를 제공하며, 질문의 핵심 주제에 직접적으로 관련이 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 문장은 전반적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 다만, 약간의 중복된 표현이 있어 더 매끄럽게 다듬을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 응답은 논리적으로 연결되어 있으며, 주제에 대한 흐름이 잘 유지되고 있습니다. 그러나 여러 전형을 나열하면서 약간의 혼란을 줄 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 출결 점수가 반영되지 않는다는 정보는 정확하지만, 추가적인 전형에 대한 정보는 원래 질문과는 관련이 적습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 전반적으로 응답은 높은 품질을 유지하고 있으며, 사실성, 관련성, 유창성 등에서 좋은 점수를 받고 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 응답은 의미적으로 적절하며, 질문의 맥락에 잘 맞습니다. 그러나 추가적인 정보가 다소 불필요할 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 응답은 명확하고 이해하기 쉬우며, 정보가 잘 전달되고 있습니다. 다만, 여러 전형을 나열하면서 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C506" t="n">
+        <v>0.6030627267198518</v>
+      </c>
+      <c r="D506" t="inlineStr">
+        <is>
+          <t>동의대학교 학생부교과 전형에서 출결 점수가 반영되나요?</t>
+        </is>
+      </c>
+      <c r="E506" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 동의대학교 나군 학생부종합(평생학습자전형), 나군 학생부종합(성인학습자(정원내)전형), 나군 학생부종합(성인학습자(정원외)전형), 나군 학생부종합(재직자전형), 나군 학생부종합(조기취업형계약학과전형)에서는 출결 점수가 반영되지 않습니다. 전형요소 반영비율에서 출결의 비율은 0%로 되어 있습니다.
+만약 다른 전형 유형에 대해 궁금하신다면, "https://ipsi.deu.ac.kr/main.do" 웹사이트를 참조해보시거나 추가 정보를 제공해주시면 도와드리겠습니다.</t>
+        </is>
+      </c>
+      <c r="F506" t="inlineStr">
+        <is>
+          <t>아니요. 학생부 교과 전형에서는 출결 점수가 반영되지 않습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B507" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 모집 인원과 전형에 대한 정보가 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 정보가 서로 충돌하지 않습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 내용을 직접적으로 다루고 있으며, 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 읽기 쉬우며, 자연스럽게 표현되어 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 일관된 흐름을 유지하고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 독자가 쉽게 따라갈 수 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C507" t="n">
+        <v>0.881067677909343</v>
+      </c>
+      <c r="D507" t="inlineStr">
+        <is>
+          <t>인문사회과학대학의 국어국문학과에서 가군 일반학생 전형으로 몇 명을 모집하나요?</t>
+        </is>
+      </c>
+      <c r="E507" t="inlineStr">
+        <is>
+          <t>17명을 모집합니다. 인문사회과학대학의 국어국문학과 - 교직 모집단위에서 가군 일반학생전형으로는 17명이 모집됩니다.</t>
+        </is>
+      </c>
+      <c r="F507" t="inlineStr">
+        <is>
+          <t>인문사회과학대학의 국어국문학과에서 가군 일반학생 전형으로 17명을 모집합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B508" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원문에서 제공된 정보와 일치하며, 모집 인원인 28명을 정확하게 언급하고 있습니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원문과 일관되며, 정보가 서로 충돌하지 않습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원문에서 다루고 있는 주제와 관련이 깊으며, 핵심 정보를 잘 전달하고 있습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 자연스럽게 읽히며, 유창합니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 일관된 흐름을 유지하고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원문에서 제공된 사실을 정확하게 반영하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원문의 의미와 맥락에 잘 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 명확하고 이해하기 쉬우며, 독자가 쉽게 따라갈 수 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C508" t="n">
+        <v>0.6415190179626145</v>
+      </c>
+      <c r="D508" t="inlineStr">
+        <is>
+          <t>인문사회과학대학의 영어영문학과에서 다군 일반학생 전형으로 몇 명을 모집하나요?</t>
+        </is>
+      </c>
+      <c r="E508" t="inlineStr">
+        <is>
+          <t>28명을 모집합니다. 인문사회과학대학의 계열은 인문사회이며, 모집단위는 영어영문학과 - 교직이고, 모집인원이 28명이라는 정보가 제공되었습니다.</t>
+        </is>
+      </c>
+      <c r="F508" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 인문사회과학대학 영어영문학과의 경우, 다군 일반학생 전형을 통해 총 28명의 신입생을 선발합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B509" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있습니다. 모집 인원과 전형에 대한 정보가 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 서로 모순되는 정보가 없습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 내용을 직접적으로 다루고 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 자연스럽게 읽히며, 유창합니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 일관된 흐름을 가지고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬운 내용으로 구성되어 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C509" t="n">
+        <v>0.82903000148363</v>
+      </c>
+      <c r="D509" t="inlineStr">
+        <is>
+          <t>의료보건생활대학 간호학과 나군 일반학생 전형 모집 인원을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E509" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 의료보건생활대학 간호학과 나군 일반 학생 전형의 모집 인원은 22명입니다.</t>
+        </is>
+      </c>
+      <c r="F509" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 의료보건생활대학 간호학과의 경우, 나군 일반학생 전형을 통해 총 22명의 신입생을 선발합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B510" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있으며, 모든 점수와 등급이 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 정보가 서로 충돌하지 않습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 내용을 직접적으로 다루고 있으며, 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉬우나, 약간의 어색한 표현이 있을 수 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 일관된 흐름을 유지하고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성능을 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬운 내용으로 구성되어 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C510" t="n">
+        <v>0.9128350655559497</v>
+      </c>
+      <c r="D510" t="inlineStr">
+        <is>
+          <t>수능 영어 등급에 따른 점수를 알려줘.</t>
+        </is>
+      </c>
+      <c r="E510" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 수능 영어 등급에 따른 점수는 다음과 같습니다:
+- 등급 1 : 139점
+- 등급 2 : 131점
+- 등급 3 : 123점
+- 등급 4 : 115점
+- 등급 5 : 107점
+- 등급 6 : 99점
+- 등급 7 : 91점
+- 등급 8 : 83점
+- 등급 9 : 75점
+이 정보를 바탕으로 수능 영어 점수를 확인할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F510" t="inlineStr">
+        <is>
+          <t>수능 영어영역 등급에 따른 점수는 다음과 같습니다:
+- 1등급: 139점
+- 2등급: 131점
+- 3등급: 123점
+- 4등급: 115점
+- 5등급: 107점
+- 6등급: 99점
+- 7등급: 91점
+- 8등급: 83점
+- 9등급: 75점</t>
+        </is>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B511" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 예술고 학생이 나군 학생부교과 농어촌학생전형에 지원할 수 없다는 사실을 잘못 해석하고 있습니다. 예술고 학생은 지원할 수 없다는 것이 사실인데, 생성된 응답에서는 지원이 가능하다고 잘못 언급하고 있습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 예술고 학생이 지원할 수 없다는 원문과 상반된 내용을 포함하고 있습니다. 이로 인해 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 주제와 관련된 정보를 제공하고 있지만, 잘못된 정보로 인해 전체적인 관련성이 약간 떨어집니다.
+4. Fluency Score (1-5): 4
+   - 설명: 문장은 전반적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 일부 문장이 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 응답의 구조는 비교적 일관되지만, 잘못된 정보로 인해 논리적 흐름이 약간 방해받고 있습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 사실과 다르게 예술고 학생이 지원할 수 있다고 잘못 기술하고 있어 정확성이 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 여러 차원에서 낮은 점수를 기록하고 있으며, 특히 사실성과 일관성에서 큰 문제가 있습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 의미적으로는 관련된 내용을 다루고 있으나, 잘못된 정보로 인해 적절성이 떨어집니다.
+9. Understandability Score (1-5): 4
+   - 설명: 전반적으로 이해하기 쉬운 문장 구조를 가지고 있으나, 잘못된 정보로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C511" t="n">
+        <v>0.7196558116602971</v>
+      </c>
+      <c r="D511" t="inlineStr">
+        <is>
+          <t>예술고 학생이 나군 학생부교과 농어촌학생전형으로 지원할 수 있나요?</t>
+        </is>
+      </c>
+      <c r="E511" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 예술고 학생은 특수목적 고등학교로 분류되므로, 나군 학생부교과 농어촌학생전형에서는 지원이 가능하지 않습니다. 이 전형은 일반고, 자율고, 특수목적 고등학교의 과학고, 국제고, 외국어고, 예술고, 체육고, 마이스터고, 특성화고(특성), 특성화고(대안), 영재학교, 기타의 학력인정고, 기타의 방송통신고, 기타의 각종학교, 검정고시, 외국고 등에서 나온 학생들을 대상으로 합니다. 예술고는 이에 포함되지 않으므로 지원이 불가능합니다.
+만약 예술고 학생이라면, 다른 전형을 통해 지원할 수 있습니다. 자세한 내용은 "https://ipsi. deu. ac. kr/main. do"를 참조하시거나 대학 입시 관련 웹사이트나 담당 교사에게 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F511" t="inlineStr">
+        <is>
+          <t>아니요, 예술고 학생은 나군 학생부교과 농어촌학생전형으로 지원할 수 없습니다. 지원자격에 따르면 농어촌지역 또는 도서·벽지에 소재한 특수목적고 중 과학고, 국제고, 외국어고, 체육고, 예술고 출신자는 지원할 수 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B512" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답에서 "남은 268～271cm"라는 부분은 잘못된 정보입니다. 원본 텍스트에 따르면 4등급의 기록은 218~221 cm로 명확히 제시되어 있습니다. 따라서 이 부분에서 사실성이 떨어집니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트와 일부 일치하지만, 잘못된 기록 범위로 인해 일관성이 부족합니다. "남은 268～271cm"라는 정보는 원본과 상충합니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있으며, 4등급 기록과 배점에 대한 정보를 제공합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉽습니다. 그러나 "여은"이라는 표현이 다소 어색하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 명확하게 전달됩니다. 그러나 잘못된 정보로 인해 완전한 일관성을 유지하지는 못합니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답의 일부 정보는 정확하지만, 잘못된 기록 범위로 인해 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 여러 차원에서 평가했을 때, 생성된 응답은 일부 강점이 있지만, 잘못된 정보로 인해 전반적인 품질이 저하됩니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 대체로 적합하지만, 잘못된 기록 범위로 인해 일부 의미가 왜곡됩니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽지만, 잘못된 정보로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C512" t="n">
+        <v>0.8596777442786846</v>
+      </c>
+      <c r="D512" t="inlineStr">
+        <is>
+          <t>레저스포츠학과 여자 제자리 멀리뛰기 4등급 기록과 배점을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E512" t="inlineStr">
+        <is>
+          <t>4등급에 해당하는 레저스포츠학과 여자 제자리 멀리뛰기의 기록은 남은 268～271cm, 여은 218~221cm입니다. 이와 함께 배점은 275점입니다.</t>
+        </is>
+      </c>
+      <c r="F512" t="inlineStr">
+        <is>
+          <t>레저스포츠학과 여자 제자리 멀리뛰기 4등급 기록과 배점은 다음과 같습니다:
+- 기록: 218~221 cm
+- 배점: 275점</t>
+        </is>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B513" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 경기지도학과의 출결 반영 비율에 대한 명확한 정보를 제공하지 않고 있으며, 실제로는 12%라는 구체적인 수치가 존재합니다. 따라서 사실과 일치하지 않으며, 잘못된 정보를 포함하고 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상충되는 내용을 포함하고 있습니다. 원본 텍스트는 출결 반영 비율이 12%라고 명시하고 있지만, 생성된 응답은 그러한 정보가 없다고 주장하고 있습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 핵심 정보인 출결 반영 비율에 대한 질문에 직접적으로 답하지 않고 있습니다. 관련 정보가 부족하여 낮은 점수를 부여합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 비교적 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 일관된 구조를 가지고 있으나, 원본 텍스트와의 연결이 부족하여 전체적인 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 왜곡하고 있으며, 출결 반영 비율에 대한 정확한 정보를 제공하지 않습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 부합하지 않으며, 정보가 부족하여 적절하지 않습니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 이해할 수 있지만, 원본 텍스트와의 관련성이 떨어져 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C513" t="n">
+        <v>0.552323235689634</v>
+      </c>
+      <c r="D513" t="inlineStr">
+        <is>
+          <t>동의대학교 경기지도학과 출결 반영 비율을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E513" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보로는 동의대학교 경기지도학과의 특정한 출결 반영 비율에 대한 내용이 없습니다. 다른 교과나 전형 관련 정보만이 포함되어 있습니다. 더 자세한 정보를 얻으시려면 "https://ipsi. deu. ac. kr/main. do" 웹사이트를 방문해보세요.</t>
+        </is>
+      </c>
+      <c r="F513" t="inlineStr">
+        <is>
+          <t>경기지도학과의 출결 반영 비율은 12%입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B514" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 생성된 응답은 동의대학교 2024학년도 가군에서 물리치료학과가 4명을 모집한다고 명시된 사실과 정반대의 내용을 담고 있습니다. 따라서 사실성이 매우 낮습니다.
+2. Consistency Score (1-5): 1
+   - 생성된 응답은 원본 텍스트와 완전히 모순되는 내용을 포함하고 있어 일관성이 없습니다.
+3. Relevance Score (1-5): 2
+   - 응답은 동의대학교와 물리치료학과에 대한 언급이 있지만, 모집 인원에 대한 정보가 잘못되어 있어 관련성이 낮습니다.
+4. Fluency Score (1-5): 4
+   - 문장은 전반적으로 잘 구성되어 있으며, 문법적으로도 큰 문제가 없습니다. 그러나 내용의 정확성에 따라 점수가 영향을 받을 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 응답은 논리적으로 연결되어 있지만, 잘못된 정보로 인해 전체적인 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 응답은 원본 텍스트의 사실과 완전히 다르며, 정확성이 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 여러 차원에서 모두 낮은 점수를 기록하고 있어 전반적인 품질이 매우 낮습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 응답의 의미가 원본 텍스트와 완전히 일치하지 않으며, 맥락에 맞지 않습니다.
+9. Understandability Score (1-5): 4
+   - 문장은 이해하기 쉬우나, 잘못된 정보로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C514" t="n">
+        <v>0.7404629239467018</v>
+      </c>
+      <c r="D514" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군에서 물리치료학과에 몇 명을 모집하나요?</t>
+        </is>
+      </c>
+      <c r="E514" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군에서는 물리치료학과에 학생을 모집하지 않습니다. 해당 정보는 제공된 자료에서 확인하였습니다. 추가로 궁금한 사항이 있으시다면 https://ipsi.deu.ac.kr/main.do를 참조해보세요.</t>
+        </is>
+      </c>
+      <c r="F514" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 가군에서 물리치료학과는 4명을 모집합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B515" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 날짜 정보를 정확하게 반영하고 있으며, 추가적인 세부사항(디자인조형학과의 세부 전공)을 포함하고 있어 사실적입니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 날짜와 관련된 정보가 일치합니다. 추가된 정보도 원본의 맥락을 해치지 않습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 핵심 주제인 실기고사 일정에 직접적으로 관련이 있으며, 추가된 전공 정보도 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 자연스럽게 읽히며, 문장 구조도 잘 구성되어 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 연결되어 있으며, 정보의 흐름이 매끄럽습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 추가된 정보도 사실에 기반하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이며, 사실성, 일관성, 관련성, 정확성 모두에서 높은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C515" t="n">
+        <v>0.4983764080083655</v>
+      </c>
+      <c r="D515" t="inlineStr">
+        <is>
+          <t>2024학년도 나군 실기/실적 전형에서 디자인조형학과의 실기고사 일정은 언제인가요?</t>
+        </is>
+      </c>
+      <c r="E515" t="inlineStr">
+        <is>
+          <t>2024학년도 나군 실기/실적 전형에서 디자인조형학과(시각디자인, 산업디자인, 공예디자인)의 실기고사는 2024. 01. 17.(수)에 있습니다.</t>
+        </is>
+      </c>
+      <c r="F515" t="inlineStr">
+        <is>
+          <t>2024. 01. 17.(수) 입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B516" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 응용화학과의 수능 최저기준이 없다는 정보는 정확하지만, "구체적인 수능 최저기준은 해당 페이지에서 확인할 수 있습니다."라는 부분은 사실과 다를 수 있습니다. 응용화학과에 대한 구체적인 기준이 없다는 점을 명확히 하지 않았기 때문에 점수를 4로 평가합니다.
+2. Consistency Score (1-5): 3
+   - 설명: 응용화학과의 수능 최저기준이 없다는 점은 일관되지만, 다른 전공에 대한 언급이 추가되어 있어 응용화학과에 대한 정보와 혼동을 줄 수 있습니다. 따라서 일관성 점수를 3으로 평가합니다.
+3. Relevance Score (1-5): 5
+   - 설명: 응용화학과의 수능 최저기준에 대한 질문에 대해 적절하게 답변하고 있으며, 관련된 정보를 제공하고 있습니다. 따라서 관련성 점수를 5로 평가합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 문장은 전반적으로 잘 구성되어 있으나, "제공된 정보에서"라는 표현이 다소 어색하게 느껴질 수 있습니다. 그러나 전반적으로 읽기 쉬운 문장입니다. 따라서 유창성 점수를 4로 평가합니다.
+5. Coherence Score (1-5): 4
+   - 설명: 응답은 논리적으로 연결되어 있으며, 주제에 대한 흐름이 잘 유지되고 있습니다. 그러나 약간의 혼란을 줄 수 있는 부분이 있어 점수를 4로 평가합니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 응답은 수능 최저기준이 없다는 사실을 정확히 반영하고 있지만, 응용화학과에 대한 구체적인 기준이 확인 가능하다는 부분은 정확하지 않을 수 있습니다. 따라서 정확성 점수를 4로 평가합니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 전반적으로 응답은 여러 차원에서 잘 수행되고 있으나, 일부 정보의 정확성에 대한 의문이 있어 점수를 4로 평가합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 응답은 주제와 관련된 의미를 잘 전달하고 있으나, 일부 표현이 다소 모호할 수 있습니다. 따라서 의미 적합성 점수를 4로 평가합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 응답은 전반적으로 이해하기 쉽지만, 일부 문구가 혼란을 줄 수 있어 점수를 4로 평가합니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C516" t="n">
+        <v>0.4634824300217568</v>
+      </c>
+      <c r="D516" t="inlineStr">
+        <is>
+          <t>동의대학교의 2024학년도 응용화학과의 수능 최저기준은 어떻게 되나요?</t>
+        </is>
+      </c>
+      <c r="E516" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보에서 동의대학교 2024학년도 응용화학과의 수능 최저기준에 대한 정보는 없습니다. 다른 전공들의 경우, 수능 최저기준이 없음을 알 수 있지만, 응용화학과에 대한 구체적인 수능 최저기준은 해당 페이지에서 확인할 수 있습니다. 더 자세한 정보를 얻으시려면 "https://ipsi. deu. ac. kr/main. do" 링크를 참조해주세요.</t>
+        </is>
+      </c>
+      <c r="F516" t="inlineStr">
+        <is>
+          <t>수능 최저 학력 기준은 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B517" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있으며, 신설된 학과 목록이 모두 포함되어 있습니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 정보에 모순이 없습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 주제와 관련이 있으며, 신설된 학과에 대한 정보를 직접적으로 다루고 있습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 자연스럽게 읽히며, 유창합니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 일관된 흐름을 가지고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 명확하고 이해하기 쉬우며, 정보 전달이 효과적입니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C517" t="n">
+        <v>0.7844047909187019</v>
+      </c>
+      <c r="D517" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도에 신설된 학과는 무엇이 있나요?</t>
+        </is>
+      </c>
+      <c r="E517" t="inlineStr">
+        <is>
+          <t>2024학년도에 동의대학교에서 신설된 학과로는 심리학과, 스마트항만물류학과, 창업투자경영학과, 라이프융합학부(스타트업창업투자학, 뷰티비즈니스학, 라이프생활문화학), 경기지도학과가 있습니다.</t>
+        </is>
+      </c>
+      <c r="F517" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도에 신설된 학과는 다음과 같습니다:
+1. 심리학과
+2. 스마트항만물류학과
+3. 창업투자경영학과
+4. 라이프융합학부 (스타트업창업투자학, 뷰티비즈니스학, 라이프생활문화학)
+5. 경기지도학과</t>
+        </is>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B518" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 서류와 면접의 반영 비율을 정확하게 전달하고 있지만, "다른 요소들(학생부 교과, 출결, 실기, 수능 등)은 해당 전형에서 반영되지 않는 것을 의미합니다."라는 부분은 원문에 명시되어 있지 않은 정보이므로 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원문과 일치하는 부분이 있지만, 추가된 정보가 원문에 포함되어 있지 않기 때문에 일관성이 떨어집니다. 특히, 다른 요소들이 반영되지 않는다는 주장은 원문에서 확인할 수 없습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원문에서 제시된 전형요소 반영비율에 대한 질문에 직접적으로 관련이 있으며, 주제를 잘 다루고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬우나, "서류가 70%, 면접이 30%로 구성되어 있습니다." 부분에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 자연스럽습니다. 그러나 추가된 정보가 원문과의 연결성을 약간 떨어뜨립니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 전형요소 반영비율에 대한 정보는 정확하지만, 다른 요소들이 반영되지 않는다는 주장은 원문에 명시되어 있지 않아 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 보이지만, 추가된 정보로 인해 일부 차질이 발생했습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원문의 의미와 대체로 일치하지만, 추가된 정보가 원문과의 의미적 일치를 약간 해칩니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽지만, 추가된 정보로 인해 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C518" t="n">
+        <v>0.8691248379703205</v>
+      </c>
+      <c r="D518" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 나군의 학생부종합(성인학습자전형)의 전형요소 반영비율은 어떻게 되나요?</t>
+        </is>
+      </c>
+      <c r="E518" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 나군의 학생부종합(성인학습자전형)의 전형요소 반영비율은 서류가 70%, 면접이 30%로 구성되어 있습니다. 이는 주어진 정보에 따르면, 다른 요소들(학생부 교과, 출결, 실기, 수능 등)은 해당 전형에서 반영되지 않는 것을 의미합니다.</t>
+        </is>
+      </c>
+      <c r="F518" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 나군의 학생부종합(성인학습자전형)의 전형요소 반영비율은 서류 70%, 면접 30%입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B519" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 동의대학교에서 수능 가산점을 적용하는 학과로 '한의예과'를 언급하고 있으나, 원본 텍스트에서는 '의료·보건·생활대학', '공과대학', 'ICT융합공과대학'을 명시하고 있습니다. 따라서 사실과 일치하지 않으며, 잘못된 정보를 포함하고 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상충하는 정보를 제공합니다. 원본 텍스트에 명시된 학과와는 다른 학과를 언급하고 있어 일관성이 없습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 수능 가산점에 대한 질문에 직접적으로 답변하고 있으며, 관련된 정보를 제공하고 있습니다. 따라서 주제와 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장으로 구성되어 있습니다. 다만, 약간의 어색함이 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 연결된 문장으로 구성되어 있으며, 주제에 대한 일관된 흐름을 유지하고 있습니다. 그러나 원본 텍스트와의 불일치로 인해 완전한 일관성은 부족합니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 크게 다르며, 잘못된 정보를 포함하고 있습니다. 따라서 정확성 점수는 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 사실성과 일관성에서 큰 문제를 가지고 있지만, 관련성과 유창성은 어느 정도 유지하고 있습니다. 그러나 전반적으로 낮은 품질을 보입니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않는 정보를 제공하고 있어 의미적으로 부적절합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 문장으로 구성되어 있으나, 잘못된 정보로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C519" t="n">
+        <v>0.755811447658846</v>
+      </c>
+      <c r="D519" t="inlineStr">
+        <is>
+          <t>동의대학교에서는 수능 가산점을 적용하는 학과는 어디인지 알려주세요.</t>
+        </is>
+      </c>
+      <c r="E519" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 동의대학교에서 수능 가산점을 적용하는 학과는 한의예과입니다. 이 학과에서는 수학(미적분 또는 기하) 응시자의 수학 취득 표준점수의 10%를 가산점으로 부여합니다.</t>
+        </is>
+      </c>
+      <c r="F519" t="inlineStr">
+        <is>
+          <t>동의대학교에서는 다음 모집단위에서 수능 가산점을 적용합니다:
+- 의료·보건·생활대학
+- 공과대학
+- ICT융합공과대학
+이들 모집단위에서 수학(미적분 또는 기하)을 응시한 경우, 수학 취득 표준점수의 10%를 가산점으로 부여합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B520" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 수능 성적을 100% 반영한다고 명시된 원문과 상충합니다. 원문에서는 수능 성적이 100% 반영된다고 했지만, 생성된 응답에서는 각 영역별로 25%씩 반영한다고 설명하고 있어 사실과 다릅니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 일관성이 없습니다. 원문은 수능 성적을 100% 반영한다고 명시하고 있지만, 생성된 응답은 각 과목의 성적을 25%씩 반영한다고 하여 서로 모순됩니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 수능 성적 반영 방법에 대한 정보를 제공하고 있으나, 원문에서 강조한 100% 반영이라는 핵심 내용을 간과하고 있습니다. 그럼에도 불구하고 관련된 정보를 포함하고 있어 높은 점수를 부여합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 다만, 일부 표현이 다소 복잡할 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 정보가 나열되어 있지만, 원문과의 연결이 부족하여 일관된 흐름이 떨어집니다. 원문과의 관계를 명확히 하지 않아 다소 혼란스러울 수 있습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원문에서 제시한 사실과 크게 다릅니다. 수능 성적을 100% 반영한다고 한 원문과는 달리, 생성된 응답은 각 영역별로 25%씩 반영한다고 하여 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 여러 차원에서 원문과의 불일치가 두드러지며, 사실성, 일관성, 정확성 모두 낮은 점수를 받았습니다. 따라서 전반적인 품질이 낮다고 평가됩니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 수능 성적 반영에 대한 정보를 제공하지만, 원문과의 의미적 일치가 부족합니다. 원문의 핵심 내용을 반영하지 못하고 있어 적절성에서 다소 떨어집니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조로 되어 있으나, 원문과의 관계가 명확하지 않아 혼란을 줄 수 있습니다. 그럼에도 불구하고 정보는 명확하게 전달되고 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C520" t="n">
+        <v>0.7544460638456688</v>
+      </c>
+      <c r="D520" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대의 가군에서 수능 성적을 어떻게 반영하나요?</t>
+        </is>
+      </c>
+      <c r="E520" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군에서는 수능 성적을 다음과 같이 반영합니다.
+- 모집단위는 전 모집단위입니다.
+- 수능 반영 영역은 국어(화법과작문 or 언어와매체), 수학(확률과통계 or 미적분 or 기하), 영어, 탐구(사회탐구 or 과학탐구 or 직업탐구 중 영역 관계없이 2개 과목)입니다.
+- 반영 영역별 반영 비율은 각각 25%입니다.
+따라서 국어, 수학, 영어, 탐구 중 선택한 2과목의 성적을 각 영역에서 25%씩 반영하게 됩니다.</t>
+        </is>
+      </c>
+      <c r="F520" t="inlineStr">
+        <is>
+          <t>동의대학교의 2024학년도 가군 수능(일반학생전형)에서는 수능 성적을 100% 반영합니다. 자세한 수능 성적 반영 방법은 '38페이지 Ⅴ. 수능성적 반영방법'을 참조하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B521" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 가군 실기고사의 날짜를 정확하게 언급하고 있으며, 추가적으로 &lt;나&gt;군 실기고사의 날짜도 제공하고 있습니다. 그러나 &lt;나&gt;군 실기고사에 대한 정보는 원본 텍스트에 포함되어 있지 않으므로, 이 부분은 다소 부가적인 정보로 간주될 수 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 가군 실기고사의 날짜에 대한 정보는 일치하지만, &lt;나&gt;군 실기고사에 대한 추가 정보가 포함되어 있어 원본 텍스트와의 일관성이 떨어질 수 있습니다. 따라서 일관성 점수는 중간 정도로 평가됩니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있으며, 가군 실기고사의 날짜를 명확히 언급하고 있습니다. 추가적인 정보도 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉽습니다. 다만, "&lt;나&gt;군"이라는 표현이 다소 혼란스러울 수 있어 약간의 유창성 점수를 낮추었습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 자연스럽습니다. 그러나 &lt;나&gt;군 실기고사에 대한 정보가 추가되면서 약간의 일관성이 떨어질 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 가군 실기고사의 날짜는 정확하게 언급되었으나, &lt;나&gt;군 실기고사에 대한 정보는 원본 텍스트에 포함되어 있지 않으므로 정확성 점수는 약간 낮아졌습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 차원에서 잘 수행되었으나, 일관성과 정확성에서 약간의 문제가 있어 점수를 4로 평가합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하지만, &lt;나&gt;군 실기고사에 대한 정보가 추가되면서 약간의 맥락적 차이가 발생할 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽지만, "&lt;나&gt;군"이라는 표현이 다소 혼란스러울 수 있어 이해 가능성 점수를 약간 낮추었습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C521" t="n">
+        <v>0.7118072583997831</v>
+      </c>
+      <c r="D521" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군 실기고사 날짜는 언제인가요?</t>
+        </is>
+      </c>
+      <c r="E521" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군 실기고사는 레저스포츠학과와 태권도학과에서 실시되며, 날짜는 2024. 01. 16.(화)입니다.
+&lt;나&gt;군 실기고사인 디자인조형학과(시각디자인, 산업디자인, 공예디자인)와 체육학과의 날짜는 2024. 01. 17.(수)입니다.
+따라서 가군 실기고사의 날짜는 2024년 1월 16일(화)이며, &lt;나&gt;군 실기고사는 다음날인 2024년 1월 17일(수)에 실시됩니다.</t>
+        </is>
+      </c>
+      <c r="F521" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 가군 실기고사는 2024년 1월 16일(화)에 진행됩니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B522" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 생성된 응답은 전형의 모집단위에 대한 정보가 잘못되었습니다. 원본 텍스트에서는 한의예과, 디자인조형학과, 체육학과, 경기지도학과가 제외된다고 명시되어 있지만, 생성된 응답에서는 레저스포츠학과와 태권도학과가 제외되었다고 잘못 언급하고 있습니다.
+2. Consistency Score (1-5): 1
+   - 생성된 응답은 원본 텍스트와 상충되는 정보를 제공합니다. 원본에서 제외된 학과와 생성된 응답에서 제외된 학과가 다르기 때문에 일관성이 없습니다.
+3. Relevance Score (1-5): 3
+   - 생성된 응답은 동의대학교의 전형에 대한 정보를 제공하고 있지만, 잘못된 정보를 포함하고 있어 관련성은 있지만 신뢰할 수 없습니다.
+4. Fluency Score (1-5): 4
+   - 문장은 전반적으로 잘 구성되어 있으며, 문법적으로도 큰 문제가 없습니다. 그러나 내용의 정확성에 따라 점수가 영향을 받을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 연결되어 있으며, 문장 간의 흐름이 자연스럽습니다. 그러나 내용의 정확성 문제로 인해 전체적인 일관성에 영향을 미칠 수 있습니다.
+6. Accuracy Score (1-5): 1
+   - 생성된 응답은 사실과 크게 다르며, 잘못된 정보를 포함하고 있습니다. 원본 텍스트의 사실을 반영하지 못하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 여러 차원에서 모두 낮은 점수를 기록하고 있으며, 전반적으로 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 의미적으로는 전형에 대한 정보를 제공하고 있지만, 잘못된 정보로 인해 적절하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 문장은 이해하기 쉬우나, 잘못된 정보로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C522" t="n">
+        <v>0.6420076256068586</v>
+      </c>
+      <c r="D522" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 나군 수능(일반학생전형) 전형에서는 어떤 모집단위가 제외되나요?</t>
+        </is>
+      </c>
+      <c r="E522" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군 수능(일반학생전형)에서는 레저스포츠학과와 태권도학과가 제외되었습니다. 이는 전형요소 반영비율에서 명시되어 있습니다.</t>
+        </is>
+      </c>
+      <c r="F522" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 나군 수능(일반학생전형) 전형에서는 한의예과, 디자인조형학과와 체육학과, 경기지도학과가 제외됩니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B523" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 원문과 일치하는 사실을 포함하고 있으며, 수능 최저기준이 적용되지 않는다는 점을 정확히 전달하고 있습니다. 그러나 "모든 다군 전형에서 공통된 특징입니다"라는 추가 정보는 원문에 명시되어 있지 않으므로 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원문과 일관되며, 수능 최저기준이 적용되지 않는다는 주제를 유지하고 있습니다. 그러나 추가된 정보가 원문에 없는 내용이므로 완전한 일관성은 아닙니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원문과 관련된 내용을 잘 다루고 있으며, 주제에 대한 적절한 정보를 제공합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉽습니다. 다만, "이는 모든 다군 전형에서 공통된 특징입니다" 부분이 약간의 어색함을 줄 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 원문과의 연결이 명확합니다. 그러나 추가된 정보가 원문과의 흐름을 약간 방해할 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원문에서 제공된 정보에 대한 정확성을 유지하고 있지만, 추가된 정보가 원문에 없는 내용이므로 완전한 정확성은 아닙니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 차원에서 좋은 품질을 보여주지만, 원문에 없는 정보를 포함하고 있어 약간의 감소가 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원문의 의미와 맥락에 적절하게 부합하지만, 추가된 정보가 원문과의 의미적 일치를 약간 저해할 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽지만, 추가된 정보가 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C523" t="n">
+        <v>0.8652922209231562</v>
+      </c>
+      <c r="D523" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대의 다군 전형에서 수능 최저기준이 적용되나요?</t>
+        </is>
+      </c>
+      <c r="E523" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교의 다군 전형에서는 수능 최저기준이 적용되지 않습니다. 이는 모든 다군 전형에서 공통된 특징입니다. 자세한 내용은 제공된 정보를 바탕으로 확인하실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F523" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2024학년도 동의대의 다군 전형에서는 수능 최저기준이 적용되지 않습니다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B524" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있으며, 학부에서 학과로 분리된 모든 학과를 올바르게 나열하고 있습니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 제공된 정보가 서로 충돌하지 않습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 주제와 관련이 있으며, 학부에서 학과로의 분리에 대한 정보를 직접적으로 다루고 있습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고, 읽기 쉽게 잘 구성되어 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 자연스럽습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 품질 차원에서 우수한 성과를 보입니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 명확하고 이해하기 쉬우며, 독자가 쉽게 따라갈 수 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C524" t="n">
+        <v>0.6389445880729794</v>
+      </c>
+      <c r="D524" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대에서 어떤 학과가 학부에서 학과로 분리되었나요?</t>
+        </is>
+      </c>
+      <c r="E524" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서는 여러 학과들이 학부에서 학과로 분리되었습니다. 예를 들어, 기계자동차로봇부품공학부는 기계공학과, 로봇자동화공학과, 자동차공학과로 분리되었습니다.
+이와 같이, 2023년에는 하나의 학부 형태였던 기계자동차로봇부품공학부가 2024년에는 세 개의 독립된 학과로 구성되었습니다. 이는 각 학과에서 전문성을 더욱 강화하고자 하는 노력의 일환으로 보입니다.
+더 자세한 정보를 원하시면, https://ipsi.deu.ac.kr/main.do 웹사이트를 참조해보시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F524" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대에서 학부에서 학과로 분리된 학과는 다음과 같습니다:
+1. 보육가정상담학과 → 아동학과
+2. 경제금융보험학과 → 금융경영학과
+3. 정보경영학부 → 경영정보학과, e비즈니스학과
+4. 부동산금융자산경영학과 → 부동산자산경영학부(부동산투자학, 부동산개발경영학)
+5. 기계자동차로봇부품공학부 → 기계공학과, 로봇자동화공학과, 자동차공학과
+6. 신소재공학부(금속소재공학, 전기전자소재공학, 고분자소재공학) → 신소재공학과, 고분자나노공학과
+7. 건설공학부(건축학(5년제), 건축공학, 토목공학, 도시공학) → 건축학과(5년제), 건축공학과, 토목공학과, 도시공학과
+8. 화학환경공학부(화학공학, 환경공학, 응용화학) → 화학공학과, 환경공학과, 응용화학과
+9. 바이오응용공학부(의생명공학, 바이오의약공학, 식품공학) → 의생명공학과, 바이오의약공학과, 식품공학과
+10. 디자인공학부(인간시스템디자인공학, 제품디자인공학) → 인간공학과, 제품디자인공학과
+11. 산업융합시스템공학부(산업ICT기술공학, 산업경영빅데이터공학) → 산업경영빅데이터공학과
+12. 창의소프트웨어공학부(컴퓨터소프트웨어공학, 응용소프트웨어공학) → 소프트웨어공학부(컴퓨터소프트웨어공학, 응용소프트웨어공학)
+13. 전기전자통신공학부(전기공학, 전자공학, 정보통신공학) → 전기공학과, 전자공학과
+14. 음악학과(성악, 피아노, 관현타악, 실용음악뮤지컬, 뉴미디어작곡) → 음악학과(클래식, 실용음악, 뉴미디어작곡)</t>
+        </is>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B525" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원서접수 마감일과 시간을 정확하게 반영하고 있으며, 추가적인 정보(인터넷 접수)를 포함하고 있어 사실적입니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 마감일과 시간에 대한 정보가 일치합니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 내용을 직접적으로 다루고 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 자연스럽게 읽히며, 흐름이 매끄럽습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 일관되게 전달됩니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 추가적인 정보도 정확합니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C525" t="n">
+        <v>0.846015950337327</v>
+      </c>
+      <c r="D525" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 전형일정에서 원서접수 마감일은 언제인가요?</t>
+        </is>
+      </c>
+      <c r="E525" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 전형일정에서 원서접수(인터넷) 마감일은 2024. 01. 06.(토)까지이며, 마감 시간은 18시까지입니다.</t>
+        </is>
+      </c>
+      <c r="F525" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 전형일정에서 원서접수 마감일은 2024년 1월 6일(토) 18시입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B526" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 생성된 응답은 전형 요소 변화에 대한 일부 정보를 포함하고 있지만, 원본 텍스트의 세부 사항과 정확성이 부족합니다. 예를 들어, '학생부종합(성인학습자전형)'의 설명이 원본과 다르게 기술되어 있습니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 일부 내용을 반영하고 있지만, 여러 전형의 설명이 중복되거나 잘못된 정보가 포함되어 있어 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 전형 요소 변화에 대한 질문에 적절하게 답변하고 있으나, 일부 불필요한 세부 사항이 포함되어 있어 약간의 관련성이 떨어집니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장은 다소 복잡하게 구성되어 있어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 여러 전형에 대한 정보를 제공하지만, 정보의 흐름이 매끄럽지 않고 중복된 내용이 있어 일관된 논리적 흐름이 부족합니다.
+6. Accuracy Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 일부 사실을 반영하고 있지만, 전형의 세부 사항이 정확하지 않거나 누락된 부분이 있어 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 전반적으로 생성된 응답은 여러 품질 차원에서 평균적인 성과를 보이고 있으나, 사실성과 일관성에서 부족함이 있어 전반적인 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 대체로 적합하지만, 일부 세부 사항에서 부정확한 표현이 있어 완전한 적합성은 부족합니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으나, 일부 복잡한 문장 구조로 인해 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C526" t="n">
+        <v>0.7978063501772399</v>
+      </c>
+      <c r="D526" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도에 전형 요소 변화가 있는 전형은 무엇이 있나요?</t>
+        </is>
+      </c>
+      <c r="E526" t="inlineStr">
+        <is>
+          <t>2024학년도에 전형 요소 변화가 있는 전형들은 다음과 같습니다.
+1. **학생부종합(평생학습자전형/성인학습자(정원내외)전형/재직자전형)**:
+   - **서류 평가 영역**: 공동체역량, 학업역량, 전공적합성이 있습니다.
+     - **공동체역량**: 협업능력
+     - **학업역량**: 학업태도/성취, 수업시간 적극적 참여, 성적추이
+     - **전공적합성**: 열정
+2. **학생부종합(조기취업형계약학과전형)**:
+   - 서류와 면접의 반영 비율이 변경되었습니다.
+     - **서류**: 60%
+     - **면접**: 40%
+3. **학생부종합(평생학습자전형/성인학습자(정원내외)전형/재직자전형)**:
+   - 서류와 면접의 반영 비율이 변경되었습니다.
+     - **서류**: 70%
+     - **면접**: 30%
+4. **학생부종합(조기취업형계약학과전형)**:
+   - 서류와 면접의 반영 비율이 변경되었습니다.
+     - **서류**: 60%
+     - **면접**: 40%
+5. **학생부교과성적 반영방법**:
+   - **2023년도**: 고교 졸업자: 1학년 1학기~3학년 2학기, 고교 졸업(예정)자: 1학년 1학기~3학년 1학기
+   - **2024년도**: 반영학기 고교 졸업(예정)자: 1학년 1학기~3학년 1학기
+6. **진로선택과목 성적반영**:
+   - **2023년도**: A: 2등급, B: 4등급, C: 6등급
+   - **2024년도**: A: 1등급, B: 3등급, C: 5등급
+7. **진로선택과목 반영과목 수**:
+   - **2023년도**: 전 모집단위(한의예과 제외) 8과목
+     - 국어, 수학, 영어교과 중 석차등급 상위 8과목 4과목: 8과목을 제외한 국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학교과 중 석차등급 상위 4과목
+   - **2024년도**: 전 모집단위(한의예과 제외) 12과목
+     - 국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학교과 중 석차등급 상위 12과목
+8. **진로선택과목 성적반영**:
+   - **2023년도**: A: 2등급, B: 4등급, C: 6등급
+   - **2024년도**: A: 1등급, B: 3등급, C: 5등급
+9. **재직자전형 제출서류**:
+   - 지원자격서류 4대 보험 가입자: 건강보험자격득실확인서, 국민연금가입증명서, 고용보험자격이력내역서
+   - 지원자격서류 4대 보험 미가입/창업 및 자영업자: 사업자등록증명원 또는 폐업사실증명원, 소득금액증명원
+위와 같은 변화가 있습니다. 더 궁금한 사항이 있으시다면 "https://ipsi. deu. ac. kr/main. do"를 참조해주세요.</t>
+        </is>
+      </c>
+      <c r="F526" t="inlineStr">
+        <is>
+          <t xml:space="preserve">동의대 2024학년도에 전형 요소 변화가 있는 전형은 다음과 같습니다:
+1.  학생부종합(성인학습자전형):
+ - 2023학년도: 특성화고 등을 졸업한 재직자
+ - 2024학년도: 고교 졸업(예정)자 또는 법령에 의한 동등 학력 소지자로서 만 30세 이상인 자
+2.  학생부종합(조기취업형계약학과전형):
+  - 2023학년도: 서류(학생부) 70% + 면접 30%
+  - 2024학년도: 서류(학생부) 60% + 면접 40%
+3. 실기/실적(경기실적우수자전형):
+  - 2023학년도: 학생부교과(출결 포함) 30% + 서류(실적) 70%
+  - 2024학년도: 학생부교과 18% + 출결 12% + 서류(실적) 70%
+4. 반영학기(학생부교과, 실기/실적 위주전형):
+ - 2023학년도: 
+  - 고교 졸업예정자 : 1학년 1학기~3학년 1학기
+  - 고교 졸업자 : 1학년 1학기~3학년 2학기
+ - 2024학년도: 
+  -고교 졸업(예정)자 : 1학년 1학기~3학년 1학기
+5. 반영과목(학생부교과, 실기/실적 위주전형):
+ - 2023학년도:
+  -전 모집단위(한의예과 제외):
+   -국어, 수학, 영어교과 중 석차등급 상위 8과목
+   -8과목을 제외한 국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학교과 중 석차등급 상위 4과목
+   -반영교과 중 진로선택과목 최대 2개 이내 반영 가능
+   -진로선택과목 성적반영: A: 2등급, B: 4등급, C: 6등급
+  -한의예과:
+   -국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학, 한문교과 전과목
+   -진로선택과목: 미반영
+- 2024학년도:
+  -전 모집단위(한의예과 제외):
+   -국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학교과 중 석차등급 상위 12과목
+   -반영교과 중 진로선택과목 최대 2개 이내 반영 가능
+   -진로선택과목 성적반영: A: 1등급, B: 3등급, C: 5등급
+  -한의예과:
+   -국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학, 한문교과 전과목
+   -진로선택과목: 반영교과 전과목 반영
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B527" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 실기 비중이 70%라는 사실을 정확하게 반영하고 있습니다. 그러나 수능의 비중이 30%라는 추가 정보는 원본 텍스트에 포함되어 있지 않으므로, 이 부분에서 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트와 일치하는 부분이 있지만, 수능 비중에 대한 언급이 추가되어 있어 일관성이 떨어집니다. 원본 텍스트에는 수능 비중에 대한 정보가 없기 때문에, 이로 인해 일관성이 부족합니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 실기 비중에 대한 정보를 직접적으로 다루고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 약간의 어색한 표현이 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 실기 비중에 대한 설명이 명확하게 이어집니다. 그러나 수능 비중에 대한 언급이 추가되어 약간의 흐름이 깨질 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 실기 비중이 70%라는 정보는 정확하지만, 수능 비중에 대한 정보는 원본 텍스트에 없으므로 정확성에서 약간의 감점이 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 차원에서 좋은 성과를 보이지만, 일관성과 정확성에서 약간의 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 맞지만, 수능 비중에 대한 언급이 다소 부적절할 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하지만, 추가된 정보로 인해 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C527" t="n">
+        <v>0.8307744487235447</v>
+      </c>
+      <c r="D527" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군 실기/실적 전형에서 실기 비중은 얼마인가요?</t>
+        </is>
+      </c>
+      <c r="E527" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군 실기/실적 전형에서 실기의 비중은 70%입니다. 이는 전형요소 반영비율에서 실기가 차지하는 비율로, 수능의 경우 30%를 차지하고 있습니다.</t>
+        </is>
+      </c>
+      <c r="F527" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 가군 실기/실적 전형에서 실기 비중은 70%입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B528" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있으며, 라이프융합학부의 세부 전공을 올바르게 나열하고 있습니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 제공된 정보와 모순되는 부분이 없습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 주제와 관련이 있으며, 질문에 대한 직접적인 답변을 제공합니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고, 읽기 쉽게 잘 구성되어 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 자연스럽습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C528" t="n">
+        <v>0.795950285181054</v>
+      </c>
+      <c r="D528" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 신설된 학과 중 라이프융합학부의 세부 전공은 어떻게 구성되어 있나요?</t>
+        </is>
+      </c>
+      <c r="E528" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 신설된 학과로는 '라이프융합학부'가 있습니다. 이 학부의 세부 전공으로는 '스타트업창업투자학', '뷰티비즈니스학', '라이프생활문화학'이 포함되어 있습니다.
+따라서, 라이프융합학부의 세부 전공 구성은 다음과 같습니다:
+1. 스타트업창업투자학
+2. 뷰티비즈니스학
+3. 라이프생활문화학
+이 정보는 제공된 문맥을 기반으로 추론한 것입니다. 더 자세한 내용이나 변경 사항이 있는 경우, 공식 웹사이트 (https://ipsi. deu. ac. kr/main. do)를 참조하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F528" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 신설된 라이프융합학부의 세부 전공은 다음과 같이 구성되어 있습니다:
+ - 스타트업창업투자학
+ - 뷰티비즈니스학
+ - 라이프생활문화학</t>
+        </is>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B529" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 '태권도학과'를 포함하고 있지만, 원본 텍스트에는 '체육학과'가 포함되어 있습니다. 따라서 사실적 정확성이 떨어집니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않는 정보를 포함하고 있으며, '태권도학과'라는 학과가 추가되어 있습니다. 이는 일관성을 저해합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 주제와 관련이 있지만, 원본 텍스트의 핵심 정보를 일부 누락하고 있습니다. 그러나 실기고사에 대한 추가 정보를 제공하여 관련성을 높이고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 자연스럽습니다. 그러나 원본 텍스트와의 불일치로 인해 완전한 일관성을 유지하지는 못합니다.
+6. Accuracy Score (1-5): 2
+   - 설명: '태권도학과'라는 잘못된 정보가 포함되어 있어 정확성이 낮습니다. 원본 텍스트의 정보와 일치하지 않습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 여러 차원에서 평균적인 성과를 보이고 있으나, 사실성과 일관성에서 큰 문제가 있어 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 주제와 관련이 있지만, 원본 텍스트의 의미와 다소 어긋나는 부분이 있어 의미적으로 완벽하게 적절하지는 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽지만, 원본 텍스트와의 불일치로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C529" t="n">
+        <v>0.7081301536963587</v>
+      </c>
+      <c r="D529" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군에서 실기고사에 참여해야 하는 학과는 어떤 것들이 있나요?</t>
+        </is>
+      </c>
+      <c r="E529" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군에서 실기고사를 진행하는 학과는 다음과 같습니다.
+1. 레저스포츠학과
+2. 태권도학과
+이 두 학과만 가군 수능(일반학생전형) 또는 실기/실적(일반학생전형)에서 실기고사를 진행합니다. 이 외의 학과는 모두 수능 성적이 반영되는 방식으로 모집됩니다.
+더 궁금하신 사항이 있으시다면 https://ipsi. deu. ac. kr/main. do를 참조해주세요.</t>
+        </is>
+      </c>
+      <c r="F529" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군에서 실기고사에 참여해야 하는 학과는 다음과 같습니다:
+1. 체육학과
+2. 레저스포츠학과</t>
+        </is>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B530" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 동의대학교의 실기/실적 위주 전형에 대한 정보가 잘못되었습니다. 원본 텍스트에서 언급된 학과들은 레저스포츠학과, 태권도학과, 디자인조형학과, 체육학과, 경기지도학과인데, 생성된 응답에서는 전기공학과와 전자공학과가 언급되어 있습니다. 이는 사실과 다릅니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않으며, 서로 다른 정보를 제공합니다. 원본 텍스트의 학과 목록과 생성된 응답의 학과 목록이 서로 다르기 때문에 일관성이 없습니다.
+3. Relevance Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 없습니다. 원본 텍스트는 특정 학과에 대한 정보를 제공하는 반면, 생성된 응답은 다른 전형에 대한 정보를 제공하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성과 관련성 부족으로 인해 전체적인 평가에 영향을 미칩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 내부적으로는 일관된 구조를 가지고 있지만, 원본 텍스트와의 관계가 없기 때문에 전체적인 일관성은 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 전혀 일치하지 않으며, 잘못된 정보를 포함하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않으며, 부적절한 정보를 제공합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 명확하고 이해하기 쉬운 문장으로 구성되어 있지만, 내용의 부적절성으로 인해 전체적인 이해에 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C530" t="n">
+        <v>0.4894671406563454</v>
+      </c>
+      <c r="D530" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도에 실기/실적 위주 전형을 지원하려고 하는데, 어떤 학과가 해당되나요?</t>
+        </is>
+      </c>
+      <c r="E530" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 실기/실적 위주 전형인 '경기실적우수자전형'은 전기공학과 (가)와 전자공학과 (가)에 해당됩니다. 이 외에는 다른 학과에서는 해당되지 않습니다.
+만약 더 자세한 정보나 추가적인 질문이 있으시다면, "https://ipsi. deu. ac. kr/main. do"를 참조하시거나 다시 문의해 주세요.</t>
+        </is>
+      </c>
+      <c r="F530" t="inlineStr">
+        <is>
+          <t xml:space="preserve">동의대 2024학년도 실기/실적 위주 전형 지원 가능한 학과는 다음과 같습니다:
+1. 레저스포츠학과
+2. 태권도학과
+3. 디자인조형학과
+4. 체육학과
+5. 경기지도학과 </t>
+        </is>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B531" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 동의대학교의 라이프융합학부에서 제공하는 전공 목록을 일부 정확하게 언급하고 있지만, "부동산자산경영학부"와 관련된 전공은 원본 텍스트에 포함되어 있지 않으며, 이는 잘못된 정보입니다. 따라서 사실성 점수는 낮습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않는 정보를 포함하고 있습니다. "부동산자산경영학부"와 관련된 전공이 추가되어 있어 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 동의대학교의 라이프융합학부와 관련된 전공에 대한 정보를 제공하고 있으나, 잘못된 전공이 포함되어 있어 일부 관련성이 떨어집니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 "신설"이라는 단어의 사용이 다소 어색하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 전공 목록을 나열하고 있지만, "신설"이라는 단어가 전공 목록과 연결되는 방식이 명확하지 않아 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트에 포함되지 않은 전공을 추가하여 정확성이 떨어집니다. 원본 텍스트의 정보와 일치하지 않는 부분이 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 여러 차원에서 생성된 응답이 낮은 점수를 받았습니다. 사실성, 일관성, 정확성에서 문제가 있어 전반적인 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 의미적으로 적절한 부분이 있지만, 잘못된 정보가 포함되어 있어 의미 전달이 완벽하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으나, 일부 정보의 부정확성으로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C531" t="n">
+        <v>0.8684733352540346</v>
+      </c>
+      <c r="D531" t="inlineStr">
+        <is>
+          <t>동의대의 라이프융합학부에서는 어떤 전공을 제공하나요?</t>
+        </is>
+      </c>
+      <c r="E531" t="inlineStr">
+        <is>
+          <t>동의대학교의 라이프융합학부에서는 다음과 같은 전공을 제공하고 있습니다.
+1. 신설 (스타트업창업투자학, 뷰티비즈니스학, 라이프생활문화학)
+2. 부동산자산경영학부 (부동산투자학, 부동산개발경영학)
+이와 같이 다양한 전공을 제공하고 있으며, 학생들은 자신의 관심 분야에 따라 선택할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F531" t="inlineStr">
+        <is>
+          <t>동의대학교의 라이프융합학부는 신설된 학부로, 다음과 같은 전공을 제공합니다:
+ - 스타트업창업투자학
+ - 뷰티비즈니스학
+ - 라이프생활문화학</t>
+        </is>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B532" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 특수목적고등학교 출신 학생이 일반학생전형으로 지원할 수 있다는 사실을 정확하게 반영하고 있습니다. 그러나 농어촌학생전형에 대한 언급이 없고, 마이스터고에 대한 정보가 누락되어 있어 완전한 정확성은 다소 부족합니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원문과 일관되게 특수목적고등학교 학생의 지원 가능성을 언급하고 있습니다. 다만, 농어촌학생전형에 대한 정보가 포함되지 않아 약간의 일관성 부족이 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 질문에 대한 직접적인 답변을 제공하며, 관련된 추가 정보를 포함하고 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장 구조를 가지고 있습니다. 그러나 약간의 어색한 표현이 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다. 그러나 약간의 중복된 정보가 있어 완전한 일관성은 부족할 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원문에서 제공된 정보와 대체로 일치하지만, 농어촌학생전형에 대한 정보가 누락되어 있어 정확성에서 약간의 부족함이 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행되고 있으며, 전반적으로 높은 점수를 받을 수 있습니다. 그러나 일부 세부 사항에서 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원문과 의미적으로 잘 일치하며, 적절한 맥락에서 정보를 제공합니다. 그러나 일부 세부 사항에서 더 명확할 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되어 있습니다. 그러나 약간의 복잡한 표현이 있어 완전한 이해를 방해할 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C532" t="n">
+        <v>0.7222642401320363</v>
+      </c>
+      <c r="D532" t="inlineStr">
+        <is>
+          <t>나는 특수목적고등학교 학생인데, 동의대 일반학생전형으로 지원 가능한가요?</t>
+        </is>
+      </c>
+      <c r="E532" t="inlineStr">
+        <is>
+          <t>네, 특수목적고등학교 학생인 경우 동의대학교 일반학생전형으로 지원이 가능합니다. 예를 들어, 과학고, 국제고, 외국어고 등은 지원 자격에 포함되어 있습니다.
+다만, 정확한 지원 자격과 제출 서류는 해당 대학의 공식 홈페이지나 입학처에서 확인하는 것이 가장 정확할 것입니다. 따라서 "https://ipsi. deu. ac. kr/main. do" 링크를 통해 동의대학교의 입학규정을 확인하시기 바랍니다.
+또한, 지원 자격과 제출 서류가 변경될 수 있으므로 최신 정보를 확인하는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F532" t="inlineStr">
+        <is>
+          <t>특수목적고등학교 출신 학생은 일반학생전형으로 지원할 수 있습니다. 다만, 농어촌학생전형의 경우 마이스터고를 제외한 특수목적고등학교 출신자는 지원할 수 없습니다. 일반학생전형에 대한 자세한 정보는 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B533" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 내용을 왜곡하고 있으며, 동의대 나군 전형에서 가장 많이 모집하는 학과에 대한 명확한 정보를 제공하지 않고 있습니다. 원본 텍스트는 중어중국학과와 신소재공학과가 가장 많이 모집된다고 명시하고 있지만, 생성된 응답은 이를 부정하고 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상충되는 내용을 포함하고 있습니다. 원본 텍스트의 정보와 일치하지 않으며, 서로 모순되는 주장을 하고 있습니다.
+3. Relevance Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 없으며, 질문에 대한 직접적인 답변을 제공하지 않습니다. 원본 텍스트의 핵심 정보를 무시하고 있습니다.
+4. Fluency Score (1-5): 3
+   - 설명: 생성된 응답은 문법적으로 일부 오류가 있으며, 읽기에는 다소 매끄럽지 않은 부분이 있습니다. 그러나 전반적으로 이해할 수 있는 수준입니다.
+5. Coherence Score (1-5): 2
+   - 설명: 생성된 응답은 논리적인 흐름이 부족하고, 주제가 일관되지 않으며, 원본 텍스트와의 연결이 약합니다. 정보가 분산되어 있어 일관된 메시지를 전달하지 못하고 있습니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 크게 다르며, 잘못된 정보를 포함하고 있습니다. 원본 텍스트의 핵심 사실을 왜곡하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다. 전반적으로 원본 텍스트와의 관계가 부정적입니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않으며, 부적절한 내용을 포함하고 있습니다. 원본의 의도를 왜곡하고 있습니다.
+9. Understandability Score (1-5): 2
+   - 설명: 생성된 응답은 일부 이해할 수 있는 부분이 있지만, 전반적으로 혼란스럽고 명확하지 않은 내용이 많아 이해하기 어렵습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 3,
+    "Coherence Score": 2,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 2
+}</t>
+        </is>
+      </c>
+      <c r="C533" t="n">
+        <v>0.5911901655158182</v>
+      </c>
+      <c r="D533" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대 나군 전형에서 가장 많이 모집하는 학과는 어떤 학과인가요?</t>
+        </is>
+      </c>
+      <c r="E533" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 나군 전형에서 가장 많이 모집하는 학과를 단순히 위 정보로是从给定的上下文中提取信息，2024年东义大学南军招生中最多招收的专业无法直接得出结论。提供的信息主要集中在不同专业和类型的招生要求、考试科目及评分标准等方面，并没有明确指出哪个专业是最多的。如果需要了解具体哪一专业被最广泛地招收，建议访问“https://ipsi. deu. ac. kr/main. do”以获取最新和详细的信息。
+如果有其他相关问题或需要进一步的帮助，请告诉我！</t>
+        </is>
+      </c>
+      <c r="F533" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대 나군 전형에서 가장 많이 모집하는 학과는 인문사회과학대학의 중어중국학과와 공과대학 신소재공학과로, 나군 일반학생 전형에서 32명을 모집합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B534" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 특수목적고등학교 출신자가 동의대 학생부교과 농어촌학생전형으로 지원할 수 없다는 사실을 완전히 반대로 설명하고 있습니다. 이는 명백한 사실 오류입니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 상충되는 정보를 제공하고 있습니다. 원문에서는 지원할 수 없다고 명시하고 있는데, 생성된 응답은 지원이 가능하다고 주장하고 있습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 관련된 내용을 포함하고 있지만, 잘못된 정보를 바탕으로 하고 있어 전체적으로 관련성이 떨어집니다.
+4. Fluency Score (1-5): 4
+   - 설명: 문장은 전반적으로 잘 구성되어 있으며, 문법적으로도 큰 오류가 없습니다. 그러나 내용의 정확성이 떨어지므로 점수를 약간 낮추었습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 응답은 일관된 구조를 가지고 있지만, 잘못된 정보로 인해 전체적인 논리적 흐름이 약간 손상되었습니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 제공하는 사실과 완전히 반대되는 정보를 포함하고 있어 정확성이 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 여러 차원에서 모두 낮은 점수를 기록하고 있으며, 전반적으로 품질이 매우 낮습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원문의 의미와 맥락에 맞지 않으며, 잘못된 정보를 전달하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 문장은 이해하기 쉬운 구조를 가지고 있지만, 잘못된 정보로 인해 혼란을 초래할 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C534" t="n">
+        <v>0.6548460533742384</v>
+      </c>
+      <c r="D534" t="inlineStr">
+        <is>
+          <t>나는 특수목적고등학교 학생인데, 동의대 학생부교과 농어촌학생전형으로 지원 가능한가요?</t>
+        </is>
+      </c>
+      <c r="E534" t="inlineStr">
+        <is>
+          <t>네, 특수목적고등학교 학생인 경우에도 동의대학교에서 농어촌학생전형을 통해 지원이 가능합니다. 특수목적고등학교 중 과학고, 국제고, 외국어고는 포함되며, 예술고와 체육고, 마이스터고도 지원이 가능합니다.
+특히, 6년 과정의 경우, 중·고등학교 재학기간 동안 본인 및 부모 모두가 농어촌 지역에 거주한 자여야 합니다. 12년 과정의 경우는 초·중·고등학교 전 교육과정을 농어촌 지역 소재 학교에서 이수하고 거주한 자여야 합니다.
+제출서류는 각 유형별로 다르므로, 정확한 내용은 동의대학교 입학처 웹사이트를 참조하시거나 직접 문의하시는 것이 좋습니다. "https://ipsi. deu. ac. kr/main. do" 링크에서 더 자세한 정보를 얻으실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F534" t="inlineStr">
+        <is>
+          <t>마이스터고를 제외한 특수목적고등학교 출신자는 동의대 학생부교과 농어촌학생전형으로 지원할 수 없습니다.  지원 자격에 따르면, 농어촌지역 또는 도서·벽지에 소재한 특수목적고 중 과학고, 국제고, 외국어고, 체육고, 예술고 출신자는 지원할 수 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B535" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있으며, 합격자 평균 성적에 대한 정보가 포함되어 있지 않다는 점을 명확히 전달하고 있습니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 정보의 부재에 대한 설명이 일치합니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 있으며, 요청된 정보에 대한 적절한 답변을 제공합니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 자연스럽게 읽히며, 흐름이 매끄럽습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 일관되게 전달됩니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이며, 사실성, 일관성, 관련성, 정확성 모두에서 높은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하며, 의미 전달이 명확합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 독자가 쉽게 따라갈 수 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C535" t="n">
+        <v>0.8192952088772855</v>
+      </c>
+      <c r="D535" t="inlineStr">
+        <is>
+          <t>2024학년도 소프트웨어공학부 합격자 평균 성적을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E535" t="inlineStr">
+        <is>
+          <t>2024학년도 소프트웨어공학부의 합격자 평균 성적에 대한 정보는 제공된 데이터에서 확인할 수 없습니다. 제공된 정보는 다른 학과와 전공의 평균 성적 및 기타 통계를 포함하고 있습니다. 더 자세한 정보를 얻기 위해서는 "https://ipsi.deu.ac.kr/main.do" 웹사이트를 방문하여 확인해보시거나, 대학 관계자에게 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F535" t="inlineStr">
+        <is>
+          <t>제공된 정시 모집요강에는 2024학년도 소프트웨어공학부 합격자 평균 성적에 대한 정보가 포함되어 있지 않습니다. 해당 정보를 확인하려면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B536" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 생성된 응답은 2024학년도 소프트웨어공학부 합격자 평균 성적에 대한 정보가 포함되어 있지 않다는 원문과 상충되는 내용을 담고 있습니다. 따라서 사실성이 매우 낮습니다.
+2. Consistency Score (1-5): 1
+   - 생성된 응답은 원문과 완전히 모순되는 정보를 제공하고 있습니다. 원문에서는 평균 성적에 대한 정보가 없다고 명시하고 있는데, 생성된 응답은 구체적인 평균 성적을 제시하고 있습니다.
+3. Relevance Score (1-5): 1
+   - 생성된 응답은 원문에서 요청한 정보와 관련이 없습니다. 원문은 평균 성적에 대한 정보가 없다고 하였으나, 생성된 응답은 구체적인 성적을 제시하고 있어 주제와 관련이 없습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성과 관련성 문제로 인해 전체적인 평가에 영향을 미칩니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 내부적으로는 일관성이 있지만, 원문과의 관계에서 비논리적입니다. 원문과의 연결이 없기 때문에 전체적인 일관성은 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 생성된 응답은 원문에서 제공하지 않는 정보를 포함하고 있으며, 이는 사실적으로 부정확합니다. 따라서 정확성 점수는 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 모든 평가 기준에서 낮은 점수를 받았기 때문에, 전체적인 품질 점수도 낮습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 생성된 응답은 원문의 의미와 맥락에 맞지 않으며, 부적절한 내용을 포함하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 문법적으로 명확하고 이해하기 쉬운 구조를 가지고 있지만, 내용의 부정확성으로 인해 전체적인 이해에 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C536" t="n">
+        <v>0.5055434586442002</v>
+      </c>
+      <c r="D536" t="inlineStr">
+        <is>
+          <t>2024학년도 소프트웨어공학부 최초 합격자 평균 성적을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E536" t="inlineStr">
+        <is>
+          <t>2024학년도 소프트웨어공학부 최초 합격자의 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균은 330.11입니다.</t>
+        </is>
+      </c>
+      <c r="F536" t="inlineStr">
+        <is>
+          <t>제공된 정시 모집요강에는 2024학년도 소프트웨어공학부 합격자 평균 성적에 대한 정보가 포함되어 있지 않습니다. 해당 정보를 확인하려면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B537" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 합격자 발표 일정에 대한 정보를 포함하고 있지만, 일부 세부사항이 원본 텍스트와 일치하지 않거나 추가된 정보가 있습니다. 예를 들어, 최초 합격자 등록 날짜와 관련된 정보는 원본에 없으며, 충원 합격자 발표와 등록에 대한 정보가 혼합되어 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 일부 정보를 포함하고 있지만, 추가된 정보로 인해 일관성이 떨어집니다. 특히, 등록 관련 세부사항이 원본에 없기 때문에 일관성이 부족합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 합격자 발표 일정에 대한 정보를 제공하며, 원본 텍스트의 주요 주제와 관련이 있습니다. 그러나 추가된 등록 정보는 원본의 주요 내용과는 다소 관련이 적습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장 구조가 다소 복잡하여 약간의 유창성 저하가 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 명확하게 전달됩니다. 그러나 추가된 정보로 인해 약간의 일관성이 떨어질 수 있습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 일부 정확한 정보를 포함하고 있지만, 원본 텍스트와의 불일치로 인해 정확성이 떨어집니다. 특히 등록 관련 정보는 원본에 명시되어 있지 않습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 중간 정도의 품질을 보입니다. 일부 정보는 정확하지만, 일관성과 사실성에서 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 대체로 적합하지만, 추가된 정보로 인해 약간의 의미 왜곡이 발생할 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었습니다. 그러나 일부 복잡한 문장 구조로 인해 약간의 혼란이 있을 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C537" t="n">
+        <v>0.820976964580117</v>
+      </c>
+      <c r="D537" t="inlineStr">
+        <is>
+          <t>합격자 발표 일정을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E537" t="inlineStr">
+        <is>
+          <t>2024년 합격자 발표 일정은 다음과 같습니다.
+- 최초 합격자 발표 및 등록 : 2024년 2월 2일 금요일 오후 14시
+- 최초 합격자 등록 : 2024년 2월 7일 수요일부터 2월 13일 화요일까지 (은행 마감 시간 내)
+- 충원 합격자 1차 발표 및 등록 : 각각 2024년 2월 14일 수요일 오전 9시와 오후 16시
+- 충원 합격자 2차 발표 및 등록 : 각각 2024년 2월 15일 목요일 오전 9시와 오후 16시
+- 충원 합격자 3차 이후 발표 및 등록 : 개별 전화 통보를 통해 안내되며, 2024년 2월 15일 목요일부터 2월 20일 화요일까지 (오후 18시까지)
+각 합격자 발표는 홈페이지에서 개별 조회 가능하며, 고지서는 홈페이지에서 출력하거나 입학관리팀에서 수령할 수 있습니다. 등록장소는 학교 지정은행이며, 등록금 고지서에 기재된 정보를 참고해주세요.</t>
+        </is>
+      </c>
+      <c r="F537" t="inlineStr">
+        <is>
+          <t>합격자 발표 일정은 다음과 같습니다:
+ - 최초 합격자 발표: 2024년 2월 2일(금) 14:00
+ - 충원 합격자 1차 발표: 2024년 2월 14일(수) 09:00
+ - 충원 합격자 2차 발표: 2024년 2월 15일(목) 09:00
+ - 충원 합격자 3차 이후 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18:00까지
+ 모든 발표는 홈페이지를 통해 개별 조회해야 합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B538" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 면접고사 일정에 대한 구체적인 정보를 제공하지 않고, 일반적인 면접 절차에 대한 설명을 포함하고 있습니다. 원본 텍스트에서 명시된 날짜(2024. 01. 20.)가 누락되어 있어 사실성이 낮습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 특정 정보를 반영하지 않고, 일반적인 면접 절차에 대한 설명으로 일관성이 부족합니다. 원본의 구체적인 일정과는 상충되는 내용이 포함되어 있습니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 면접고사에 대한 일반적인 정보는 제공하지만, 원본 텍스트의 핵심 내용인 면접 일정에 대한 직접적인 답변이 부족하여 관련성이 떨어집니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적으로 연결되어 있으나, 원본 텍스트의 정보와의 연결이 부족하여 일관된 흐름이 약간 떨어집니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 구체적인 사실(면접 일정)을 반영하지 않으며, 일반적인 정보만을 제공하고 있어 정확성이 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 여러 차원에서 응답의 질이 낮으며, 사실성, 일관성, 정확성 모두에서 부족한 점이 많습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 면접에 대한 일반적인 정보를 제공하지만, 원본 텍스트의 맥락과는 다소 동떨어져 있어 의미적으로 적절성이 떨어집니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬우나, 원본 텍스트와의 관련성이 부족하여 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C538" t="n">
+        <v>0.4910789964995849</v>
+      </c>
+      <c r="D538" t="inlineStr">
+        <is>
+          <t>면접고사는 언제 보러 가나요</t>
+        </is>
+      </c>
+      <c r="E538" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 면접고사는 일반적으로 서류평가 점수에 따라 선발된 후 일정한 날짜에 이루어집니다. 정확한 날짜와 시간은 나군 학생부종합(평생학습자전형ㅣ성인학습자(정원내·외)전형ㅣ재직자전형)의 공식 웹사이트에서 확인할 수 있습니다. 해당 웹사이트 주소는 "https://ipsi. deu. ac. kr/main. do" 입니다. 웹사이트를 통해 최신 정보와 면접 일정을 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F538" t="inlineStr">
+        <is>
+          <t>나군 평생학습자전형, 성인학습자(정원내)전형, 성인학습자(정원외)전형, 재직자전형, 조기취업형계약학과전형의 면접고사 일정은 2024. 01. 20.(토)입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B539" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 동의대 한의예과의 최저학력 기준이 없다는 사실을 정확하게 반영하고 있습니다. 그러나 "수능 위주 전형으로 모집된다"는 추가 정보는 명확히 출처에서 언급되지 않았으므로, 약간의 불확실성이 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원문과 일치하는 부분이 있지만, "수능 위주 전형으로 모집된다"는 정보는 원문에 포함되어 있지 않아 일관성이 떨어집니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원문에서 다루고 있는 주제와 직접적으로 관련이 있으며, 수능 최저학력 기준에 대한 정보를 제공하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장 구조를 가지고 있습니다. 다만, "제공된 정보에 따르면"이라는 표현이 다소 어색하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 일관되게 연결되어 있습니다. 그러나 원문과의 연결이 약간 부족하여 완전한 일관성을 제공하지는 않습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 응답은 동의대 한의예과의 최저학력 기준이 없다는 사실을 정확하게 반영하고 있지만, 추가된 정보가 원문에 명시되어 있지 않아 정확성에 약간의 의문이 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 유지하고 있으며, 사실성, 관련성, 유창성, 일관성에서 좋은 점수를 받고 있습니다. 그러나 일부 정보의 출처가 불명확하여 약간의 감점이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원문과 의미적으로 잘 연결되어 있으며, 주제에 적합한 정보를 제공합니다. 그러나 추가된 정보가 원문과의 맥락에서 다소 벗어날 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 명확하고 이해하기 쉬운 내용으로 구성되어 있습니다. 다만, 일부 표현이 다소 어색하게 느껴질 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C539" t="n">
+        <v>0.5482530998045215</v>
+      </c>
+      <c r="D539" t="inlineStr">
+        <is>
+          <t>한의예과 최저학력기준</t>
+        </is>
+      </c>
+      <c r="E539" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보에 따르면, 한의예과의 경우 수능 위주 전형으로 모집되며, 수능 최저학력 기준이 없습니다. 따라서 한의예과에서 수능 최저학력 기준을 확인하려면 공식 웹사이트인 "https://ipsi. deu. ac. kr/main. do"를 참조해 보시는 것이 좋겠습니다.</t>
+        </is>
+      </c>
+      <c r="F539" t="inlineStr">
+        <is>
+          <t>동의대 한의예과의 최저학력 기준이 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B540" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 동의대학교의 수능 최저학력 기준이 없다는 사실을 정확하게 반영하고 있습니다. 모든 모집단위에서 수능 최저학력 기준이 없다는 내용이 일관되게 전달되고 있습니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원문과 일관되며, 수능 최저학력 기준이 없다는 점에서 모순이 없습니다. 모든 모집단위에서 동일한 기준이 적용된다는 점도 일관성을 유지하고 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원문에서 제시된 주제와 관련이 깊습니다. 수능 최저학력 기준에 대한 정보를 명확하게 다루고 있으며, 추가 정보 제공에 대한 언급도 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉽습니다. 다만, "제공된 정보에 따르면"이라는 표현이 조금 어색하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다. 정보의 흐름이 매끄럽습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원문에서 제시된 사실을 정확하게 반영하고 있으며, 잘못된 정보나 누락된 내용이 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원문과 의미적으로 잘 일치하며, 문맥에 적합한 내용을 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 명확하고 이해하기 쉬우며, 독자가 쉽게 내용을 파악할 수 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C540" t="n">
+        <v>0.5462234736149832</v>
+      </c>
+      <c r="D540" t="inlineStr">
+        <is>
+          <t>정시에서 수능최저학력기준이 있나요?</t>
+        </is>
+      </c>
+      <c r="E540" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보에 따르면, 모든 모집단위에서 수능 최저학력 기준이 없습니다. 각 모집단위별로 수능 반영 영역과 가산점 방식이 다르지만, 수능 최저학력 기준은 없음을 확인할 수 있습니다.
+만약 추가 정보가 필요하다면, "https://ipsi. deu. ac. kr/main. do" 웹사이트를 참조해 보시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F540" t="inlineStr">
+        <is>
+          <t>동의대학교는 수능 최저학력 기준이 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B541" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 1차 및 2차 충원합격자 발표 일정은 정확하게 반영하고 있지만, 3차 이후의 일정에 대한 정보가 누락되어 있습니다. 따라서 사실성 점수는 3으로 평가합니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 일부 일정을 일관되게 전달하고 있지만, 3차 이후의 일정에 대한 정보가 다르게 표현되어 있어 일관성이 떨어집니다. 따라서 일관성 점수는 3으로 평가합니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 내용을 잘 반영하고 있으며, 관련성이 높습니다. 따라서 관련성 점수는 5로 평가합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 다만, 약간의 어색함이 느껴질 수 있어 점수는 4로 평가합니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 전체적으로 일관된 흐름을 가지고 있습니다. 그러나 3차 이후 일정에 대한 정보가 부족하여 완전한 일관성은 부족합니다. 따라서 일관성 점수는 4로 평가합니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 1차 및 2차 발표 일정은 정확하지만, 3차 이후 일정에 대한 정보가 누락되어 있어 정확성 점수는 3으로 평가합니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 차원에서 양호한 성과를 보이지만, 일부 정보의 누락으로 인해 완벽하지는 않습니다. 따라서 다차원 품질 점수는 4로 평가합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하지만, 일부 정보가 누락되어 있어 완전한 적절성은 부족합니다. 따라서 의미 적절성 점수는 4로 평가합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되어 있습니다. 그러나 일부 정보의 누락으로 인해 완전한 이해를 방해할 수 있습니다. 따라서 이해 가능성 점수는 4로 평가합니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C541" t="n">
+        <v>0.909970501892838</v>
+      </c>
+      <c r="D541" t="inlineStr">
+        <is>
+          <t>충원합격자 발표는 언제?</t>
+        </is>
+      </c>
+      <c r="E541" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 충원합격자 발표 일정은 다음과 같습니다.
+1차 충원합격자 발표는 2024년 2월 14일(수) 오전 9시입니다.
+2차 충원합격자 발표는 2024년 2월 15일(목) 오전 9시입니다.
+이후의 일정은 개별 전화 통보로 이루어집니다.</t>
+        </is>
+      </c>
+      <c r="F541" t="inlineStr">
+        <is>
+          <t>충원합격자 발표 일정은 다음과 같습니다:
+ 1. 1차 충원합격자 발표: 2024년 2월 14일(수) 09:00
+ 2. 2차 충원합격자 발표: 2024년 2월 15일(목) 09:00
+ 3. 3차 이후 충원합격자 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18시까지</t>
+        </is>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B542" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 1차 충원합격자 발표일과 2차 충원합격자 발표일을 정확히 반영하지 않고 있으며, 3차 이후 발표 일정도 누락되어 있습니다. 따라서 사실성이 낮습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않는 정보를 제공하고 있습니다. 특히, 2024년 2월 15일(목) 09:00에 대한 언급은 있지만, 다른 발표 일정은 누락되어 있어 일관성이 부족합니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 추가합격자 발표 일정에 대한 정보를 제공하고 있지만, 원본 텍스트의 모든 발표 일정을 포함하지 않아 관련성이 떨어집니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 올바르고 읽기 쉬운 문장으로 작성되어 있습니다. 그러나 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 발표 일정에 대한 정보를 제공하지만, 원본 텍스트의 구조와 흐름을 따르지 않아 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 발표 일정에 대한 정확한 정보를 제공하지 않으며, 원본 텍스트의 중요한 세부사항을 누락하고 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 품질 차원에서 낮은 점수를 받았으며, 사실성, 일관성, 정확성 모두 부족합니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 의미적으로 적절하지만, 원본 텍스트의 맥락을 완전히 반영하지 못하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬우나, 원본 텍스트와의 관계가 명확하지 않아 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C542" t="n">
+        <v>0.6702589306393263</v>
+      </c>
+      <c r="D542" t="inlineStr">
+        <is>
+          <t>추가합격자 발표는 언제?</t>
+        </is>
+      </c>
+      <c r="E542" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 추가합격자 발표 일정은 2024년 02월 15일(목) 09:00이며, 이에 대한 자세한 정보는 합격자 발표 및 등록금 납부 항목을 참조하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F542" t="inlineStr">
+        <is>
+          <t>충원합격자 발표 일정은 다음과 같습니다:
+ 1. 1차 충원합격자 발표: 2024년 2월 14일(수) 09:00
+ 2. 2차 충원합격자 발표: 2024년 2월 15일(목) 09:00
+ 3. 3차 이후 충원합격자 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18시까지</t>
+        </is>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B543" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 수시모집 등록자의 등록 포기로 인한 결원에 대한 정보를 제공하지 않고, 추가 모집 여부에 대한 불확실성을 언급하고 있습니다. 이는 원문에서 명확히 언급된 사실과 일치하지 않습니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원문에서 제공하는 정보와 일치하지 않으며, 추가 모집에 대한 불확실성을 강조하고 있습니다. 이는 원문과의 일관성이 부족합니다.
+3. Relevance Score (1-5): 3
+   - 생성된 응답은 원문과 관련이 있지만, 원문에서 명확히 언급된 내용을 다루지 않고 있습니다. 따라서 관련성 점수가 낮습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 논리적인 흐름이 있지만, 원문과의 연결이 부족하여 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 원문에서 제공하는 정확한 정보를 반영하지 않으며, 잘못된 해석을 포함하고 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 전반적으로 생성된 응답은 여러 차원에서 낮은 점수를 받았으며, 원문과의 일관성 및 정확성이 부족합니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 의미적으로 적절하지만, 원문과의 관련성이 떨어져서 의미 전달이 부족합니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉽지만, 원문과의 연결이 부족하여 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C543" t="n">
+        <v>0.5153241767827313</v>
+      </c>
+      <c r="D543" t="inlineStr">
+        <is>
+          <t>추가모집을 하나요?</t>
+        </is>
+      </c>
+      <c r="E543" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보를 바탕으로, 특정 단과대학이나 전형의 추가 모집 여부는 명확히 알 수 없습니다. 추가 모집에 대한 자세한 정보가 필요하다면 "https://ipsi. deu. ac. kr/main. do" 웹사이트를 참조해보시거나 대학 입학처와 직접 문의해보시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F543" t="inlineStr">
+        <is>
+          <t>2024년 1월 2일(화) 이후 수시모집 등록자의 등록(입학) 포기로 인한 결원은 정시 일반학생전형 모집인원으로 이월하여 추가로 합격자를 선발합니다. 정시모집 모집단위별 등록인원이 모집인원에 미달된 경우에는 그 인원을 추가모집으로 이월하여 모집합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B544" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4  
+   - 생성된 응답은 평생학습자전형에 대한 주요 정보를 잘 반영하고 있지만, "성인학습자와 재직자를 대상으로 한다"는 부분은 원본 텍스트에 명시되어 있지 않으므로 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 3  
+   - 생성된 응답은 원본 텍스트의 정보와 일부 일치하지만, "성인학습자와 재직자"라는 추가 정보가 원본과 일치하지 않아 일관성이 떨어집니다.
+3. Relevance Score (1-5): 5  
+   - 생성된 응답은 평생학습자전형에 대한 질문에 직접적으로 관련된 정보를 제공하고 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4  
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬우나, 약간의 어색한 표현이 있을 수 있습니다.
+5. Coherence Score (1-5): 4  
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 구분되어 있어 일관된 흐름을 유지하고 있습니다.
+6. Accuracy Score (1-5): 4  
+   - 응답의 대부분은 정확하지만, "성인학습자와 재직자"라는 정보는 원본 텍스트에 포함되어 있지 않아 정확성에 약간의 문제가 있습니다.
+7. Multidimensional Quality Score (1-5): 4  
+   - 전반적으로 응답은 높은 품질을 유지하고 있으나, 일부 정보의 부정확성으로 인해 완벽하지는 않습니다.
+8. Semantic Appropriateness Score (1-5): 4  
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 맞지만, 추가된 정보가 원본과 일치하지 않아 약간의 부적절함이 있습니다.
+9. Understandability Score (1-5): 4  
+   - 응답은 전반적으로 명확하고 이해하기 쉬우나, 일부 표현이 다소 복잡할 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C544" t="n">
+        <v>0.6886634910982016</v>
+      </c>
+      <c r="D544" t="inlineStr">
+        <is>
+          <t>평생학습자전형에 대해 알려줘.</t>
+        </is>
+      </c>
+      <c r="E544" t="inlineStr">
+        <is>
+          <t>평생학습자전형은 학생부종합 전형의 일환으로, 성인학습자와 재직자를 대상으로 합니다. 서류평가 비율은 70%로, 면접평가 비율은 30%입니다.
+제출서류는 구분에 따라 다릅니다:
+1. 고교 졸업(예정)자는 학교생활기록부를 제출합니다.
+2. 검정고시 출신자는 검정고시 합격증서와 성적증명서, 그리고 선택적으로 학교생활기록부 대체 서류를 제출합니다.
+3. 외국고교 졸업(예정)자는 공증받은 외국고교 졸업(예정)증명서와 성적증명서, 그리고 선택적으로 학교생활기록부 대체 서류를 제출해야 합니다.
+면접에서는 지원동기에 대해 이야기하고, 고교(직장) 생활 중 학업에 대한 어려움과 해결하기 위한 노력, 그리고 본인이 의미하는 지원 전공(계열)과 관련된 교내(직장 내) 활동을 설명합니다.</t>
+        </is>
+      </c>
+      <c r="F544" t="inlineStr">
+        <is>
+          <t>평생학습자전형에 대한 정보는 다음과 같습니다.  
+모집단위 및 모집인원
+  - 미래융합대학 라이프융합학부
+  - 전형명: 학생부종합(평생학습자전형)
+  - 모집인원: 11명
+ 지원자격
+ - 평생학습자전형: 고교 졸업(예정)자 또는 법령에 의한 동등학력 소지자
+전형요소 반영 비율
+ - 서류: 70%
+ - 면접: 30%
+ 제출서류
+ - 고교 졸업(예정)자:
+  - 고교 학교생활기록부 1부 (학생부 온라인 제공 동의자는 제출할 필요 없음)
+- 검정고시출신자:
+  - 검정고시 합격증서 사본 또는 합격증명서 1부
+  - 검정고시 성적증명서 1부 (온라인 제공 동의자는 제출할 필요 없음)
+  - 학교생활기록부 대체 서류 (제출여부 선택 가능)
+ - 외국고교 졸업(예정)자:
+  - 공증받은 외국고교 졸업(예정)증명서 1부
+  - 공증받은 외국고교 성적증명서 1부
+  - 학교생활기록부 대체 서류(제출여부 선택 가능)
+  - 외국어로 작성된 경우, 원본과 공증받은 한국어 번역본을 함께 제출
+  - 고교 졸업(예정)증명서, 성적증명서는 해당국가의 정부기관으로부터 아포스티유 확인서 또는 해당국가 주재 한국영사관에서 영사 확인을 발급받아 제출(단, 교육부에서 인정한 재외한국학교는 영사확인 없이 증명서 원본 제출 가능)
+  - 만점이 명시된 고교성적 체계자료를 성적증명서 뒤에 첨부
+  - 최종 등록자 중 외국고교 졸업예정자는 졸업 이후 졸업증명서(아포스티유 확인서 또는 영사확인 
+발급)를 2024. 02. 16.(금)까지 추가 제출하여야 합니다.
+제출기간 및 장소
+ - 제출기간: 2024. 01. 03.(수) ~ 01. 12.(금) 17:00까지 도착분에 한함
+ - 제출장소: (우: 47340) 부산광역시 부산진구 엄광로 176, 동의대학교 입학관리팀
+ 추가사항
+ - 검정고시출신자 및 외국고교 졸업(예정)자의 제출서류 중 학교생활기록부 대체 서류는 선택 제출서류로 ‘학교생활기록부 대체 서류’ 양식을 참조.
+ 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B545" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 평생학습자전형의 지원자격에 대한 정확한 정보를 제공하지 않고, 모집군과 전형명에 대한 정보로 대체하고 있습니다. 이는 원본 텍스트의 핵심 내용을 왜곡하고 있습니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원본 텍스트와 일관성이 없습니다. 원본 텍스트는 지원자격에 대한 구체적인 내용을 제공하는 반면, 생성된 응답은 다른 정보로 대체되어 있습니다.
+3. Relevance Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 적습니다. 지원자격에 대한 질문에 대해 모집군과 전형명에 대한 정보는 직접적인 관련이 없습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 일관성 부족으로 인해 전체적인 흐름이 매끄럽지 않습니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 문장 구조는 괜찮지만, 원본 텍스트와의 연결이 부족하여 논리적인 흐름이 약간 떨어집니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 사실과 일치하지 않으며, 지원자격에 대한 정확한 정보를 제공하지 않습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 전반적으로 생성된 응답은 사실성, 일관성, 관련성, 정확성에서 낮은 점수를 받았습니다. 따라서 다차원적 품질도 낮습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 부합하지 않으며, 적절한 의미 전달이 이루어지지 않았습니다.
+9. Understandability Score (1-5): 3
+   - 생성된 응답은 문법적으로는 이해할 수 있지만, 내용이 원본 텍스트와 관련이 없기 때문에 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C545" t="n">
+        <v>0.6021201077653584</v>
+      </c>
+      <c r="D545" t="inlineStr">
+        <is>
+          <t>평생학습자전형 지원자격은?</t>
+        </is>
+      </c>
+      <c r="E545" t="inlineStr">
+        <is>
+          <t>평생학습자전형 지원 자격에서는 모집군이 나군이고, 전형명은 학생부교과입니다. 일반고, 자율고, 과학고, 국제고, 외국어고, 예술고, 체육고, 마이스터고, 특성화고의 직업 특성, 대안 특성, 영재학교, 학력인정고, 방송통신고, 각종학교, 검정고시, 외국고 모두 지원 가능합니다.</t>
+        </is>
+      </c>
+      <c r="F545" t="inlineStr">
+        <is>
+          <t>평생학습자전형의 지원자격은 다음과 같습니다
+ - 고교 졸업(예정)자 또는 법령에 의한 동등학력 소지자</t>
+        </is>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B546" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 실기고사 대기실 및 입실시간에 대한 구체적인 정보를 제공하지 않고, 대신 웹사이트를 방문하라는 일반적인 조언을 하고 있습니다. 따라서, 원본 텍스트의 구체적인 사실을 반영하지 못하고 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트와 일부분 일치하지만, 실기고사에 대한 구체적인 정보가 부족하여 일관성이 떨어집니다. 원본 텍스트의 핵심 정보인 입실시간과 대기실에 대한 언급이 없습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 실기고사와 관련된 정보를 제공하려고 하지만, 원본 텍스트의 핵심 내용인 대기실 및 입실시간에 대한 직접적인 언급이 없기 때문에 약간의 관련성 부족이 있습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 자연스럽게 작성되어 있어 읽기 쉽습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 연결되어 있지만, 원본 텍스트의 핵심 정보가 누락되어 있어 완전한 일관성을 제공하지는 않습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 구체적인 사실을 반영하지 않으며, 실기고사에 대한 정확한 정보를 제공하지 않습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 여러 차원에서 평균적인 성과를 보이고 있으며, 특히 사실성과 일관성에서 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 주제와 관련된 의미를 전달하고 있지만, 원본 텍스트의 구체적인 내용을 반영하지 않아 약간의 부적절함이 있습니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬운 문장으로 구성되어 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 5,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C546" t="n">
+        <v>0.4315844461606255</v>
+      </c>
+      <c r="D546" t="inlineStr">
+        <is>
+          <t>실기고사는 어디로 가면 되나요?</t>
+        </is>
+      </c>
+      <c r="E546" t="inlineStr">
+        <is>
+          <t>ippsi.deu.ac.kr 주소에 접속하시면 나군 학생부종합 면접평가와 관련된 자세한 정보를 얻으실 수 있습니다. 특히 실기고사의 장소 등 구체적인 안내가 있을 것입니다. 웹사이트를 방문해 보시는 것이 좋겠습니다.</t>
+        </is>
+      </c>
+      <c r="F546" t="inlineStr">
+        <is>
+          <t>실기고사 대기실 및 입실시간은 2024. 01. 12.(금) 14:00 이후 입학안내 홈페이지에서 조회 가능합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B547" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 실기고사 대기실 및 입실시간에 대한 정보가 아닌, 체육학과의 실기종목에 대한 내용을 담고 있습니다. 원본 텍스트의 핵심 정보인 입실시간과 대기실에 대한 내용이 전혀 포함되어 있지 않으며, 잘못된 정보가 포함되어 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 전혀 일치하지 않으며, 서로 다른 주제를 다루고 있습니다. 원본 텍스트의 내용과 상충하는 정보가 포함되어 있어 일관성이 없습니다.
+3. Relevance Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 관련이 없으며, 실기고사 대기실 및 입실시간에 대한 질문에 대한 답변이 아닙니다. 따라서 관련성이 매우 낮습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용이 원본 텍스트와 관련이 없기 때문에 전체적인 맥락에서의 유창성은 떨어집니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 내부적으로는 일관된 구조를 가지고 있지만, 원본 텍스트와의 연결이 없기 때문에 전체적인 일관성은 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 전혀 일치하지 않으며, 잘못된 정보가 포함되어 있습니다. 따라서 정확성 점수는 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다. 전반적으로 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 전혀 맞지 않으며, 맥락에 맞지 않는 내용이 포함되어 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로는 이해하기 쉬운 문장으로 구성되어 있지만, 원본 텍스트와의 관련성이 없기 때문에 전체적인 이해도는 떨어집니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C547" t="n">
+        <v>0.2296853191994359</v>
+      </c>
+      <c r="D547" t="inlineStr">
+        <is>
+          <t>체육학과의 실기고사는 어디로 가면 되나요?</t>
+        </is>
+      </c>
+      <c r="E547" t="inlineStr">
+        <is>
+          <t>체육학과의 실기고사는 메디신볼 던지기, 제자리 멀리뛰기, Z-런 중 하나를 치르게 됩니다. 
+모집단위별로 실기종목이 다르므로, 정확한 정보를 얻으시려면 모집단위를 확인하시기 바랍니다.
+- 메디신볼 던지기는 체육학과에서 치릅니다.
+- 제자리 멀리뛰기는 체육학과에서 치릅니다.
+- Z-런은 체육학과에서 치릅니다.
+모집단위에 따라 실기종목이 다르므로, 정확한 정보를 얻으시려면 모집단위를 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F547" t="inlineStr">
+        <is>
+          <t>실기고사 대기실 및 입실시간은 2024. 01. 12.(금) 14:00 이후 입학안내 홈페이지에서 조회 가능합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B548" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 수시 충원합격자 발표에 대한 잘못된 정보를 포함하고 있습니다. 원문에서는 전화로 개별 연락을 하지 않는다고 명시하고 있지만, 생성된 응답에서는 개별 전화 통보를 받는다고 잘못 언급하고 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 상충되는 내용을 포함하고 있습니다. 원문에서는 전화 통보가 이루어지지 않는다고 명시되어 있으나, 생성된 응답에서는 전화 통보가 이루어진다고 하여 일관성이 없습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 관련된 주제를 다루고 있지만, 잘못된 정보를 제공하고 있어 관련성이 낮습니다. 원문에서의 핵심 정보와는 다르게 잘못된 일정과 내용을 포함하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성 문제로 인해 전체적인 평가에 영향을 미칩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 문장 구조가 비교적 일관되지만, 원문과의 내용 불일치로 인해 전체적인 일관성이 떨어집니다. 원문과의 연결이 약해 보입니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 제공하는 정보와 크게 다르며, 사실과 일치하지 않는 내용을 포함하고 있습니다. 전화 통보가 이루어진다는 주장은 명백한 오류입니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 여러 차원에서 매우 낮은 점수를 받습니다. 전반적으로 원문과의 불일치가 심각합니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원문의 의미와 맥락에 맞지 않으며, 잘못된 정보를 전달하고 있습니다. 따라서 의미적으로 부적절합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 명확하고 이해하기 쉬운 구조를 가지고 있지만, 잘못된 정보로 인해 혼란을 초래할 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C548" t="n">
+        <v>0.6285932166947088</v>
+      </c>
+      <c r="D548" t="inlineStr">
+        <is>
+          <t>수시 충원합격자 발표하면 전화 주시는건가요?</t>
+        </is>
+      </c>
+      <c r="E548" t="inlineStr">
+        <is>
+          <t>2024년 수시 충원 합격자 발표 후에는 개별 전화 통보를 받으실 것입니다. 이 일정은 2024년 2월 15일(목) 오후 7시부터 2024년 2월 20일(화) 오후 6시까지입니다.
+만약 자세한 내용이 궁금하시다면 "https://ipsi. deu. ac. kr/main. do" 웹사이트를 참조해보세요.</t>
+        </is>
+      </c>
+      <c r="F548" t="inlineStr">
+        <is>
+          <t>아니요, 수시 충원합격자 발표는 전화로 개별 연락을 하지 않습니다. 최초합격자 및 1차, 2차 충원합격자 발표는 홈페이지를 통해 실시하며, 모든 지원자는 전형 일정에 명시된 합격자 발표일에 합격 여부를 반드시 홈페이지를 통해 확인해야 합니다. 3차 이후 충원합격자 발표 과정에서만 개별 전화 통보가 이루어집니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B549" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 경찰행정학과에 대한 정보가 없다는 사실을 정확하게 반영하고 있습니다. 그러나 "제공된 정보에서"라는 표현은 원문에서의 "정시 모집요강"이라는 구체적인 맥락을 약간 생략하고 있습니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원문과 일관되게 경찰행정학과에 대한 정보가 없음을 전달하고 있습니다. 다만, "제공된 정보"라는 표현이 원문에서의 맥락을 완전히 반영하지는 못하고 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원문에서 요구하는 정보와 직접적으로 관련이 있으며, 질문에 대한 적절한 답변을 제공합니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 자연스럽게 읽힙니다. 문장 구조와 표현이 매끄럽습니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 명확하게 전달됩니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원문에서의 사실을 잘 반영하고 있지만, "제공된 정보에서"라는 표현이 원문의 구체적인 내용을 완전히 전달하지 못하고 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 보이며, 사실성, 일관성, 관련성, 유창성, 일관성에서 좋은 점수를 받았습니다. 그러나 약간의 맥락 손실이 있어 완벽하지는 않습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원문의 의미와 맥락에 적절하게 부합하지만, "제공된 정보에서"라는 표현이 원문의 특정 맥락을 완전히 반영하지 못합니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬우며, 독자가 쉽게 따라갈 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C549" t="n">
+        <v>0.6805431919712075</v>
+      </c>
+      <c r="D549" t="inlineStr">
+        <is>
+          <t>2023학년도 경찰행정학과 수시모집 결과는?</t>
+        </is>
+      </c>
+      <c r="E549" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보에서 경찰행정학과에 대한 내용이 없습니다. 더 자세한 정보를 얻기 위해서는 "https://ipsi.deu.ac.kr/main.do" 웹사이트를 방문하여 확인해보세요.</t>
+        </is>
+      </c>
+      <c r="F549" t="inlineStr">
+        <is>
+          <t>제공된 정시 모집요강에는 2023학년도 경찰행정학과 수시모집 결과에 대한 정보가 포함되어 있지 않습니다. 해당 정보를 확인하려면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B550" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 정시모집 지원자가 수능에 응시하지 않아도 지원할 수 있다고 주장하고 있지만, 이는 원문과 상반되는 내용입니다. 원문에서는 수능에 응시하지 않으면 지원할 수 없다고 명확히 언급하고 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 상반된 정보를 제공하고 있으며, 이는 일관성이 결여된 것입니다. 원문에서의 주장을 반박하는 내용이 포함되어 있어 일관성이 없습니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 수능 응시 여부와 관련된 전형에 대한 정보를 제공하고 있지만, 원문에서의 질문에 대한 직접적인 답변이 아니므로 관련성이 떨어집니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장으로 구성되어 있습니다. 다만, 내용의 정확성 문제로 인해 전체적인 평가에 영향을 미칠 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 전형에 대한 정보를 제공하지만, 원문과의 관계가 명확하지 않아 논리적 흐름이 다소 부족합니다. 원문과의 연결이 약해 일관된 주제를 유지하지 못하고 있습니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서의 사실과 완전히 반대되는 내용을 포함하고 있어 정확성이 매우 낮습니다. 수능 응시 여부에 대한 잘못된 정보를 제공합니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 정확성 등 여러 차원에서 매우 낮은 점수를 받습니다. 원문과의 관계가 전혀 맞지 않기 때문에 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원문과의 의미적 일치가 전혀 없으며, 주제와 맥락에 맞지 않는 내용을 포함하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있어 이해하기는 쉽지만, 내용의 정확성 문제로 인해 전체적인 이해에 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C550" t="n">
+        <v>0.5149069408769787</v>
+      </c>
+      <c r="D550" t="inlineStr">
+        <is>
+          <t>정시에 수능 응시하지 않아도 지원할 수 있나요?</t>
+        </is>
+      </c>
+      <c r="E550" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 정시 모집에서 수능을 응시하지 않아도 일부 전형에서는 지원이 가능합니다. 예를 들어, 농어촌학생전형과 성인학습자전형 등은 수능 응시 여부와 관계없이 지원할 수 있습니다.
+특히, 농어촌학생전형의 경우 6년 과정이나 12년 과정에 따라 다양한 서류를 제출해야 하며, 정원 외 지원 자격과 최종 등록자 추가 제출서류가 필요합니다. 또한 성인학습자전형에서는 재직기간이 3년 이상이어야 하며, 산업체 적용 범위와 같은 조건을 충족해야 합니다.
+따라서 수능 응시 여부에 관계없이 지원할 수 있는 전형들이 있으므로, 구체적인 전형별 지원 자격과 제출 서류를 확인하시기 바랍니다. 더 자세한 정보는 "https://ipsi. deu. ac. kr/main. do" 웹사이트를 참조해보시는 것을 추천드립니다.</t>
+        </is>
+      </c>
+      <c r="F550" t="inlineStr">
+        <is>
+          <t>아니요, 정시모집 지원자는 수능에 응시하지 않으면 지원할 수 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B551" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2  
+   - 설명: 생성된 응답은 고등학교 졸업 후 10년이 지났더라도 정시 지원이 가능하다는 원문 내용을 무시하고, 성인학습자 전형에 대한 정보만을 제공하고 있습니다. 이는 원문에서 명시된 사실과 상충합니다.
+2. Consistency Score (1-5): 2  
+   - 설명: 생성된 응답은 원문과 일관성이 없습니다. 원문은 정시 지원 가능성을 강조하고 있지만, 생성된 응답은 성인학습자 전형에만 초점을 맞추고 있어 서로 모순되는 정보를 제공합니다.
+3. Relevance Score (1-5): 3  
+   - 설명: 생성된 응답은 성인학습자 전형에 대한 정보를 제공하지만, 원문에서 질문한 정시 지원 가능성에 대한 직접적인 답변이 부족합니다. 따라서 관련성은 있지만, 주제에서 벗어난 부분이 있습니다.
+4. Fluency Score (1-5): 4  
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 내용의 일관성이 떨어져서 약간의 혼란을 줄 수 있습니다.
+5. Coherence Score (1-5): 3  
+   - 설명: 생성된 응답은 성인학습자 전형에 대한 정보를 제공하지만, 원문과의 연결이 부족하여 논리적인 흐름이 약간 떨어집니다. 원문과의 연관성이 부족하여 일관된 주제를 유지하지 못하고 있습니다.
+6. Accuracy Score (1-5): 2  
+   - 설명: 생성된 응답은 원문에서 제공하는 사실과 상충하는 정보를 포함하고 있습니다. 고등학교 졸업 후 10년이 지났더라도 정시 지원이 가능하다는 사실을 무시하고 성인학습자 전형에 대한 정보만을 강조하고 있습니다.
+7. Multidimensional Quality Score (1-5): 2  
+   - 설명: 생성된 응답은 여러 차원에서 낮은 점수를 받았습니다. 사실성과 일관성, 정확성에서 문제가 있으며, 원문과의 관련성도 부족합니다.
+8. Semantic Appropriateness Score (1-5): 3  
+   - 설명: 생성된 응답은 성인학습자 전형에 대한 정보를 제공하지만, 원문과의 맥락에서 벗어나 있어 의미적으로 적절하지 않습니다. 원문에서 요구하는 정보와는 다소 동떨어져 있습니다.
+9. Understandability Score (1-5): 4  
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있어 이해하기 쉽습니다. 그러나 원문과의 관련성이 떨어져서 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C551" t="n">
+        <v>0.6307760218020885</v>
+      </c>
+      <c r="D551" t="inlineStr">
+        <is>
+          <t>고등학교 졸업한지 10년이 지났는데 정시 지원 가능한가요?</t>
+        </is>
+      </c>
+      <c r="E551" t="inlineStr">
+        <is>
+          <t>2024년 나군 학생부종합전형에서는 고등학교 졸업 후 3년 이상 재직한 경우 성인학습자 전형을 통해 지원할 수 있습니다. 따라서, 고등학교를 졸업한지 10년이 지났다면 정시 지원보다는 성인학습자 전형을 통해 지원하는 것이 적합합니다.
+성인학습자 전형의 세부 사항은 다음과 같습니다:
+- 재직기간: 2024년 3월 1일 기준으로 총 재직기간이 3년 이상(예정)이어야 합니다.
+- 산업체 적용 범위: 국가·지방자치단체 및 공공단체, 근로기준법 제11조에 의거 상시근로자 5인(사업주 포함) 이상 사업체, 4대 보험 중 1개 이상 가입 사업체 등이 해당됩니다.
+따라서, 고등학교 졸업 후 3년 이상 재직한 경력을 가지고 있다면 성인학습자 전형을 통해 지원할 수 있습니다. 정시 지원은 일반적으로 고등학교 졸업 후 3년 이내에 재직한 경우에 적합합니다.
+더 자세한 정보는 https://ipsi. deu. ac. kr/main. do를 방문하여 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F551" t="inlineStr">
+        <is>
+          <t>네, 고등학교 졸업한지 10년이 지났더라도 정시 지원이 가능합니다. "고교유형별 지원자격" 표에 따르면, 일반고, 자율고, 특수목적고, 특성화고, 영재학교, 기타 학교, 검정고시, 외국고 출신자 모두 정시 지원이 가능합니다. 따라서 고등학교 졸업 시기와 상관없이 지원할 수 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B552" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 주요 사실을 잘 반영하고 있으며, 일정과 관련된 정보가 대부분 정확하게 전달되었습니다. 그러나 "마감 시간은 각각의 전형에 따라 다르므로 확인이 필요합니다."라는 문구는 원본 텍스트에 명시된 마감 시간을 구체적으로 언급하지 않아 약간의 모호함이 있습니다.
+2. Consistency Score (1-5): 4
+   - 생성된 응답은 원본 텍스트와 일관되게 정보를 제공하고 있습니다. 다만, 일부 세부사항이 생략되거나 간략화되어 있어 완전한 일관성을 보장하지는 않습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 주제와 관련된 정보를 잘 다루고 있으며, 모든 중요한 포인트를 포함하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 구분되어 있습니다. 그러나 일부 문장 간의 연결이 조금 더 매끄러울 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 사실을 대체로 정확하게 반영하고 있습니다. 그러나 일부 세부사항이 생략되어 있어 완전한 정확성을 보장하지는 않습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 생성된 응답은 여러 품질 차원에서 잘 수행되고 있으며, 전반적으로 높은 점수를 받을 수 있습니다. 그러나 일부 세부사항의 생략이 아쉬운 점입니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하고 있습니다. 그러나 일부 표현이 다소 모호하게 느껴질 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었습니다. 그러나 일부 문장에서 약간의 혼란을 줄 수 있는 표현이 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C552" t="n">
+        <v>0.8044453989462824</v>
+      </c>
+      <c r="D552" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 일정에 대해 설명해주세요.</t>
+        </is>
+      </c>
+      <c r="E552" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 정시 일정은 다음과 같습니다.
+1. **모집인원 확정 공고**: 2024년 1월 2일 (화) 입니다.
+2. **원서접수(인터넷)**: 2024년 1월 3일 (수) ~ 2024년 1월 6일 (토), 마감 시간은 각각의 전형에 따라 다르므로 확인이 필요합니다. (http://ipsi. deu. ac. kr 또는 http://www. uwayapply. com 참조)
+3. **서류 제출**: 2024년 1월 3일 (수) ~ 2024년 1월 12일 (금), 마감 시간은 각각의 전형에 따라 다르므로 확인이 필요합니다.
+4. **&lt;가&gt;군 실기고사 및 &lt;나&gt;군 실기고사**:
+   - 레저스포츠학과, 태권도학과: 2024년 1월 16일 (화)
+   - 디자인조형학과 (시각디자인, 산업디자인, 공예디자인), 체육학과: 2024년 1월 17일 (수)
+5. **합격자 발표 및 등록금 납부**:
+   - 최초 합격자 발표 및 등록: 2024년 2월 2일 (금) 14:00
+   - 최초 합격자 등록: 2024년 2월 7일 (수) ~ 2024년 2월 13일 (화)
+   - 충원 합격자 발표 및 등록: 2차 (2024년 2월 14일 (수)), 3차 (2024년 2월 15일 (목) ~ 2024년 2월 20일 (화))
+   - 합격자 발표 및 등록은 홈페이지에서 개별 조회 가능하며, 고지서는 홈페이지에서 출력하거나 입학관리팀에서 수령할 수 있습니다.
+이 일정들은 각 전형에 따라 다소 차이가 있을 수 있으므로, 공고된 일정을 반드시 확인하시기 바랍니다. 자세한 내용은 [입시 홈페이지](https://ipsi. deu. ac. kr/main. do)를 참조해주세요.</t>
+        </is>
+      </c>
+      <c r="F552" t="inlineStr">
+        <is>
+          <t>동의대학교의 2024학년도 정시 일정은 다음과 같습니다
+1. 모집인원 확정 공고
+   - 일정: 2024년 1월 2일(화)
+   - 비고: 입학안내 홈페이지 공고
+2. 원서접수(인터넷)
+   - 일정: 2024년 1월 3일(수) ~ 2024년 1월 6일(토) 마감일 18시까지
+   - 비고: http://ipsi.deu.ac.kr 또는 http://www.uwayapply.com
+3. 서류 제출 (제출서류가 있는 경우)
+   - 일정: 2024년 1월 3일(수) ~ 2024년 1월 12일(금) 마감일 17시까지 도착
+   - 비고: 서류 제출대상 (Ⅳ. 전형별 세부 안내 참조)
+   - 제출방법: 접수사이트에서 우편발송용 표지를 출력하여 부착 후 제출 또는 우편발송
+4. 실기고사
+   - &lt;가&gt;군 실기고사 레저스포츠학과 태권도학과
+     - 일정: 2024년 1월 16일(화)
+     - 비고: 대기실 및 입실시간 안내 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회
+   - &lt;나&gt;군 실기고사 디자인조형학과 (시각디자인, 산업디자인, 공예디자인) 체육학과
+     - 일정: 2024년 1월 17일(수)
+     - 비고: 대기실 및 입실시간 안내 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회
+5. 합격자 발표 및 등록금 납부
+   - 최초 합격자 발표
+     - 일정: 2024년 2월 2일(금) 14:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 최초 합격자 등록
+     - 일정: 2024년 2월 7일(수) ~ 2월 13일(화) (은행마감시간 내)
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 1차 (인터넷) 발표
+     - 일정: 2024년 2월 14일(수) 09:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 1차 (인터넷) 등록
+     - 일정: 2024년 2월 14일(수) 09:00 ~ 16:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 2차 (인터넷) 발표
+     - 일정: 2024년 2월 15일(목) 09:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 2차 (인터넷) 등록
+     - 일정: 2024년 2월 15일(목) 09:00 ~ 16:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 3차 이후 (개별 전화 통보) 발표
+     - 일정: 2024년 2월 15일(목) 19:00 ~ 2024년 2월 20일(화) 18시까지
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 3차 이후 (개별 전화 통보) 등록
+     - 일정: 개별 전화 통보 시 안내
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+추가 유의사항:
+- 최초합격자 및 1차, 2차 충원합격자 발표는 홈페이지를 통해 실시하며, 모든 지원자는 전형일정에 명시된 합격자 발표일에 합격 여부를 홈페이지를 통해 확인해야 합니다. 별도 개별 연락을 실시하지 않으며, 합격 여부 미확인으로 인해 등록하지 못했다 하더라도 등록(입학) 포기자로 간주합니다.
+- 최초 및 충원합격자는 전형일정에 명시된 등록 일정을 참고하여 지정 기일 내에 등록금을 납부해야 하며, 지정 기일 내에 등록금을 납부하지 않는 경우 입학을 포기하는 것으로 간주합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B553" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 날짜와 세부 사항이 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 모든 정보가 충돌 없이 잘 연결되어 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 주제와 세부 사항을 직접적으로 다루고 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 읽기 쉬우며, 자연스러운 흐름을 가지고 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 연결되어 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 품질 차원에서 우수한 성과를 보입니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C553" t="n">
+        <v>0.8243630440788009</v>
+      </c>
+      <c r="D553" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 일정에 대해 설명해주세요.</t>
+        </is>
+      </c>
+      <c r="E553" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 정시 모집 일정을 다음과 같이 설명하겠습니다.
+1. **원서접수(인터넷)**:
+   - **일정**: 2024. 01. 03.(수) ~ 2024. 01. 06.(토)
+   - **마감시간**: 원서 접수 마감은 각 날짜의 18시까지입니다.
+   - **비고**: 원서접수는 입학안내 홈페이지를 통해 진행되며, 접수사이트에서 우편발송용 표지를 출력하여 부착하거나 직접 우편으로 제출할 수 있습니다. (http://ipsi. deu. ac. kr 또는 http://www. uwayapply. com 참조)
+2. **서류제출(제출서류가 있는 경우)**:
+   - **일정**: 2024. 01. 03.(수) ~ 2024. 01. 12.(금)
+   - **마감시간**: 서류 제출 마감은 각 날짜의 17시까지입니다.
+   - **비고**: 서류 제출 대상자는 (Ⅳ. 전형별 세부 안내 참조)에 따라 접수사이트에서 우편발송용 표지를 출력하여 부착하거나 직접 우편으로 제출할 수 있습니다.
+3. **실기고사**:
+   - **&lt;가&gt;군 태권도학과, 레저스포츠학과**:
+     - **일정**: 2024. 01. 16.(화)
+     - **비고**: 대기실 및 입실시간 안내는 2024. 01. 12.(금) 14:00 이후에 입학안내 홈페이지에서 확인 가능합니다.
+   - **&lt;나&gt;군 체육학과, 시각디자인, 산업디자인, 공예디자인**:
+     - **일정**: 2024. 01. 17.(수)
+     - **비고**: 대기실 및 입실시간 안내는 2024. 01. 12.(금) 14:00 이후에 입학안내 홈페이지에서 확인 가능합니다.
+4. **합격자 발표 및 등록금 납부**:
+   - **최초 합격자 발표**: 2024. 02. 02.(금) 14:00
+     - **비고**: *발표*: 홈페이지에서 개별 조회 가능합니다.
+     - *고지서 교부*: 홈페이지에서 출력하거나 입학관리팀에서 수령할 수 있습니다.
+     - *등록장소*: 학교 지정은행(등록금 고지서에 기재)
+   - **최초 합격자 등록**: 2024. 02. 07.(수) ~ 02. 13.(화) (은행마감시간 내)
+     - **비고**: *발표*: 홈페이지에서 개별 조회 가능합니다.
+     - *고지서 교부*: 홈페이지에서 출력하거나 입학관리팀에서 수령할 수 있습니다.
+     - *등록장소*: 학교 지정은행(등록금 고지서에 기재)
+   - **충원 합격자 발표 및 등록**:
+     - **1차 출고**: 2024. 02. 14.(수) 09:00 ~ 16:00
+       - **비고**: *발표*: 홈페이지에서 개별 조회 가능합니다.
+       - *고지서 교부*: 홈페이지에서 출력하거나 입학관리팀에서 수령할 수 있습니다.
+       - *등록장소*: 학교 지정은행(등록금 고지서에 기재)
+     - **2차 출고**: 2024. 02. 15.(목) 09:00 ~ 16:00
+       - **비고**: *발표*: 홈페이지에서 개별 조회 가능합니다.
+       - *고지서 교부*: 홈페이지에서 출력하거나 입학관리팀에서 수령할 수 있습니다.
+       - *등록장소*: 학교 지정은행(등록금 고지서에 기재)
+     - **3차 출고**: 2024. 02. 15.(목) 19:00 ~ 2024. 02. 20.(화) 18시까지
+       - **비고**: *발표*: 홈페이지에서 개별 조회 가능합니다.
+       - *고지서 교부*: 홈페이지에서 출력하거나 입학관리팀에서 수령할 수 있습니다.
+       - *등록장소*: 학교 지정은행(등록금 고지서에 기재)
+이상으로 동의대학교 2024년 정시 모집 일정을 설명하였습니다. 자세한 내용은 입학안내 홈페이지를 참조하시기 바랍니다. (https://ipsi. deu. ac. kr/main. do)</t>
+        </is>
+      </c>
+      <c r="F553" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 일정은 다음과 같습니다:
+1. 모집인원 확정 공고: 2024년 1월 2일(화)에 입학안내 홈페이지에 공고됩니다.
+2. 원서접수(인터넷): 2024년 1월 3일(수)부터 2024년 1월 6일(토) 18시까지 진행됩니다. 접수는 [입학안내 홈페이지](http://ipsi.deu.ac.kr) 또는 [유웨이 어플라이](http://www.uwayapply.com)에서 가능합니다.
+3. 서류 제출 (제출서류가 있는 경우): 2024년 1월 3일(수)부터 2024년 1월 12일(금) 17시까지 도착해야 합니다. 서류 제출 대상자는 접수 사이트에서 우편발송용 표지를 출력하여 부착 후 제출하거나 우편으로 발송해야 합니다.
+4. 실기고사 일정:
+   - &lt;가&gt;군 실기고사: 레저스포츠학과, 태권도학과는 2024년 1월 16일(화)에 실시됩니다. 대기실 및 입실시간 안내는 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회할 수 있습니다.
+   - &lt;나&gt;군 실기고사: 디자인조형학과(시각디자인, 산업디자인, 공예디자인), 체육학과는 2024년 1월 17일(수)에 실시됩니다. 대기실 및 입실시간 안내는 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회할 수 있습니다.
+5. 합격자 발표 및 등록금 납부:
+   - 최초 합격자 발표: &lt;가&gt;군, &lt;나&gt;군, &lt;다&gt;군 모두 2024년 2월 2일(금) 14:00에 발표됩니다. 발표는 홈페이지에서 개별 조회할 수 있으며, 고지서는 홈페이지에서 출력하거나 입학관리팀에서 수령할 수 있습니다. 등록장소는 학교 지정은행입니다.
+   - 최초 합격자 등록: 2024년 2월 7일(수)부터 2월 13일(화)까지 은행 마감시간 내에 등록해야 합니다.
+   - 충원 합격자 발표 및 등록:
+     - 1차 발표: 2024년 2월 14일(수) 09:00, 등록은 같은 날 09:00~16:00
+     - 2차 발표: 2024년 2월 15일(목) 09:00, 등록은 같은 날 09:00~16:00
+     - 3차 이후 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18:00까지 개별 전화 통보, 등록은 개별 전화 통보 시 안내됩니다.
+모든 지원자는 전형일정에 명시된 합격자 발표일에 홈페이지를 통해 합격 여부를 확인해야 하며, 지정 기일 내에 등록금을 납부하지 않으면 입학을 포기하는 것으로 간주됩니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B554" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 수능 미응시자가 지원할 수 없다는 사실을 잘못 전달하고 있습니다. 원문에서는 수능 미응시자는 지원이 불가능하다고 명확히 언급하고 있지만, 생성된 응답은 수능 미응시자가 지원 가능한 전형이 없다고 하여 사실과 다릅니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 상충되는 정보를 제공합니다. 원문에서는 수능 미응시자가 지원할 수 없다고 명시하고 있으나, 생성된 응답은 이를 부정하는 내용을 담고 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 동의대학교 정시 모집 전형에 대한 질문에 적절하게 답변하고 있으며, 관련된 정보를 포함하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉬운 구조를 가지고 있습니다. 다만, 약간의 어색한 표현이 있을 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적으로 연결되어 있으나, 원문과의 불일치로 인해 전체적인 일관성이 떨어집니다. 수능 미응시자에 대한 정보가 혼란을 줄 수 있습니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 제공하는 정보와 크게 다르며, 수능 미응시자의 지원 가능성에 대한 잘못된 정보를 포함하고 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 사실성과 일관성에서 큰 문제를 가지고 있으며, 정확성 또한 낮습니다. 그러나 관련성은 높고, 유창성은 괜찮은 편입니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원문의 의미와 맥락에 맞지 않으며, 잘못된 정보를 전달하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으나, 잘못된 정보로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C554" t="n">
+        <v>0.7814096233993832</v>
+      </c>
+      <c r="D554" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형 중 수능 미응시자도 지원 가능한 전형은 어떤 것이 있나요?</t>
+        </is>
+      </c>
+      <c r="E554" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 정시 모집에서는 수능 미응시자도 지원이 가능한 전형이 없습니다. 현재 제공된 정보에 따르면, 수능 미응시자는 지원할 수 있는 전형이 없으며, 지원 자격은 학생부종합 평가를 기반으로 하고 있습니다. 자세한 내용은 공식 웹사이트에서 확인해 보시는 것이 좋습니다. "https://ipsi. deu. ac. kr/main. do"</t>
+        </is>
+      </c>
+      <c r="F554" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에서는 수능 성적자료의 온라인 제공에 동의하는 것으로 간주되며, 수능 성적이 요구됩니다. 따라서 수능 미응시자는 지원이 불가능합니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="555">
+      <c r="A555" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B555" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 전년도 전자공학과의 충원 합격에 대한 정보를 부정확하게 전달하고 있습니다. 원문에서는 36명까지 충원 합격이 이루어졌다고 명시되어 있지만, 생성된 응답에서는 그러한 정보가 없다고 언급하고 있습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 일치하지 않는 내용을 포함하고 있습니다. 원문에서 제공된 정보와 상충되는 주장을 하고 있어 일관성이 부족합니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 원문과 관련된 정보를 제공하려고 하지만, 핵심적인 사실을 누락하고 있어 관련성이 떨어집니다. 원문에서 언급된 충원 합격에 대한 정보가 포함되어 있지 않기 때문입니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장 구조를 가지고 있습니다. 그러나 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적인 흐름이 있지만, 원문과의 연결이 부족하여 일관된 주제를 유지하지 못하고 있습니다. 원문에서 제공된 정보와의 연관성이 약합니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원문에서 제공된 사실을 정확하게 반영하지 않고 있으며, 중요한 정보를 누락하고 있습니다. 이는 정확성 점수를 낮추는 요소입니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 품질 차원에서 낮은 점수를 받고 있으며, 사실성, 일관성, 관련성, 정확성 모두에서 부족한 점이 있습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 의미적으로 적절한 부분이 있지만, 원문과의 맥락에서 벗어난 부분이 있어 완전한 적절성을 보이지 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 문장으로 구성되어 있지만, 원문과의 연결이 부족하여 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C555" t="n">
+        <v>0.4757469624053908</v>
+      </c>
+      <c r="D555" t="inlineStr">
+        <is>
+          <t>전년도에 전자공학과의 충원 합격은 몇차까지 이루어졌습니까?</t>
+        </is>
+      </c>
+      <c r="E555" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보에는 전년도 전자공학과 관련된 데이터가 없습니다. 이와 관련된 자세한 정보를 얻으려면 "https://ipsi. deu. ac. kr/main. do" 웹사이트를 참조해 보시는 것이 좋겠습니다.</t>
+        </is>
+      </c>
+      <c r="F555" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에는 충원 합격 차수에 대한 정보가 존재하지않습니다.
+전년도의 전자공학과의 충원 합격은 36명까지 이루어졌습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="556">
+      <c r="A556" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B556" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 동의대학교 입학관리팀의 전화번호를 명시적으로 언급하지 않고 있으며, 원본 텍스트의 핵심 정보를 완전히 누락하고 있습니다. 따라서 사실성 점수는 1입니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상충되는 내용을 포함하고 있습니다. 원본 텍스트는 전화번호를 제공하고 있지만, 생성된 응답은 전화번호가 언급되지 않았다고 주장하고 있습니다. 따라서 일관성 점수는 1입니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 동의대학교의 전화번호에 대한 질문에 대한 직접적인 답변이 아니며, 관련 정보가 부족합니다. 그러나 웹사이트 링크를 언급하여 일부 관련성을 제공하므로 점수는 2입니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 올바르고 읽기 쉬운 문장 구조를 가지고 있습니다. 따라서 유창성 점수는 4입니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적으로 연결되어 있지만, 원본 텍스트와의 관련성이 부족하여 전체적인 일관성이 떨어집니다. 따라서 일관성 점수는 3입니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 왜곡하고 있으며, 전화번호에 대한 정보가 전혀 포함되어 있지 않습니다. 따라서 정확성 점수는 1입니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받았습니다. 따라서 다차원 품질 점수는 1입니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 부합하지 않지만, 웹사이트 링크를 언급하여 일부 의미적 적절성을 제공합니다. 따라서 의미적 적절성 점수는 2입니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬운 문장으로 구성되어 있습니다. 따라서 이해 가능성 점수는 4입니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C556" t="n">
+        <v>0.5710414600355025</v>
+      </c>
+      <c r="D556" t="inlineStr">
+        <is>
+          <t>동의대학교 입학처 전화번호는 무엇입니까?</t>
+        </is>
+      </c>
+      <c r="E556" t="inlineStr">
+        <is>
+          <t>提供的信息中并没有提到东义大学入学处的电话号码。如果需要这个信息，可以访问东义大学官网（https://ipsi. deu. ac. kr/main. do）查询或直接联系学校获取准确的联系方式。</t>
+        </is>
+      </c>
+      <c r="F556" t="inlineStr">
+        <is>
+          <t>동의대학교 입학관리팀 연락처는 051-890-4379~89입니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="557">
+      <c r="A557" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B557" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 전화 통화가 되지 않을 경우의 절차에 대한 정보를 제공하지만, 원본 텍스트에서 언급된 "등록 의사가 없는 것으로 간주되어 등록 포기자로 처리된다"는 중요한 사실을 누락하고 있습니다. 또한, 홈페이지에서의 개별 조회와 고지서 출력 절차는 원본 텍스트와 관련이 없으며, 잘못된 정보로 간주될 수 있습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않는 정보를 포함하고 있습니다. 원본 텍스트는 전화 연락이 두절될 경우의 처리 방침에 대해 설명하고 있지만, 생성된 응답은 다른 절차를 제시하고 있어 일관성이 부족합니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 전화 통화가 되지 않을 경우의 처리에 대한 정보가 부족하여 완전한 관련성을 가지지 않습니다. 원본 텍스트의 핵심 내용인 등록 포기 처리에 대한 언급이 없기 때문에 관련성이 떨어집니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 절차를 나열하고 있지만, 원본 텍스트의 흐름과 논리적 연결이 부족합니다. 전화 통화가 되지 않을 경우의 처리와 관련된 정보가 명확하게 연결되지 않아 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 일치하지 않는 정보를 포함하고 있으며, 중요한 세부 사항이 누락되어 있습니다. 따라서 정확성 점수가 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 낮은 점수를 받았으며, 특히 사실성, 일관성, 정확성에서 부족함이 드러났습니다. 전반적으로 원본 텍스트와의 관계가 약합니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 일부 일치하지만, 전화 통화가 되지 않을 경우의 처리에 대한 중요한 세부 사항이 누락되어 있어 의미적으로 완전하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있지만, 원본 텍스트와의 관계가 명확하지 않아 일부 독자에게 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C557" t="n">
+        <v>0.5729038483669295</v>
+      </c>
+      <c r="D557" t="inlineStr">
+        <is>
+          <t>3차 이후 충원합격자에 대해 개별 전화 통보를 할 때 전화 통화가 되지 않으면 어떻게 처리되나요?</t>
+        </is>
+      </c>
+      <c r="E557" t="inlineStr">
+        <is>
+          <t>3차 이후 충원 합격자에게는 개별 전화 통보가 이루어집니다. 만약 전화 통화가 되지 않는 경우, 해당 학생은 다음과 같은 절차를 따르게 됩니다.
+1. **홈페이지에서 개별 조회**: 합격자 발표일 이후에는 입학 안내 홈페이지에서 개인의 합격 여부를 확인할 수 있습니다.
+2. **고지서 출력 또는 수령**: 홈페이지에서 고지서를 직접 출력하거나, 입학관리팀에서 이를 받아볼 수 있습니다.
+이러한 절차를 통해 학생들은 자신의 합격 여부를 확인하고, 등록금 납부와 등록을 진행할 수 있게 됩니다.</t>
+        </is>
+      </c>
+      <c r="F557" t="inlineStr">
+        <is>
+          <t>3차 이후 충원합격자 발표 과정에서 전화 연락이 두절되어(3회 통화 시도) 충원합격 통보가 어려운 경우, 해당 지원자는 등록 의사가 없는 것으로 간주되어 등록 포기자로 처리됩니다. 따라서 충원합격자 발표 기간(2024년 2월 15일(목)~2024년 2월 20일(화)) 동안 전화 연락을 받을 수 있도록 유의해야 합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="558">
+      <c r="A558" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B558" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 필요한 서류 목록과 관련된 세부 사항이 모두 포함되어 있습니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 서류 제출에 대한 정보가 충돌 없이 잘 정리되어 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 주제와 관련된 정보를 직접적으로 다루고 있으며, 모든 중요한 포인트를 포함하고 있습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고, 문장 구조가 매끄러우며, 읽기 쉽습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 연결되어 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 정보의 정확성이 높습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C558" t="n">
+        <v>0.7189728092912255</v>
+      </c>
+      <c r="D558" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 제출해야할 서류를 알려줘</t>
+        </is>
+      </c>
+      <c r="E558" t="inlineStr">
+        <is>
+          <t>6년 과정과 12년 과정의 농어촌학생전형에서 제출해야 할 서류는 다음과 같습니다.
+**6년 과정**
+- 지원자 본인의 가족관계증명서 1부
+- 지원자 본인, 부모의 주민등록초본 각 1부 (총 3부)
+- 중학교 학교생활기록부 1부 (교육기관, 공공기관, 무인민원발급기, 인터넷 정부24에서 발급 가능)
+- 고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+**12년 과정**
+- 지원자 본인의 주민등록초본 1부
+- 초등학교 학교생활기록부 1부
+- 중학교 학교생활기록부 1부
+- 고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+이러한 서류들은 지원자의 교육과정과 거주지역을 확인하기 위한 것입니다. 특히, 농어촌 지역에 거주하였다는 증거를 제출해야 합니다.</t>
+        </is>
+      </c>
+      <c r="F558" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 제출해야 할 서류는 다음과 같습니다
+6년 과정
+지원자 본인의 가족관계증명서 1부
+지원자 본인, 부, 모의 주민등록초본 각 1부 (총 3부)
+중학교 학교생활기록부 1부
+교육기관(초·중·고교), 공공기관, 무인민원발급기, 인터넷 정부24에서 발급
+고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+부모가 사망한 경우: 사망한 부 또는 모의 기본증명서 1부 (기본증명서에 ‘사망’이 명시되어 있지 않은 경우 제적등본 1부 추가 제출)
+부모가 이혼한 경우: 친권이 있는 부 또는 모의 혼인관계증명서(상세) 1부, 본인의 기본증명서(상세) 1부 추가 제출
+12년 과정
+지원자 본인의 주민등록초본 1부
+초등학교 학교생활기록부 1부
+중학교 학교생활기록부 1부
+고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+중·고등학교 재학 시 부, 모 모두 농어촌(읍·면)지역에서 거주한 자는 ‘6년과정' 서류 제출 가능
+교육기관(초·중·고교), 공공기관, 무인민원발급기, 인터넷 정부24에서 발급
+추가 정보
+제출기간: 2024. 01. 03.(수) ~ 01. 12.(금) 17:00까지 도착분에 한함
+제출장소: (우: 47340) 부산광역시 부산진구 엄광로 176, 동의대학교 입학관리팀
+주의사항: 제출서류 미제출자는 불합격 처리됩니다. 
+주민등록초본, 가족관계증명서, 혼인관계증명서, 기본증명서는 주민등록번호 전체가 기재되어 있어야 하며, 주소변동사항이 포함된 서류를 발급받아 제출하여야 합니다.
+상기 서류는 2024년 1월 1일 이후에 발급된 서류에 한해 제출해야 합니다. 
+최종등록자 중 고교 졸업예정자는 졸업 이후 지원자격 증빙서류를 2024. 02. 16.(금)까지 추가 제출하여야 합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="559">
+      <c r="A559" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B559" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 제출해야 할 서류 목록을 정확하게 나열하고 있으며, 원본 텍스트의 주요 내용을 잘 반영하고 있습니다. 그러나 '6년과정' 서류 제출에 대한 언급은 원본 텍스트에 포함되어 있지 않으므로 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 일부 일치하지만, '6년과정' 서류 제출에 대한 추가 정보는 원본 텍스트와 일치하지 않으므로 일관성이 떨어집니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 필요한 서류에 대한 정보를 직접적으로 다루고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉽습니다. 다만, 약간의 어색한 표현이 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 명확하게 전달됩니다. 그러나 '6년과정'에 대한 언급이 원본과 다르기 때문에 완전한 일관성은 없습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 대부분의 사실을 정확하게 반영하고 있지만, '6년과정' 서류 제출에 대한 정보는 원본 텍스트에 포함되어 있지 않아 정확성이 다소 떨어집니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행되고 있으며, 전반적으로 높은 점수를 받았습니다. 그러나 일부 부정확성과 일관성 문제로 인해 완벽하지는 않습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 맞지만, '6년과정'에 대한 언급은 원본의 의도와 다를 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다. 다만, 일부 추가 정보가 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C559" t="n">
+        <v>0.8150795439885091</v>
+      </c>
+      <c r="D559" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 12년 과정이 제출해야할 서류는?</t>
+        </is>
+      </c>
+      <c r="E559" t="inlineStr">
+        <is>
+          <t>12년 과정의 농어촌학생전형에서 제출해야하는 서류는 다음과 같습니다:
+1. 지원자 본인의 주민등록초본 1부
+2. 초등학교 학교생활기록부 1부
+3. 중학교 학교생활기록부 1부
+4. 고등학교 학교생활기록부 1부(학생부 온라인 제공 비대상교 및 미동의자)
+이 외에, 중·고등학교 재학 시 부모 모두 농어촌 지역에서 거주한 자는 '6년과정' 서류제출이 가능합니다.</t>
+        </is>
+      </c>
+      <c r="F559" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 12년 과정이 제출해야 할 서류는 다음과 같습니다
+1. 지원자 본인의 주민등록초본 1부
+2. 초등학교 학교생활기록부 1부
+3. 중학교 학교생활기록부 1부
+4. 고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+추가로, 최종등록자라면 다음 서류도 제출해야 합니다
+1. 고교 졸업증명서
+2. 지원자 본인의 주민등록초본 1부 주민등록초본은 고교 졸업 이후 발급된 것이어야 하며, 주소변동사항이 포함된 서류를 발급받아 제출해야 합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="560">
+      <c r="A560" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B560" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 기회균등 전형이 존재하지 않는다는 사실을 언급하고 있으며, 이는 원본 텍스트와 일치합니다. 그러나 "저소득 기회균등 전형"이라는 표현은 원본 텍스트에서 명시되지 않았으므로 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 내용을 잘 반영하고 있으며, 기회균등 전형이 없다는 점에서 일관성을 유지하고 있습니다. 다만, "저소득 기회균등 전형"이라는 표현이 추가되어 약간의 일관성 저하가 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 직접적으로 관련이 있으며, 기회균등 전형에 대한 질문에 적절히 답변하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉽습니다. 그러나 "제공된 정보에서는"이라는 시작 부분이 다소 어색하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 원본 텍스트와의 연결이 명확합니다. 다만, "저소득 기회균등 전형"이라는 표현이 추가되어 약간의 혼란을 줄 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 잘 반영하고 있으나, "저소득 기회균등 전형"이라는 표현이 원본에 없기 때문에 약간의 부정확성이 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 유지하고 있으며, 사실성, 일관성, 관련성, 정확성에서 좋은 점수를 받고 있습니다. 그러나 약간의 부정확성과 일관성 저하가 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 맞지만, "저소득 기회균등 전형"이라는 표현이 추가되어 의미가 약간 왜곡될 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽지만, 일부 표현이 다소 어색하게 느껴질 수 있어 완전한 명확성에는 다소 부족함이 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C560" t="n">
+        <v>0.5867173092662686</v>
+      </c>
+      <c r="D560" t="inlineStr">
+        <is>
+          <t>정시모집에서 저소득 기회균등 전형은 선발하지 않나요?</t>
+        </is>
+      </c>
+      <c r="E560" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보에서는 정시 모집에서 저소득 기회균등 전형에 대한 내용이 없습니다. 정확한 답변을 위해서는 "https://ipsi. deu. ac. kr/main. do" 웹사이트를 참조해 주세요.</t>
+        </is>
+      </c>
+      <c r="F560" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에는 기회균등 전형이라는 전형이 존재하지 않습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="561">
+      <c r="A561" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B561" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 수능 최저등급에서 2.5 등급이 절사되어 3 등급으로 처리된다고 주장하지만, 원본 텍스트에서는 절사 여부에 대한 구체적인 정보가 없다고 명시하고 있습니다. 따라서 이 정보는 사실과 다릅니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상충되는 내용을 포함하고 있습니다. 원본 텍스트는 절사 여부에 대한 정보가 없다고 명시하고 있는데, 생성된 응답은 2.5 등급이 절사된다고 주장합니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 질문에 대한 답변을 제공하려고 하지만, 잘못된 정보를 바탕으로 하고 있어 관련성이 떨어집니다. 원본 텍스트의 핵심 내용과는 다르게 잘못된 해석을 하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성이 떨어지기 때문에 전체적인 품질은 낮아집니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 일관된 구조를 가지고 있지만, 잘못된 정보로 인해 전체적인 논리적 흐름이 약해집니다. 원본 텍스트와의 연결이 부족합니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 완전히 다릅니다. 2.5 등급이 절사된다는 주장은 원본 텍스트에서 제공된 정보와 상충합니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 정확성 등 여러 차원에서 낮은 점수를 받습니다. 전반적으로 원본 텍스트와의 관계가 매우 부정확합니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락을 잘못 해석하고 있습니다. 따라서 의미적으로 적절하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있어 이해하기는 쉽지만, 잘못된 정보로 인해 혼란을 초래할 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C561" t="n">
+        <v>0.6899097948831073</v>
+      </c>
+      <c r="D561" t="inlineStr">
+        <is>
+          <t>수능 최저등급에서 사탐 2 과목 평균산출이라고 나와있는데 만약 2.5등급이 나오면 절사하나요? 아님 그대로 2.5등급으로 보는건가요?</t>
+        </is>
+      </c>
+      <c r="E561" t="inlineStr">
+        <is>
+          <t>2.5 등급은 절사하여 3 등급으로 처리됩니다. 수능 영어영역 등급에 따른 점수에서 볼 때, 등급이 정수 값만 주어져 있으며, 2.5와 같은 소수점 이하는 절사합니다. 따라서 사탐 2 과목 평균산출 결과가 2.5 등급이라면, 그대로 3 등급으로 처리됩니다.
+더 궁금하신 점이 있으시다면 https://ipsi.deu.ac.kr/main.do 를 참조해보세요.</t>
+        </is>
+      </c>
+      <c r="F561" t="inlineStr">
+        <is>
+          <t>제공된 데이터에는 수능 최저등급에 대한 구체적인 절사 여부에 대한 정보가 포함되어 있지 않습니다. 따라서, 수능 최저등급에서 사탐 2 과목 평균산출 시 2.5등급이 나올 경우 절사 여부에 대한 정확한 정보를 확인하려면 입학안내 홈페이지(http://ipsi.deu.ac.kr)에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="562">
+      <c r="A562" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B562" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 발표 일정과 방식에 대한 정보가 일치합니다.
+2. Consistency Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트와 일관되며, 발표 차수와 일정에 대한 정보가 서로 충돌하지 않습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 내용과 직접적으로 관련이 있으며, 질문에 대한 적절한 답변을 제공합니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고, 읽기 쉽게 잘 구성되어 있습니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 자연스럽습니다.
+6. Accuracy Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 품질 차원에서 우수한 성과를 보입니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달합니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C562" t="n">
+        <v>0.826157979866825</v>
+      </c>
+      <c r="D562" t="inlineStr">
+        <is>
+          <t>정시 충원 합격자 발표는 몇차까지 있나요?</t>
+        </is>
+      </c>
+      <c r="E562" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 정시 충원 합격자 발표는 총 3차로 이루어집니다. 
+1차 발표 일정은 2024년 2월 14일(수) 09:00입니다.
+2차 발표 일정은 2024년 2월 15일(목) 09:00입니다.
+3차 이후 발표 일정은 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18시까지입니다.
+이와 같이 총 3차로 합격자 발표가 이루어집니다.</t>
+        </is>
+      </c>
+      <c r="F562" t="inlineStr">
+        <is>
+          <t>정시 충원 합격자 발표는 3차까지 있으며, 3차 이후에는 개별 전화 통보로 발표됩니다. - 1차 발표: 2024. 02. 14.(수) 09:00 - 2차 발표: 2024. 02. 15.(목) 09:00 - 3차 이후 발표: 2024. 02. 15.(목) 19:00 ~ 2024. 02. 20.(화) 18시까지 3차 이후 발표는 개별 전화 통보로 진행됩니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="563">
+      <c r="A563" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B563" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 생성된 응답은 e-비즈니스학과의 수능 성적과 관련된 정보를 제공하고 있으며, 수능 성적이 중요한 요소라는 점을 언급하고 있습니다. 그러나 모집인원과 관련된 정보는 다소 불확실하게 표현되어 있어 완전한 정확성을 보장하지는 않습니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 정보와 일부 일치하지만, 모집인원과 관련된 세부사항에서 약간의 모호함이 있어 일관성이 떨어질 수 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, e-비즈니스학과의 수능 성적과 추가 합격 가능성에 대한 정보를 직접적으로 다루고 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다. 그러나 일부 정보가 중복되거나 불필요하게 길어질 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 사실을 잘 반영하고 있으나, 모집인원에 대한 정보가 다소 불확실하게 표현되어 있어 완전한 정확성을 보장하지는 않습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 생성된 응답은 여러 품질 차원에서 좋은 성과를 보이고 있으며, 전반적으로 유용한 정보를 제공합니다. 그러나 일부 세부사항에서 개선이 필요합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하며, 적절한 정보를 제공합니다. 다만, 일부 표현이 다소 모호할 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되어 있습니다. 그러나 일부 문장에서 복잡한 표현이 사용되어 이해하기 어려울 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C563" t="n">
+        <v>0.6127919705816604</v>
+      </c>
+      <c r="D563" t="inlineStr">
+        <is>
+          <t>e비즈니스학과 수능 성적이 4.6이면 정시 전형으로 추가 합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E563" t="inlineStr">
+        <is>
+          <t>4.6이라는 국어 등급 점수가 e비즈니스학과의 모집인원 10명 중에서 어떤 순위로 반영될지는 확실하지 않습니다. e비즈니스학과의 경우 수능 성적만으로 결정되는 것이 아니라, 전형요소 반영비율이 100%라는 점을 고려하면 수능 성적이 중요한 요인일 것입니다.
+다군 수능(일반학생전형) 모집단위 및 모집인원에서 e비즈니스학과는 다음과 같이 나와 있습니다:
+- 단과대학: 공과대학
+- 계열: 공학
+- 모집단위: e비즈니스학과
+- 모집인원: 10명
+다군 수능(일반학생전형) 전형요소 반영비율에서 전형명은 다군 수능(일반학생전형)이며, 모집단위는 전 모집단위이며, 전형요소 반영비율의 수능은 100%입니다.
+따라서 e비즈니스학과에 대한 정시 추가 합격 가능성은 다음과 같은 절차를 거쳐 판단해야 합니다:
+1. 국어, 수학, 영어 등급점수 및 탐구 영역 성적을 확인합니다.
+2. 해당 모집단위의 모집인원과 현재 지원자의 순위를 비교합니다.
+4.6이라는 국어 등급 점수가 어느 정도의 표준점수로 변환되는지, 그리고 그 점수가 e비즈니스학과의 수능 성적 평균을 넘는지 확인해야 합니다. 또한 다른 영역의 성적이 어떻게 되는지도 중요합니다.
+따라서 정확한 답변을 위해서는 해당 학교의 최종 합격 기준 및 현재 지원자의 전체 성적을 고려해야 합니다. 더 자세한 정보를 얻기 위해서는 "https://ipsi. deu. ac. kr/main. do" 웹사이트를 참조하거나 학교에 직접 문의하는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F563" t="inlineStr">
+        <is>
+          <t>제공된 컨텍스트에 따라 e-비즈니스학과(e-비즈니스학과)의 최초 합격자 및 최종 등록생의 평균 점수는 다음과 같습니다:
+- 최초합격자:
+  - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 환산 점수 합: 317.20 (평균)
+  - 영어 등급 3.20 (평균)
+  - 수능 4개 영역 등급 4.17 (평균)
+  - 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 438.60 (평균)
+- 최종 등록 학생:
+  - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 308.58 (평균)
+  - 영어 등급 3.66 (평균)
+  - 수능 4개 영역 등급 4.53 (평균)
+  - 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 426.25 (평균)
+수능 4개 영역 등급이 4.6점이라면 최초 합격자(4.17점)와 최종 등록자(4.53점) 모두 평균을 약간 상회하는 수준입니다. 반드시 합격이 보장되는 것은 아니지만 다른 영역(국어, 수학, 탐구, 영어) 성적이 경쟁력이 있다면 충원 합격(추가모집)을 통해 합격할 가능성이 있습니다. 
+보다 정확한 평가를 위해 총 표준 변환 점수 합과 제공된 평균을 비교하는 것이 좋습니다. 총점이 평균에 근접하거나 그 이상이면 충원 합격을 통해 합격할 가능성이 더 높을 수 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="564">
+      <c r="A564" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B564" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 e비즈니스학과의 경쟁률에 대한 정보를 제공하지만, 원본 텍스트에서 제시된 평균 등급(영어 3.66, 수능 4개 영역 4.53)과 비교했을 때, 정시 등급 5.3으로 합격 가능성이 높다고 주장하는 것은 사실과 다릅니다. 원본 텍스트는 5.3의 정시 등급이 합격하기 어려울 수 있다고 명시하고 있습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 상충하는 정보를 제공합니다. 원본 텍스트는 정시 등급이 5.3일 경우 합격이 어려울 수 있다고 언급하는 반면, 생성된 응답은 합격 가능성이 높다고 주장합니다. 이로 인해 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 e비즈니스학과의 합격 가능성에 대한 질문에 관련된 정보를 제공하고 있지만, 원본 텍스트의 핵심 내용(정시 등급과 평균 등급 비교)에 대한 언급이 부족합니다. 그러나 경쟁률에 대한 정보는 관련성이 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 일관되게 연결되어 있습니다. 그러나 원본 텍스트와의 불일치로 인해 완전한 일관성을 유지하지는 못합니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 상충하는 주장을 포함하고 있습니다. 정시 등급 5.3이 합격 가능성이 높다는 주장은 원본 텍스트의 내용과 맞지 않습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 낮은 점수를 받았습니다. 사실성, 일관성, 정확성에서 문제가 있으며, 이로 인해 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 의미적으로 적절한 부분도 있지만, 원본 텍스트의 맥락과는 다소 어긋나는 주장을 포함하고 있습니다. 따라서 의미적 적절성에서 중간 점수를 받습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 정보가 명확하게 전달됩니다. 그러나 원본 텍스트와의 불일치로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C564" t="n">
+        <v>0.6959423807518518</v>
+      </c>
+      <c r="D564" t="inlineStr">
+        <is>
+          <t>정시 등급 5.3이면 동의대학교에 e비즈니스학과에 최초 합격 가능성 있을까?</t>
+        </is>
+      </c>
+      <c r="E564" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 e비즈니스학과의 경쟁률은 2.20이며, 이는 비교적 낮은 수준입니다. 따라서 정시 등급이 5.3이라면 최초 합격 가능성은 높습니다.
+하지만 정확한 합격 가능성을 판단하기 위해서는 다음과 같은 정보가 필요합니다:
+1. 해당 학과의 모집 인원
+2. 지원 인원 수
+3. 평균 및 표준 편차 등의 통계적 정보
+위에서 제공된 데이터를 바탕으로, 정시 등급이 5.3이라면 경쟁률이 낮은 e비즈니스학과에서는 최초 합격 가능성이 높다고 볼 수 있습니다.
+만약 더 자세한 정보가 필요하다면, "https://ipsi.deu.ac.kr/main.do"를 참조하시거나 동의대학교 입시 홈페이지에서 확인해보세요.</t>
+        </is>
+      </c>
+      <c r="F564" t="inlineStr">
+        <is>
+          <t>e비즈니스학과의 최종등록자 데이터를 기준으로 보면, e비즈니스학과의 영어 등급 평균은 3.66이고, 수능 4개 영역 등급 평균은 4.53입니다. 따라서, 현재 정시 등급이 5.3이라면 e비즈니스학과에 합격하기 어려울 수 있습니다. e비즈니스학과의 평균 등급보다 높은 성적을 가지고 있어야 합격 가능성이 높아집니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="565">
+      <c r="A565" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B565" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 e비즈니스학과의 경쟁률과 지원 인원에 대한 정보를 제공하지만, 원본 텍스트에서 언급된 충원합격 순위(31번)와 예비 38번의 가능성에 대한 구체적인 언급이 부족하다. 따라서 일부 사실은 정확하지만, 전체적인 맥락에서 부족한 부분이 있다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 일부 일치하지만, 경쟁률과 지원 인원에 대한 추가 정보를 제공함으로써 원본의 주장을 보완하려는 시도를 하고 있다. 그러나 원본의 핵심 정보인 예비 38번의 가능성에 대한 명확한 언급이 부족하여 일관성이 떨어진다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 예비 38번의 합격 가능성에 대한 질문에 관련된 정보를 제공하고 있으며, 경쟁률과 지원 인원에 대한 언급이 있어 관련성이 높다. 그러나 원본 텍스트의 핵심 정보인 충원합격 순위에 대한 언급이 부족하여 완전한 관련성은 아니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있다. 다만, 일부 문장에서 약간의 어색함이 느껴질 수 있다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 서로 연결되어 있다. 그러나 원본 텍스트의 핵심 정보와의 연결이 약간 부족하여 완전한 일관성은 아니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 경쟁률과 지원 인원에 대한 정보를 제공하지만, 원본 텍스트의 충원합격 순위와 예비 38번의 가능성에 대한 정확한 정보가 부족하다. 따라서 정확성 점수가 낮아졌다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이지만, 원본 텍스트의 핵심 정보를 충분히 반영하지 못하여 전반적인 품질이 떨어진다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 맥락에 적절하게 의미를 전달하고 있으며, 관련된 정보를 제공하고 있다. 그러나 원본의 핵심 정보와의 연결이 부족하여 완전한 적절성은 아니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 명확하고 이해하기 쉬운 구조를 가지고 있다. 그러나 일부 정보가 원본 텍스트와의 연결이 부족하여 약간의 혼란을 줄 수 있다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C565" t="n">
+        <v>0.6499971582022915</v>
+      </c>
+      <c r="D565" t="inlineStr">
+        <is>
+          <t>e비즈니스학전공 예비 38번 이정도면 예비합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E565" t="inlineStr">
+        <is>
+          <t>38번 학생의 경우, e비즈니스학과의 경쟁률이 8.90이며, 지원 인원이 89명으로 많은 지원자가 있습니다. 따라서 평균적인 경쟁률을 고려하면, 예비합격 가능성은 낮습니다.
+평균적으로는 표준 변환 점수 합의 평균이 426.25이고, 이정도 점수가 필요합니다. 하지만 정확한 예비합격 가능 여부는 개인의 수능 성적과 등급, 그리고 다른 지원자의 성적에 따라 달라집니다.
+만약 더 자세한 정보가 필요하다면, 해당 대학의 입시 홈페이지(https://ipsi. deu. ac. kr/main. do)를 참조하거나, 학교 관계자에게 문의하는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F565" t="inlineStr">
+        <is>
+          <t>e비즈니스학과의 최종등록자 데이터를 기준으로 보면, 충원합격(후보 순위) 31번까지 충원합격 된 것으로 나온다. 따라서, 현재 예비 38번이라면 e비즈니스학과에 예비 합격할 가능성이 낮습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="566">
+      <c r="A566" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B566" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 3.44라는 성적이 간호학과에 합격 가능성이 낮다고 언급한 원문과는 다르게, 평균 점수와 표준 편차를 언급하며 여전히 합격 가능성이 있다고 주장하고 있습니다. 이는 원문과 상충되는 정보로, 사실성 점수를 낮추게 됩니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원문에서 제시된 평균 등급과 수능 성적에 대한 정보와 일치하지 않으며, 충원 합격에 대한 언급도 원문에 없는 내용입니다. 이로 인해 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 간호학과의 합격 가능성에 대한 질문에 대해 관련된 정보를 제공하고 있으나, 원문에서 제시된 평균 등급과는 다른 정보를 포함하고 있어 약간의 관련성 저하가 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 정보를 포함하고 있지만, 원문과의 연결성이 약해 논리적인 흐름이 다소 부족합니다. 특히, 평균 점수와 표준 편차에 대한 언급이 원문과의 연관성을 약화시킵니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원문에서 제공된 데이터와 상충되는 정보를 포함하고 있으며, 특히 평균 점수와 표준 편차에 대한 언급이 사실과 다를 수 있습니다. 이로 인해 정확성 점수가 낮아집니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 여러 차원에서의 품질이 혼합되어 있으며, 일부는 긍정적이나 다른 부분에서는 부정확한 정보가 포함되어 있어 중간 점수를 부여합니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 원문과의 의미적 일치가 부족하며, 특히 합격 가능성에 대한 해석이 원문과 다르게 나타나고 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으나, 일부 정보가 혼란을 줄 수 있어 완전한 명확성은 부족합니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C566" t="n">
+        <v>0.6125694385192836</v>
+      </c>
+      <c r="D566" t="inlineStr">
+        <is>
+          <t>정시 성적 3.44인데 동의대학교 간호학과에 합격 가능성 없을까요?</t>
+        </is>
+      </c>
+      <c r="E566" t="inlineStr">
+        <is>
+          <t>3.44이라는 성적이 동의대학교 간호학과에 충원 합격(후보순위)인 경우를 보면, 평균 점수는 353.48이고 표준 편차는 4.66입니다. 이 데이터로 볼 때, 3.44라는 성적은 약간 낮은 수치로 보이지만, 표준 편차를 고려하면 여전히 합격 가능성은 있습니다.
+특히, 경쟁률이 6.59인 간호학과와 비교했을 때, 동의대학교 간호학과는 상대적으로 낮은 경쟁률을 보이고 있으므로, 성적만으로 판단하기보다는 전체적인 지원자의 성적 분포를 고려해야 합니다.
+따라서, 정확한 합격 가능성 판단을 위해서는 최종 등록자들의 성적 분포와 경쟁률 등을 종합적으로 고려하는 것이 좋습니다. 필요하다면, 동의대학교 입학처에 문의하거나, 전문가의 조언을 구하는 것도 좋은 방법입니다.
+더 자세한 정보를 얻기 위해서는 https://ipsi.deu.ac.kr/main.do 를 방문하여 확인해 보시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F566" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 기준으로 보면, 간호학과의 영어 등급 평균은 2.34이고, 수능 4개 영역 등급 평균은 3.37입니다. 따라서, 현재 정시 등급이 3.44이라면 간호학과에 합격하기 어려울 수 있습니다. 간호학과의 평균 등급보다 높은 성적을 가지고 있어야 합격 가능성이 높아집니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="567">
+      <c r="A567" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B567" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 간호학과의 평균 영어 등급과 수능 4개 영역 등급 평균에 대한 정보를 포함하고 있지 않으며, 경쟁률과 평균 점수에 대한 정보가 추가되었지만, 원본 텍스트의 핵심 사실을 왜곡하고 있습니다. 따라서 사실성 점수는 3으로 평가합니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일부 일치하지만, 2.52라는 성적이 상대적으로 낮다고 언급하면서도 합격 가능성이 높다고 주장하는 부분에서 일관성이 부족합니다. 따라서 일관성 점수는 3으로 평가합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 질문에 대한 답변으로서 관련된 정보를 제공하고 있지만, 원본 텍스트의 핵심 내용인 합격 가능성에 대한 직접적인 언급이 부족합니다. 따라서 관련성 점수는 4로 평가합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 다소 복잡하게 느껴질 수 있습니다. 따라서 유창성 점수는 4로 평가합니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 요소가 연결되어 있습니다. 그러나 일부 부분에서 논리적 흐름이 약간 끊길 수 있습니다. 따라서 일관성 점수는 4로 평가합니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 일부 정확한 정보를 포함하고 있지만, 원본 텍스트의 평균 점수와 관련된 정보가 누락되어 있어 정확성 점수는 3으로 평가합니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이고 있으며, 특히 사실성과 일관성에서 다소 부족한 점이 있습니다. 따라서 다차원 품질 점수는 3으로 평가합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 의미적으로 적절하며, 질문의 맥락에 맞는 정보를 제공합니다. 그러나 원본 텍스트의 핵심 내용을 완전히 반영하지는 못합니다. 따라서 의미 적합성 점수는 4로 평가합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었습니다. 그러나 일부 문장이 복잡할 수 있어 이해하기 어려운 부분이 있을 수 있습니다. 따라서 이해 가능성 점수는 4로 평가합니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C567" t="n">
+        <v>0.6221856048129526</v>
+      </c>
+      <c r="D567" t="inlineStr">
+        <is>
+          <t>정시 성적이 2.52인데 동의대학교 간호학과 최종 합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E567" t="inlineStr">
+        <is>
+          <t>2.52라는 성적은 동의대학교 간호학과의 경쟁률과 평균 점수를 고려하면 상대적으로 낮습니다. 하지만, 정시 모집에서 최종합격 가능성은 여러 요인에 따라 달라질 수 있습니다.
+1. **경쟁률**: 2024학년도 간호학과의 경쟁률이 6.59로 매우 높습니다.
+2. **평균 점수**: 평균 점수가 353.48이며, 표준 편차가 4.66으로 비교적 낮은 편입니다.
+따라서, 2.52라는 성적이 간호학과의 평균 점수와 비교해 보면 상대적으로 낮습니다. 하지만, 동등한 학생들이 더 높은 점수를 받았을 수도 있고, 다른 요인들(예: 면접 결과, 서류 평가 등)이 합격에 영향을 미칠 수 있습니다.
+**추천 사항**:
+1. **면접 준비**: 면접에서 자신의 지원 동기와 학업 계획을 잘 전달할 수 있도록 준비하세요.
+2. **서류 준비**: 서류 평가에서도 긍정적인 결과를 얻을 수 있도록 철저히 준비하세요.
+최종합격 가능성은 정확하게 예측하기 어렵습니다. 하지만, 성적 외의 요인들을 잘 준비한다면 합격 가능성은 높아질 것입니다. 더 자세한 정보는 https://ipsi. deu. ac. kr/main. do를 참조하시거나 동의대학교 입학처에 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F567" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 보면, 평균 영어 등급은 2.34이고,  수능 4개 영역 등급 평균은 3.37입니다. 
+따라서, 현재 정시 등급이 2.52이라면 간호학과의 평균 등급보다 높은 성적을 가지고 있기 때문에 합격 가능성이 높습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="568">
+      <c r="A568" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B568" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 간호학과의 평가 기준과 관련된 정보를 제공하지만, 정시 성적이 3.7인 경우 합격 가능성이 있다고 언급하는 부분은 원본 텍스트의 내용과 상충합니다. 원본 텍스트는 3.7이 평균 등급보다 낮다고 명시하고 있어, 이 부분에서 사실성이 떨어집니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일관성이 부족합니다. 원본 텍스트는 정시 성적이 3.7일 경우 합격 가능성이 낮다고 명시하고 있지만, 생성된 응답은 합격 가능성이 있다고 주장하고 있습니다. 이로 인해 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 간호학과의 평가 기준과 관련된 정보를 제공하고 있으며, 원본 텍스트의 주제와 관련이 있습니다. 그러나 원본 텍스트의 핵심 내용인 정시 성적에 대한 합격 가능성에 대한 정보가 부족하여 약간의 관련성 저하가 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 정보를 포함하고 있지만, 논리적인 흐름이 다소 부족합니다. 특히, 정시 성적에 대한 결론이 원본 텍스트와 상충하여 일관된 메시지를 전달하지 못하고 있습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 일부 정확한 정보를 포함하고 있지만, 정시 성적에 대한 해석이 원본 텍스트와 다르기 때문에 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 중간 정도의 품질을 보입니다. 그러나 사실성과 일관성에서 부족함이 있어 전반적인 품질이 저하됩니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 의미적으로 적절하며, 간호학과의 평가 기준에 대한 정보를 잘 전달하고 있습니다. 그러나 원본 텍스트의 핵심 메시지와는 다소 다릅니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 명확한 정보를 제공합니다. 다만, 일부 문장이 복잡할 수 있어 약간의 이해도를 저하시킬 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C568" t="n">
+        <v>0.6410590838138571</v>
+      </c>
+      <c r="D568" t="inlineStr">
+        <is>
+          <t>정시 성적이 3.7인데 정시 전형으로 간호학과에 합격할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E568" t="inlineStr">
+        <is>
+          <t>2024학년도의 변경사항을 보면, 간호학과는 학생부종합 평가영역에서 공동체역량, 학업역량, 전공적합성 등을 평가합니다. 또한, 학생부 교과성적 반영방법에서는 전 모집단위(한의예과 제외) 12과목을 반영하며, 진로선택과목 성적반영은 A: 1등급 B: 3등급 C: 5등급으로 평가됩니다.
+정시 성적이 3.7이라면, 학생부 교과성적에서 좋은 점수를 받았다면 합격 가능성은 있습니다. 그러나 간호학과는 전공적합성을 중요하게 평가하기 때문에, 진로선택과목의 성적도 고려해야 합니다.
+정확한 합격 가능성을 판단하려면, 해당 대학의 정시 모집단위와 교과성적 반영방법을 자세히 확인하시고, 자신의 성적과 진로선택과목 성적을 평가해보시는 것이 좋습니다. 더 자세한 정보를 얻기 위해서는 "https://ipsi.deu.ac.kr/main.do" 웹사이트를 참조하시거나 대학 입학처에 문의하시는 것을 추천드립니다.</t>
+        </is>
+      </c>
+      <c r="F568" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 기준으로 보면, 간호학과의 영어 등급 평균은 2.34이고, 수능 4개 영역 등급 평균은 3.37입니다. 따라서, 현재 정시 등급이 3.7이라면 간호학과의 평균 등급보다 낮은 성적을 가지고 있기 때문에 합격 가능성이 낮습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="569">
+      <c r="A569" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B569" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 경쟁률과 평균 점수에 대한 정보를 포함하고 있지만, 원본 텍스트에서 제공된 간호학과의 평균 등급과 비교할 때, 정시 성적이 평균보다 낮다고 언급한 부분이 사실과 다릅니다. 원본 텍스트에 따르면 2.58은 평균보다 높은 성적입니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일부 일치하지만, 정시 성적에 대한 해석에서 일관성이 부족합니다. 원본 텍스트는 2.58이 평균보다 높은 성적이라고 명시하고 있으나, 생성된 응답에서는 이를 낮은 수치로 잘못 해석하고 있습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 간호학과의 경쟁률과 평균 점수에 대한 정보를 제공하여 관련성을 유지하고 있지만, 원본 텍스트의 핵심 질문인 합격 가능성에 대한 직접적인 답변이 부족합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 이어집니다. 그러나 정시 성적에 대한 해석에서의 불일치로 인해 완전한 일관성을 유지하지는 못합니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 일부 정확한 정보를 포함하고 있지만, 정시 성적에 대한 해석에서 오류가 있어 정확성 점수가 낮아졌습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균 이상의 성과를 보이지만, 사실성과 일관성에서의 문제로 인해 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 대체로 적합하지만, 정시 성적에 대한 해석에서의 오류로 인해 완전한 적합성을 보이지는 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 명확하고 이해하기 쉬운 구조를 가지고 있지만, 일부 내용에서 혼란을 줄 수 있는 부분이 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C569" t="n">
+        <v>0.6108640031759445</v>
+      </c>
+      <c r="D569" t="inlineStr">
+        <is>
+          <t>정시 성적이 2.58인데 동의대학교 간호학과에 정시 전형으로 합격할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E569" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 간호학과의 경쟁률은 6.59이며, 지원 인원이 많아서 높은 경쟁률을 보이고 있습니다. 또한, 해당 학과의 평균 국어+수학+탐구(2개) (가산점 포함) 표준 변환 점수 합은 353.48이며, 표준 편차는 4.66입니다.
+당신의 정시 성적이 2.58이라면, 이는 평균보다 약간 낮은 수치입니다. 그러나 표준 편차를 고려할 때, 353.48에서 약 -10점 정도의 차이가 발생합니다. 이는 상대적으로 좋은 성적을 보여주고 있으므로, 충분히 합격 가능성은 있습니다.
+하지만, 정확한 합격 여부를 결정하기 위해서는 동의대학교 간호학과의 최종 합격 점수와 경쟁률 등을 고려해야 합니다. 따라서, 동의대학교의 공식 웹사이트나 입학처에 문의하여 최신 정보를 확인하는 것이 가장 정확한 방법입니다.
+더 자세한 정보는 https://ipsi. deu. ac. kr/main. do 를 참조하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F569" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 기준으로 보면, 간호학과의 영어 등급 평균은 2.34이고, 수능 4개 영역 등급 평균은 3.37입니다. 따라서, 현재 정시 등급이 2.58이라면 간호학과의 평균 등급보다 높은 성적을 가지고 있기 때문에 합격 가능성이 높습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="570">
+      <c r="A570" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B570" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 게임공학과의 모집인원 및 전형 요소에 대한 구체적인 정보를 제공하지 않으며, 예비 7번의 합격 가능성에 대한 명확한 판단을 내리지 못하고 있습니다. 원본 텍스트에서 제시된 정보와는 다소 차이가 있으며, 일부 정보는 정확하지만 전반적으로 부족한 정보가 포함되어 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 일치하는 부분도 있지만, 예비 7번의 합격 가능성에 대한 명확한 언급이 없고, 다른 학과와의 비교를 언급하여 혼란을 줄 수 있습니다. 따라서 일관성이 떨어진다고 평가할 수 있습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 게임공학과와 관련된 정보를 제공하려고 하지만, 원본 텍스트의 핵심 질문인 예비 7번의 합격 가능성에 대한 직접적인 답변이 부족합니다. 그러나 관련된 정보와 조언을 제공하고 있어 관련성은 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 서로 연결되어 있습니다. 그러나 원본 텍스트의 질문에 대한 직접적인 답변이 부족하여 완전한 일관성을 제공하지는 않습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일치하는 부분이 있지만, 예비 7번의 합격 가능성에 대한 명확한 판단을 내리지 못하고 있습니다. 따라서 정확성 점수는 중간 정도로 평가됩니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 중간 정도의 품질을 보입니다. 정보의 정확성과 일관성에서 부족함이 있으며, 관련성은 높지만 명확한 답변이 부족합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합합니다. 그러나 예비 7번의 합격 가능성에 대한 직접적인 언급이 부족하여 완전한 적절성은 아닙니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었습니다. 그러나 일부 문장이 복잡하게 느껴질 수 있어 완전한 이해를 방해할 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C570" t="n">
+        <v>0.5785485914599012</v>
+      </c>
+      <c r="D570" t="inlineStr">
+        <is>
+          <t>게임공학과 예비번호 7번인데요 붙을까요?</t>
+        </is>
+      </c>
+      <c r="E570" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보로는 게임공학과에 대한 구체적인 모집인원 및 전형 요소가 없습니다. 게임공학과의 경우, 일반적으로 공과대학 소속이며, 모집인원이나 전형 요소 등이 다양하게 설정될 수 있습니다.
+다군 수능(일반학생전형)에서는 공과대학에 속한 학과들의 모집인원을 확인할 수 있는데, 이 중 게임공학과와 관련된 학과가 포함되어 있는지 확인해야 합니다. 예를 들어, 제품디자인공학과나 컴퓨터공학과 등이 해당될 수 있습니다.
+또한, 동점자 처리 기준 등을 고려하여 붙을 확률을 판단하는 것이 중요합니다. 제공된 정보로는 정확히 결정하기 어렵습니다.
+더 자세한 정보를 얻기 위해서는 "https://ipsi.deu.ac.kr/main.do" 웹사이트를 방문하여 공식 모집요강을 확인하시거나, 대학 입학처에 직접 문의하시는 것이 좋겠습니다.</t>
+        </is>
+      </c>
+      <c r="F570" t="inlineStr">
+        <is>
+          <t>게임공학과의 최종등록자 데이터를 기준으로 보면, 충원합격(후보 순위) 3번까지 충원합격 된 것으로 나온다. 따라서, 현재 예비 7번이라면 게임공학과에 예비 합격할 가능성이 낮다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="571">
+      <c r="A571" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B571" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 수능 등급 4.16이 게임공학과의 평균 등급 4.78보다 낮다고 잘못 언급하고 있습니다. 원본 텍스트에 따르면 4.16은 평균 등급보다 높은 성적입니다. 이로 인해 여러 가지 사실이 잘못 전달되고 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상충되는 정보를 제공합니다. 원본 텍스트는 4.16이 평균 등급보다 높다고 명시하고 있지만, 생성된 응답은 반대로 낮다고 주장하고 있습니다. 이로 인해 일관성이 전혀 없습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 주제와 관련된 정보를 제공하고 있으며, 면접 준비와 서류 제출에 대한 조언도 포함되어 있습니다. 그러나 원본 텍스트의 핵심 정보와는 다소 동떨어진 부분이 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장 구조를 가지고 있습니다. 다만, 일부 문장이 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 주제를 다루고 있지만, 원본 텍스트와의 연결이 부족하여 일관된 흐름이 떨어집니다. 특히, 수능 등급에 대한 잘못된 정보로 인해 논리적 일관성이 약해졌습니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 크게 다릅니다. 수능 등급에 대한 잘못된 해석으로 인해 정확성이 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 낮은 점수를 받았습니다. 사실성, 일관성, 정확성에서 큰 문제가 있으며, 전반적인 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락을 잘못 전달하고 있습니다. 특히 수능 등급에 대한 잘못된 해석이 의미의 적절성을 떨어뜨립니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 전반적으로 이해할 수 있지만, 잘못된 정보로 인해 혼란을 초래할 수 있습니다. 따라서 명확성에서 다소 부족함이 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C571" t="n">
+        <v>0.726672914749265</v>
+      </c>
+      <c r="D571" t="inlineStr">
+        <is>
+          <t>수능 성적이 4.16인데 정시 전형으로 동의대학교 게임공학과에 지원하면 추가 합격이 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E571" t="inlineStr">
+        <is>
+          <t>4.16이라는 수능 등급은 게임공학과의 평균 등급(4.78)보다 낮습니다. 따라서 경쟁률이 높고, 평균 등급이 높기 때문에 추가 합격 가능성은 낮을 것으로 예상됩니다.
+게임공학과의 경우 모집인원 3명에 지원 인원 16명으로 경쟁률이 5.33입니다. 이는 매우 높은 경쟁률이며, 평균 등급이 높기 때문에 수능 등급이 조금 낮더라도 추가 합격 가능성은 매우 낮습니다.
+하지만 최종적으로 결정되는 것은 면접 성적과 서류 평가 등 다른 요소들입니다. 따라서 추가 합격 가능성을 확신하기 위해서는 면접 준비와 서류 제출을 철저히 해야 합니다.
+면접에서는 지원동기, 학업 계획, 학업역량, 전공적합성 등을 잘 준비해야 하며, 서류에서는 학교생활기록부를 체크하고 필요한 추가 서류들을 미리 준비하는 것이 좋습니다.
+만약 추가 합격 가능성을 확신하기 위해서는 "https://ipsi. deu. ac. kr/main. do" 웹사이트에서 더 자세한 정보를 확인하거나, 동의대학교 입학처에 문의하시는 것을 추천드립니다.</t>
+        </is>
+      </c>
+      <c r="F571" t="inlineStr">
+        <is>
+          <t>게임공학과의 최종등록자 데이터를 기준으로 보면, 게임공학과의 영어 등급 평균은 3.25이고, 수능 4개 영역 등급 평균은 4.78입니다. 따라서, 현재 정시 등급이 4.16이라면 게임공학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 단, 추가 합격 몇 번을 받을지는 예측하기 어렵습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="572">
+      <c r="A572" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B572" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 GPA 3.75가 경영정보학과에 지원하는 데 충분하다고 언급하고 있으며, 이는 원본 텍스트의 내용과 일치합니다. 그러나 최종 등록 여부가 여러 요인에 따라 결정된다는 점은 원본 텍스트에서 명시된 내용과는 다소 차이가 있습니다. 원본 텍스트는 합격 가능성이 높다고만 언급하고 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일부 일치하지만, 면접 성적, 서류 평가 등 추가적인 요인을 언급함으로써 원본 텍스트의 단순한 합격 가능성 언급과는 일관성이 떨어집니다. 따라서 일관성 점수는 중간 정도로 평가됩니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, GPA와 관련된 여러 요인들을 설명하고 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 요인이 명확하게 나열되어 있어 일관된 흐름을 유지하고 있습니다. 그러나 원본 텍스트와의 연결이 약간 느슨할 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 대체로 정확하게 반영하고 있지만, 최종 등록 여부에 대한 추가적인 요인을 언급함으로써 원본의 단순한 사실을 약간 왜곡할 수 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행되고 있으며, 특히 관련성과 유창성에서 높은 점수를 받았습니다. 그러나 일관성과 정확성에서 약간의 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하지만, 추가적인 요인들을 언급함으로써 원본의 단순한 메시지를 약간 벗어날 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽지만, 일부 문장이 길어 다소 복잡하게 느껴질 수 있습니다. 
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C572" t="n">
+        <v>0.6839010441714307</v>
+      </c>
+      <c r="D572" t="inlineStr">
+        <is>
+          <t>경영정보학과 정시 성적 3.75 인데 최초등록자로 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E572" t="inlineStr">
+        <is>
+          <t>3.75의 GPA는 경영정보학과에 지원하는 데 충분한 점수입니다. 그러나 최종 등록 여부는 여러 요인에 따라 결정되며, 주요 요인은 다음과 같습니다:
+1. **면접 성적**: 면접 평가 영역 및 배점에서 학업역량과 전공적합성의 점수가 중요합니다.
+2. **서류 평가**: 지원동기와 입학 후 학업 계획, 고교(직장) 생활 중 학업에 대한 어려움과 해결책 등이 잘 서술되어 있어야 합니다.
+3. **전공적합성**: 본인이 경영정보학과를 선택한 이유와 관련된 교내 활동 경험을 구체적으로 설명해야 합니다.
+4. **학업역량**: 고교(직장) 생활 중 학업에 대한 어려움과 해결책, 그리고 이를 극복하기 위한 노력 등을 잘 서술해야 합니다.
+5. **서류 제출의 정확성**: 허위사실이 없고, 서류가 모두 정확하게 제출되어야 합니다.
+6. **정시 모집군 변경**: 2024학년도에 경영정보학과는 어떤 정시 모집군에 속하는지 확인해야 합니다.
+따라서, GPA 3.75로 최초 등록자로 가능할지는 면접 성적, 서류 평가 결과 등을 종합적으로 판단하여 결정됩니다. 자세한 사항은 "https://ipsi. deu. ac. kr/main. do"를 참조하시거나 학교 입학관리팀에 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F572" t="inlineStr">
+        <is>
+          <t>경영정보학과의 최초등록자 데이터를 기준으로 보면, 경영정보학과의 영어 등급 평균은 2.88이고, 수능 4개 영역 등급 평균은 3.88입니다.
+따라서, 현재 정시 등급이 3.75이라면 경영정보학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 최초합격 가능성은 높아보입니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="573">
+      <c r="A573" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B573" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 경영정보학과의 정시 성적 기준에 대한 명확한 정보를 제공하지 않으며, 원본 텍스트에서 제시된 평균 성적에 대한 언급이 없습니다. 그러나, 경영정보학과의 성적 기준에 대한 일반적인 조언을 포함하고 있어 일부 사실성을 유지하고 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일치하지 않는 부분이 있으며, 특히 평균 성적에 대한 구체적인 언급이 부족합니다. 그러나, 경영정보학과의 성적 기준에 대한 일반적인 조언은 일관성을 유지하고 있습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 경영정보학과의 정시 성적 기준에 대한 질문에 대한 답변을 제공하고 있으며, 관련된 정보를 포함하고 있습니다. 그러나 원본 텍스트의 구체적인 데이터에 대한 언급이 부족하여 완전한 관련성을 갖추지 못하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며, 읽기 쉽게 작성되었습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 일관되게 전달되고 있습니다. 그러나 원본 텍스트의 구체적인 데이터와의 연결이 부족하여 완전한 일관성을 갖추지 못하고 있습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 경영정보학과의 성적 기준에 대한 구체적인 정보를 제공하지 않으며, 원본 텍스트의 사실과 일치하지 않는 부분이 있습니다. 그러나 일반적인 조언은 정확성을 유지하고 있습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이고 있으나, 원본 텍스트의 구체적인 사실과 일치하지 않는 부분이 있어 전반적인 품질이 다소 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 맥락에 적절하게 의미를 전달하고 있으며, 관련된 조언을 포함하고 있습니다. 그러나 구체적인 데이터에 대한 언급이 부족하여 완전한 적절성을 갖추지 못하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 명확하고 이해하기 쉬운 방식으로 작성되었습니다. 그러나 일부 문장이 길어 가독성이 떨어질 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C573" t="n">
+        <v>0.665565104438632</v>
+      </c>
+      <c r="D573" t="inlineStr">
+        <is>
+          <t>경영정보학과 정시 성적이 4.2입니다. 최초등록자로 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E573" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보만으로는 경영정보학과의 정시 성적 기준을 확인하기 어렵습니다. 경영정보학과의 정시 모집에 대한 자세한 성적 기준은 해당 대학의 입학처 웹사이트를 참조하시거나, 직접 연락하여 문의하시는 것이 좋겠습니다.
+만약 추가 정보가 필요하다면, 제공된 수능(일반학생전형) 최종등록자와 관련된 통계를 바탕으로 추론해볼 수 있습니다. 예를 들어, 경쟁률이 높은 학과일수록 더 높은 성적 기준을 요구하는 경우가 많습니다.
+따라서, 가장 정확한 정보는 해당 대학의 입학처 웹사이트나 직접 문의하여 얻는 것이 좋겠습니다. 필요하다면, "https://ipsi. deu. ac. kr/main. do" 링크를 참조해 보세요.</t>
+        </is>
+      </c>
+      <c r="F573" t="inlineStr">
+        <is>
+          <t>경영정보학과의 최초등록자 데이터를 기준으로 보면, 경영정보학과의 영어 등급 평균은 2.88이고, 수능 4개 영역 등급 평균은 3.88입니다. 
+따라서, 현재 정시 등급이 4.2이라면 경영정보학과의 평균 등급보다 낮은 성적을 가지고 있어 합격 가능성이 낮습니다. 즉, 최초합격 가능성은 적습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="574">
+      <c r="A574" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B574" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 5.33이라는 점수가 좋은 점수라고 언급하고 있지만, 원본 텍스트에서는 이 점수가 경영정보학과의 평균 등급보다 낮다고 명시하고 있습니다. 따라서, 이 점수는 합격 가능성이 낮다는 원본의 주장을 반박하는 내용이 포함되어 있어 사실성과 일치하지 않습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 5.33이 좋은 점수라고 주장하지만, 원본 텍스트에서는 이 점수가 평균보다 낮아 합격 가능성이 낮다고 명시하고 있습니다. 이로 인해 두 텍스트 간의 일관성이 부족합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 경영정보학과의 합격 가능성에 대한 여러 요인을 설명하고 있으며, 원본 텍스트의 주제와 관련이 있습니다. 그러나 원본의 핵심 정보인 평균 등급과의 비교가 부족하여 완전한 관련성을 갖추지 못했습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 요인이 명확하게 나열되어 있습니다. 그러나 원본 텍스트와의 연결이 약해 전체적인 일관성이 떨어질 수 있습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 5.33이 좋은 점수라고 주장하지만, 원본 텍스트에서는 이 점수가 평균보다 낮다고 명시하고 있습니다. 이로 인해 정확성에 문제가 있습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 중간 정도의 품질을 보입니다. 그러나 사실성과 일관성에서 문제가 있어 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 다소 어긋나는 부분이 있어 의미적으로 적절하지 않은 부분이 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 정보가 명확하게 전달됩니다. 그러나 원본과의 연결이 약해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C574" t="n">
+        <v>0.6210233816649748</v>
+      </c>
+      <c r="D574" t="inlineStr">
+        <is>
+          <t>정시 성적이 5.33인데 동의대학교 경영정보학과 일반학생전형으로 합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E574" t="inlineStr">
+        <is>
+          <t>5.33이라는 표준점수는 대체로 좋은 점수입니다. 하지만 동의대학교 경영정보학과의 정시 합격 가능성은 여러 요인에 따라 달라질 수 있습니다.
+1. **전형 유형**: 일반학생전형에서는 국어, 수학, 영어, 사회(역사/도덕 포함), 과학, 한국사 교과 성적을 평균 점수로 계산하여 합격 여부를 결정합니다.
+2. **교과 성적 평균**: 주어진 5.33은 한 과목의 표준점수일 수 있습니다. 여러 과목의 평균 점수가 필요하므로, 전체 교과 성적이 어느 정도인지 확인해야 합니다.
+만약 전체 교과 성적이 4.0 이상이라면, 합격 가능성은 높습니다. 하지만 정확한 판단을 위해서는 동의대학교 경영정보학과의 정시 모집단위별 최저 합격 점수를 확인하는 것이 좋습니다. 해당 정보는 동의대학교 입학처 웹사이트나 공식 안내서에서 확인할 수 있습니다.
+만약 자세한 정보가 필요하다면, https://ipsi. deu. ac. kr/main. do 를 참조하시거나, 동의대학교 입학처에 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F574" t="inlineStr">
+        <is>
+          <t>경영정보학과의 최종등록자 데이터를 기준으로 보면, 경영정보학과의 영어 등급 평균은 3.25이고, 수능 4개 영역 등급 평균은 4.31입니다. 따라서, 현재 정시 등급이 5.33이라면 경영정보학과의 평균 등급보다 낮은 성적을 가지고 있어 합격 가능성이 낮습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="575">
+      <c r="A575" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B575" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 바이오응용공학부의 성적 평균과 관련된 잘못된 정보를 포함하고 있습니다. 원본 텍스트에서는 영어 등급 평균이 3.82이고, 수능 4개 영역 등급 평균이 4.74라고 명시되어 있지만, 생성된 응답에서는 성적 평균이 427.00이라는 잘못된 수치를 제시하고 있습니다. 이는 사실과 다릅니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일관성이 부족합니다. 원본 텍스트는 3.33의 성적이 바이오응용공학부의 평균 등급보다 높다고 언급하고 있지만, 생성된 응답에서는 3.33의 성적이 최초 등록에 어려움이 있다고 주장하고 있습니다. 이는 서로 상충하는 정보입니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 바이오응용공학부에 대한 정보를 제공하고 있지만, 원본 텍스트의 핵심 질문인 3.33의 성적에 대한 합격 가능성에 대한 직접적인 답변이 부족합니다. 따라서 관련성 점수가 낮습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장은 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 정보를 포함하고 있지만, 논리적인 흐름이 부족하여 일관된 주제를 유지하지 못하고 있습니다. 성적에 대한 논의가 명확하게 연결되지 않습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 일치하지 않는 정보를 포함하고 있습니다. 특히 성적 평균에 대한 잘못된 수치가 제시되어 있어 정확성 점수가 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 낮은 점수를 받았습니다. 사실성, 일관성, 정확성 모두 부족하여 전반적인 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 주제와 관련된 정보를 제공하지만, 원본 텍스트의 맥락과는 다소 어긋나는 부분이 있습니다. 특히 성적에 대한 해석이 부적절합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있지만, 일부 정보가 혼란스러울 수 있어 완전한 명확성은 부족합니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C575" t="n">
+        <v>0.7632934338902255</v>
+      </c>
+      <c r="D575" t="inlineStr">
+        <is>
+          <t>동의대식 정시 성적 3.33 정도인데 바이오응용공학부 최초등록자로 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E575" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 바이오응용공학부의 모집 정보를 확인해보겠습니다.
+바이오응용공학부는 3개의 전공으로 구성되어 있습니다:
+1. 의생명공학과
+2. 바이오의약공학과
+3. 식품공학과
+현재 제공된 데이터에서, 바이오응용공학부의 최종등록자들의 성적 평균은 427.00이며, 표준 편차는 11.25입니다. 이는 매우 높은 수치로, 일반적으로 최초 등록자들은 이보다 더 높은 점수를 보여줍니다.
+당신의 성적 평균이 3.33이라면, 현재 바이오응용공학부에 최초 등록을 하는 것은 매우 어려울 것으로 예상됩니다. 하지만 정시 모집에서 합격 가능성은 개인의 전반적인 경쟁력을 고려해야 합니다.
+더 자세한 정보를 얻기 위해서는 동의대학교 입학처 웹사이트(https://ipsi. deu.ac.kr/main.do)를 참조하거나, 직접 입학처에 문의하시면 도움이 될 것입니다.</t>
+        </is>
+      </c>
+      <c r="F575" t="inlineStr">
+        <is>
+          <t>바이오응용공학부의 최초등록자 데이터를 기준으로 보면, 바이오응용공학부의 영어 등급 평균은 3.82이고, 수능 4개 영역 등급 평균은 4.74입니다. 
+따라서, 현재 정시 등급이 3.33이라면 바이오응용공학부의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 최초합격 가능성은 있습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="576">
+      <c r="A576" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B576" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 방사선학과의 평균 등급에 대한 정보를 포함하고 있지만, 2024학년도 변경사항에 대한 구체적인 정보가 부족하여 사실성을 다소 떨어뜨립니다. 정시 등급 4.4로 방사선학과에 지원하는 것이 어렵다는 주장은 맞지만, 추가적인 평가 요소에 대한 설명이 명확하지 않습니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 방사선학과의 평균 등급과 관련된 정보를 일관되게 제공하고 있으며, 정시 등급이 낮은 경우의 지원 가능성에 대한 설명도 일관성을 유지하고 있습니다. 그러나 방사선학과와 관련된 구체적인 변경사항이 확인되지 않았다는 점에서 약간의 일관성 부족이 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 방사선학과에 지원하는 것과 관련된 정보와 조언을 제공하고 있어 매우 관련성이 높습니다. 질문자의 상황에 적합한 정보를 잘 반영하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 단계가 명확하게 연결되어 있습니다. 그러나 일부 부분에서 더 명확한 연결이 필요할 수 있습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 방사선학과의 평균 등급에 대한 정보는 정확하지만, 2024학년도 변경사항에 대한 구체적인 정보가 부족하여 정확성이 떨어집니다. 또한, 일반학생전형의 평가 요소에 대한 설명이 다소 모호합니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 유지하고 있으며, 관련성, 일관성, 유창성에서 좋은 점수를 받고 있습니다. 그러나 사실성과 정확성에서 약간의 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 질문자의 상황에 적절한 의미를 전달하고 있으며, 방사선학과에 대한 지원 전략을 제시하고 있습니다. 다만, 일부 정보가 명확하지 않아 의미 전달이 완벽하지는 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 정보가 명확하게 전달되고 있습니다. 그러나 일부 문장에서 약간의 혼란을 줄 수 있는 표현이 있을 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C576" t="n">
+        <v>0.6720396796851529</v>
+      </c>
+      <c r="D576" t="inlineStr">
+        <is>
+          <t>제가 지금 현재 정시 등급이 4.4정도고, 일반학생전형 생각중인데, 제 성적으로 방사선학과 갈 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E576" t="inlineStr">
+        <is>
+          <t>2024학년도의 변경사항을 보면 방사선학과에 지원하려면 정시 등급만으로는 충분하지 않을 가능성이 있습니다. 현재 제시된 변경사항 중에서 방사선학과와 관련이 있는 정보는 직접적으로 확인되지 않았습니다.
+현재 제공된 정보를 바탕으로 추론하자면, 일반학생전형의 경우 학생부종합 평가 영역인 '학업역량'에 따라 지원 가능성이 있습니다. 하지만 정시 등급 4.4로 방사선학과에 지원하는 것은 어렵다고 판단됩니다.
+방사선학과는 보통 전문성과 실무 능력이 요구되는 학과로, 일반학생전형에서는 추가적인 평가 요소들이 중요하게 작용합니다. 따라서 방사선학과를 목표로 한다면, 다음과 같은 절차를 따르시는 것이 좋을 것 같습니다:
+1. **추천서 및 자기소개서 작성**: 학교나 직장에서의 추천서와 자신의 장점, 경험 등을 잘 담아보세요.
+2. **진로계획서 작성**: 미래에 대한 구체적인 계획과 방사선학과 선택 이유를 명확히 하세요.
+3. **추가 자격증 취득**: 관련 자격증을 취득하여 지원 자격을 강화하세요.
+또한, 정시 등급이 낮더라도 학생부종합 평가 영역에서 좋은 점수를 받는다면 일반학생전형으로 지원하는 것이 가능합니다. 따라서, 구체적인 지원 전략을 세우기 위해서는 대학의 공식 홈페이지나 입학처에 문의하시는 것을 추천드립니다.
+더 자세한 정보를 얻으시려면 [https://ipsi. deu. ac. kr/main. do](https://ipsi.deu.ac.kr/main.do)로 접속하여 확인해보세요.</t>
+        </is>
+      </c>
+      <c r="F576" t="inlineStr">
+        <is>
+          <t>방사선학과의 최종등록자 데이터를 기준으로 보면, 방사선학과의 영어 등급 평균은 2.8이고, 수능 4개 영역 등급 평균은 3.82입니다. 
+따라서, 현재 정시 등급이 4.4이라면 방사선학과의 평균 등급보다 낮은 성적을 가지고 있어 합격 가능성이 낮습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="577">
+      <c r="A577" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B577" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 방사선학과의 정시모집군 변경사항에 대한 정보를 제공하고 있지만, 원본 텍스트의 주요 내용인 평균 등급과 합격 가능성에 대한 정보는 포함되어 있지 않습니다. 따라서 사실성 점수는 낮습니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원본 텍스트와 관련된 정보가 아닌 다른 주제를 다루고 있어 일관성이 부족합니다. 원본 텍스트의 내용과 상충하는 부분이 없지만, 관련성이 떨어져 일관성 점수가 낮습니다.
+3. Relevance Score (1-5): 2
+   - 생성된 응답은 방사선학과의 정시모집군 변경사항에 대한 정보를 제공하지만, 원본 텍스트의 핵심 주제인 정시 등급과 합격 가능성에 대한 내용과는 관련이 없습니다. 따라서 관련성 점수는 낮습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 따라서 유창성 점수는 높습니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 논리적으로 연결된 문장으로 구성되어 있지만, 원본 텍스트와의 관련성이 떨어져 전체적인 일관성이 부족합니다. 따라서 일관성 점수는 중간 정도입니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 사실과 관련된 정보를 제공하지 않으며, 주제와 관련된 정확한 정보를 포함하고 있지 않습니다. 따라서 정확성 점수는 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 여러 차원에서 평가했을 때, 생성된 응답은 사실성, 일관성, 관련성에서 낮은 점수를 받았으므로 전반적인 품질 점수도 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 의미적으로 적절하지만, 원본 텍스트의 맥락과는 다소 동떨어져 있습니다. 따라서 의미 적절성 점수는 중간 정도입니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 명확하고 이해하기 쉬운 문장으로 구성되어 있어 이해 가능성 점수는 높습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C577" t="n">
+        <v>0.598740996078884</v>
+      </c>
+      <c r="D577" t="inlineStr">
+        <is>
+          <t>방사선학과 정시로 2.66은 좀 위험할까요?</t>
+        </is>
+      </c>
+      <c r="E577" t="inlineStr">
+        <is>
+          <t>2024학년도 방사선학과의 정시모집군 변경사항을 보면, 학생부종합 평가영역이 '공동체역량', '학업역량', '전공적합성'으로 나뉘며 각 영역별로 1등급부터 5등급까지의 점수 배점이 있습니다. 하지만 방사선학과에 대한 정시모집군 변경사항은 주어진 정보에서 확인할 수 없었습니다.
+2024학년도 방사선학과의 정시 모집에 대한 자세한 내용을 파악하기 위해서는 공식 웹사이트를 참조해야 합니다. "https://ipsi.deu.ac.kr/main.do" 링크에서 최신 정보를 확인해 보세요.</t>
+        </is>
+      </c>
+      <c r="F577" t="inlineStr">
+        <is>
+          <t>방사선학과의 최종등록자 데이터를 기준으로 보면, 방사선학과의 영어 등급 평균은 2.8이고, 수능 4개 영역 등급 평균은 3.82입니다. 
+따라서, 현재 정시 등급이 2.66이라면 이는 귀하의 성적이 평균보다 높음을 의미합니다. 따라서, 귀하는 방사선학과에 합격할 가능성이 있다고 볼 수 있습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="578">
+      <c r="A578" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B578" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 경찰행정학과의 평균 성적과 경쟁률에 대한 정보를 잘 반영하고 있으며, 3.66의 성적이 평균보다 높은 점수를 언급하고 있습니다. 그러나, "농어촌 전형"에 대한 구체적인 정보가 부족하여 약간의 정보 누락이 있습니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일관되며, 성적, 서류 평가, 면접, 전공 적합성 등 다양한 요소를 고려하여 합격 여부를 판단하는 데 필요한 정보를 제공합니다. 다만, 일부 세부 사항에서 원본과의 일관성이 약간 떨어질 수 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 주제와 관련이 깊으며, 합격 가능성에 대한 다양한 요소를 잘 설명하고 있습니다. 따라서 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉽습니다. 그러나 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 요소가 명확하게 연결되어 있습니다. 그러나 일부 부분에서 더 매끄럽게 연결될 수 있는 여지가 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 잘 반영하고 있으며, 성적과 관련된 정보가 정확합니다. 그러나 특정 세부 사항에서 약간의 부정확성이 있을 수 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행되고 있으며, 사실성, 일관성, 관련성, 정확성 모두에서 높은 점수를 받았습니다. 그러나 약간의 개선 여지가 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하며, 적절한 의미를 전달하고 있습니다. 그러나 일부 표현에서 더 명확하게 전달될 수 있는 부분이 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었습니다. 그러나 일부 문장에서 약간의 혼란을 줄 수 있는 요소가 있을 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C578" t="n">
+        <v>0.6321131192131616</v>
+      </c>
+      <c r="D578" t="inlineStr">
+        <is>
+          <t>제 정시 성적이 3.66이 나오는데요, 경찰행정학전공 농어촌 전형으로 지원했는데 합격할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E578" t="inlineStr">
+        <is>
+          <t>3.66의 성적은 경찰행정학전공 농어촌 전형에서 좋은 점수입니다. 하지만 합격 여부는 여러 요소에 따라 결정되므로 단순히 성적만으로 판단하기 어렵습니다.
+1. **성적**: 평균적으로 3.66의 성적은 경쟁이 치열한 농어촌 전형에서 좋은 점수입니다. 하지만 다른 지원자들의 성적이 어떻게 나왔는지, 그리고 해당 학교의 수능최저기준 등도 고려해야 합니다.
+2. **서류 평가**: 서류평가 비율이 70%로 높은 만큼, 학생부 교과성적 외에도 지원자들의 학업태도, 협업 능력, 전공적합성 등이 중요하게 고려됩니다. 따라서 성적이 좋은 경우에도 서류가 충분히 강한 지원자가 되어야 합니다.
+3. **면접**: 면접 비율은 30%로, 이는 학생의 인성과 적성을 평가하는 중요한 단계입니다. 준비를 철저히 하여 긍정적인 이미지를 남기는 것이 중요합니다.
+4. **전공적합성**: 지원자의 전공적합성도 중요한 요소 중 하나입니다. 자신의 관심사와 열정을 잘 표현하고, 관련 활동이나 경험을 강조하는 것이 좋습니다.
+5. **경쟁률**: 경찰행정학전공 농어촌 전형의 모집 인원과 지원자의 수를 고려하여 경쟁률을 파악해야 합니다. 경쟁률이 높다면 합격 가능성은 낮아질 수 있습니다.
+따라서, 3.66의 성적만으로는 확실한 합격 여부를 판단하기 어렵습니다. 성적 외에도 서류평가와 면접 준비가 중요하며, 지원자의 전공적합성과 경쟁률을 고려하여 최선을 다해야 합니다.
+더 자세한 정보나 도움이 필요하시다면 "https://ipsi. deu. ac. kr/main. do"를 참조해보시는 것을 추천드립니다.</t>
+        </is>
+      </c>
+      <c r="F578" t="inlineStr">
+        <is>
+          <t>제공된 정보에 따르면, 경찰행정학과의 2024학년도 수능(일반학생전형) 최종등록자 평균 수능 4개 영역 등급은 4.12입니다. 귀하의 성적이 3.66이라면, 이는 평균보다 높은 성적입니다. 
+경쟁률이 2020년도에 비해 낮아졌다는 점도 긍정적인 요소로 작용할 수 있습니다. 경쟁률이 낮아지면 합격 가능성이 상대적으로 높아질 수 있기 때문입니다.
+따라서, 귀하의 성적이 평균보다 높고 경쟁률이 낮아진 점을 고려할 때, 희망을 가져도 될 것으로 보입니다. 다만, 최종 결과는 여러 변수에 따라 달라질 수 있으므로, 최선을 다해 준비하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="579">
+      <c r="A579" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B579" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 예비 25번의 합격 확률이 낮다고 언급하고 있지만, 원문에서는 특정 학과에 따라 합격 확률이 달라질 수 있다고 명시하고 있습니다. 따라서, 생성된 응답은 원문과 일부 상충하는 내용을 포함하고 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원문에서 언급된 특정 학과에 대한 정보가 부족하고, 예비 25번의 합격 확률에 대한 일반적인 설명을 제공하고 있습니다. 이는 원문과의 일관성이 떨어지는 부분이 있습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 예비 25번의 합격 가능성에 대한 질문에 대해 관련된 정보를 제공하고 있지만, 원문에서 제시한 특정 학과 목록에 대한 언급이 부족하여 완전한 관련성을 갖추지 못하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 다소 복잡하게 구성되어 있어 약간의 유창성 저하가 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 연결된 내용을 가지고 있으며, 전반적으로 일관된 흐름을 유지하고 있습니다. 그러나 원문과의 연결성이 약간 부족하여 완전한 일관성을 보이지는 않습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 원문에서 제공하는 특정 학과에 대한 정보를 누락하고 있으며, 예비 25번의 합격 확률에 대한 설명이 원문과 다소 상충합니다. 따라서 정확성 점수가 낮습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 중간 정도의 품질을 보이고 있으며, 특히 사실성과 일관성에서 부족함이 있습니다. 그러나 유창성과 일관성은 비교적 양호합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 질문의 맥락에 맞는 의미를 전달하고 있으며, 전반적으로 적절한 의미를 갖추고 있습니다. 그러나 원문과의 연결성이 부족하여 완전한 적절성은 아닙니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 명확한 정보를 제공합니다. 그러나 일부 문장이 복잡하여 약간의 이해도를 저하시킬 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C579" t="n">
+        <v>0.5514212458674872</v>
+      </c>
+      <c r="D579" t="inlineStr">
+        <is>
+          <t>정시 일반학생 전형으로 원서를 넣었는데 예비 25번이 나왔네요 붙을 확률 있을까요? 가능성 없겠죠?</t>
+        </is>
+      </c>
+      <c r="E579" t="inlineStr">
+        <is>
+          <t>25번의 예비 등록자 중에서 선발 인원은 제한적이므로 붙는 확률은 상대적으로 낮습니다. 하지만 정시 일반학생 전형에선 여러 학생들이 지원하기 때문에, 개인의 성적과 면접 등의 평가 결과에 따라 붙을 수 있습니다.
+나군 학생부종합(평생학습자전형ㅣ성인학습자(정원내·외)전형ㅣ재직자전형)은 서류평가와 면접평가를 통해 지원자를 평가하므로, 성적 외에도 학업역량, 전공적합성 등 다양한 요소가 고려됩니다. 따라서 개인의 특성이 잘 반영되어 있다면, 작은 가능성이라도 붙을 수 있습니다.
+만약 확실한 결과를 원한다면, "https://ipsi. deu. ac. kr/main. do" 웹사이트에서 자세한 정보와 지원 절차를 확인해 보시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F579" t="inlineStr">
+        <is>
+          <t>귀하께서 지원하신 학과에 따라서 합격될 확률은 달라질 수 있습니다.
+2024년 동의대학교 일반학생전형에서 예비 25번 이상이 합격한 학과는 다음과 같습니다.
+- **영어영문학과**
+- **경영정보학과**
+- **e비즈니스학과**
+- **간호학과**
+- **신소재공학과**
+- **고분자나노공학과**
+- **의생명공학과**
+- **바이오의약공학과**
+- **식품공학과**
+- **산업경영빅데이터공학과**
+귀하께서 지원하신 학과가 위 학과에 포함된다면, 귀하께서 합격하실 확률은 있다고 볼 수 있습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="580">
+      <c r="A580" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B580" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 생성된 응답은 동의대학교의 법경찰행정학부에 대한 정보가 잘못된 내용을 포함하고 있으며, 실제로 존재하지 않는 학부에 대한 성적 예측을 하고 있습니다. 이는 원본 텍스트와 상충합니다.
+2. Consistency Score (1-5): 1
+   - 생성된 응답은 원본 텍스트와 일치하지 않으며, 법경찰행정학부에 대한 잘못된 정보를 제공하고 있습니다. 원본 텍스트는 경찰행정학과에 대한 정보를 제공하고 있습니다.
+3. Relevance Score (1-5): 1
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 없으며, 법경찰행정학부에 대한 잘못된 정보를 바탕으로 하고 있습니다. 원본 텍스트는 경찰행정학과에 대한 성적 정보를 다루고 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성과 관련성 부족으로 인해 전체적인 평가에 영향을 미칩니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 내부적으로는 일관된 구조를 가지고 있지만, 원본 텍스트와의 관련성이 부족하여 전체적인 일관성은 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 생성된 응답은 사실과 다르며, 원본 텍스트의 정보와 상충하는 내용을 포함하고 있습니다. 법경찰행정학부에 대한 정보는 잘못된 것입니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 생성된 응답은 여러 차원에서 낮은 점수를 받으며, 사실성, 일관성, 관련성, 정확성 모두에서 부족합니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않으며, 잘못된 정보를 전달하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 문법적으로는 이해하기 쉬운 구조를 가지고 있지만, 내용의 정확성과 관련성 부족으로 인해 전체적인 이해에 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C580" t="n">
+        <v>0.7472630260103738</v>
+      </c>
+      <c r="D580" t="inlineStr">
+        <is>
+          <t>동의대학교 법경찰행정학부에 정시로 들어갈려면 평균 성적이 몇 정도 받으면 안정권이거나 문 닫고 들어갈 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E580" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 인문사회과학대학 법학과의 경쟁률은 5.71이며, 모집인원은 7명이고 지원인원은 40명입니다. 이에 따라 평균적인 성적을 예측해보겠습니다.
+- **국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균**: 315.78
+- **영어 등급의 평균**: 3.11
+이러한 데이터를 바탕으로, 안정권에 들어갈 수 있는 성적과 문을 닫고 들어갈 수 있는 성적을 예측해보겠습니다.
+**안정권 (충원 합격 후보순위):**
+- 충원 합격 후보 순위는 13명입니다. 이는 경쟁률이 높아서 안정적으로 합격할 수 있는 점수를 의미합니다.
+- **평균 성적 예측**: 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균은 315.78입니다.
+**문을 닫고 들어갈 수 있는 성적:**
+- 경쟁률이 높아서 문을 닫고 들어갈 수 있는 점수는 더 높아질 것입니다.
+- **평균 성적 예측**: 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균은 340 이상이 될 것으로 예상됩니다.
+따라서, 법경찰행정학부에 정시로 들어갈려면 **국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균**은 315.78 이상이어야 안정권에 들 수 있고, 340 이상이면 문을 닫고 들어갈 수 있을 것으로 예상됩니다.
+만약 더 정확한 예측을 원하시면, 동의대학교 입학처 웹사이트를 방문하여 최신 정보를 확인하거나, 입시 전문가와 상담하는 것을 추천드립니다. "https://ipsi.deu.ac.kr/main.do"</t>
+        </is>
+      </c>
+      <c r="F580" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에는 법경찰행정학부라는 학부는 존재하지않습니다.  
+동의대학교 경찰행정학과의 최종등록자와 최초합격자의 평균 성적을 비교하여 안정권과 문 닫고 들어갈 수 있는 성적을 추정할 수 있습니다.
+- **최종등록자 평균 성적:**
+   - 국어 + 수학 + 탐구(2개) 표준 변환 점수 합: 332.86
+   - 영어 등급: 4.00
+   - 수능 4개 영역 등급: 4.12
+   - 수능 4개 영역 표준 변환 점수 합: 447.86
+- **최초합격자 평균 성적:**
+  - 국어 + 수학 + 탐구(2개) 표준 변환 점수 합: 330.71
+  - 영어 등급: 3.14
+  - 수능 4개 영역 등급: 3.87
+  - 수능 4개 영역 표준 변환 점수 합: 452.57
+### 안정권과 문 닫고 들어갈 수 있는 성적 추정
+- **경찰행정학과:**
+  - 안정권: 최초합격자 평균 성적에 근접한 성적 (국어 + 수학 + 탐구(2개) 표준 변환 점수 합 약 331점 이상, 수능 4개 영역 표준 변환 점수 합 약 453점 이상)
+  - 문 닫고 들어갈 수 있는 성적: 최종등록자 평균 성적에 근접한 성적 (국어 + 수학 + 탐구(2개) 표준 변환 점수 합 약 333점 이상, 수능 4개 영역 표준 변환 점수 합 약 448점 이상)
+이 성적을 기준으로 준비하시면 안정권 또는 문 닫고 들어갈 수 있는 성적을 받을 수 있을 것입니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="581">
+      <c r="A581" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B581" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 보육가정상담학과가 아동학과로 변경되었다는 사실을 정확히 반영하고 있습니다. 그러나 "보육가정상담학과의 최초합격자의 경쟁률은 5.33"이라는 부분은 원문에서 언급된 "정시 등급"과 혼동될 수 있는 표현입니다. 따라서 약간의 부정확성이 존재합니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원문과 일부분 일치하지만, "경쟁률"이라는 용어 사용이 원문에서의 "정시 등급"과 일치하지 않아 일관성이 떨어집니다. 원문에서의 정보와 다소 상충하는 부분이 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원문에서 다루고 있는 주제와 관련이 깊으며, 아동학과에 대한 합격 가능성에 대한 정보를 제공하고 있습니다. 따라서 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 주제에 대한 흐름이 자연스럽습니다. 그러나 "경쟁률"이라는 용어 사용으로 인해 약간의 혼란이 있을 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원문에서 제공된 정보의 대부분을 정확하게 반영하고 있지만, "경쟁률"이라는 표현이 원문과의 정확한 일치를 방해하고 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 차원에서 좋은 성과를 보이고 있으며, 특히 관련성과 유창성에서 높은 점수를 받았습니다. 그러나 일관성과 정확성에서 약간의 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원문과의 의미적 일치가 높지만, "경쟁률"이라는 표현이 원문의 맥락과 다소 어긋나 있어 약간의 부적절함이 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬우나, 일부 용어 사용으로 인해 혼란을 줄 수 있는 부분이 있어 완벽한 이해를 방해할 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C581" t="n">
+        <v>0.6433970367519829</v>
+      </c>
+      <c r="D581" t="inlineStr">
+        <is>
+          <t>정시 산출 등급이 5.33인데 동의대학교 보육가정상담학과에 합격할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E581" t="inlineStr">
+        <is>
+          <t>2024학년도 주요 변경사항을 보면, 보육·가정상담학과는 아동학과로 변경되었습니다. 따라서 현재의 정보에서는 아동학과에 대한 경쟁률이 필요합니다.
+보육가정상담학과와 아동학과의 경쟁률을 비교해볼 수 있습니다. 제공된 데이터에서 보육가정상담학과의 최초합격자의 경쟁률은 5.33입니다. 이는 아동학과의 경쟁률과 동일합니다.
+따라서, 정시 산출 등급이 5.33인 경우, 아동학과에 합격할 가능성이 있습니다. 하지만 확실한 것은 아니며, 실제 모집 인원, 지원 인원 등의 요소가 함께 고려되어야 합니다.
+더 자세한 정보를 얻기 위해서는 https://ipsi. deu. ac. kr/main. do 를 참조하시거나 동의대학교 입학처에 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F581" t="inlineStr">
+        <is>
+          <t>24학년도 모집단위에서 보육가정상담학과에서 아동학과로 변경되었습니다. 아동학과에 대해서 대답을 해드리겠습니다.
+	아동학과의 최종등록자 데이터를 기준으로 보면, 아동학과의 영어 등급 평균은 6.33이고, 수능 4개 영역 등급 평균은 7.08입니다. 
+	따라서, 현재 정시 등급이 5.33라면 아동학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다.
+	자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="582">
+      <c r="A582" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B582" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 예비 번호 12번에 대한 정보가 잘못된 해석을 포함하고 있습니다. 원본 텍스트에서는 예비 번호가 12번일 경우 합격 가능성이 있다고 언급하고 있지만, 생성된 응답은 '영어교과 전 과목 등급 평균 상위자'라는 기준을 언급하며 잘못된 정보를 제공합니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일관성이 부족합니다. 원본 텍스트는 예비 번호에 따른 합격 가능성을 설명하고 있지만, 생성된 응답은 다른 기준을 제시하여 혼란을 초래합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 예비 번호와 합격 가능성에 대한 질문에 관련된 정보를 제공하고 있지만, 잘못된 기준을 언급하여 일부 비관련성을 보입니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적인 흐름이 다소 부족합니다. 원본 텍스트의 내용을 바탕으로 한 일관된 주제를 유지하지 못하고, 다른 기준을 언급하여 혼란을 초래합니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 일치하지 않는 정보를 포함하고 있습니다. 예비 번호 12번에 대한 해석이 잘못되었습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 낮은 점수를 받았습니다. 사실성, 일관성, 정확성에서 문제가 있으며, 전반적인 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 다소 일치하지 않지만, 주제와 관련된 내용을 다루고 있습니다. 그러나 잘못된 정보로 인해 의미가 왜곡되었습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있지만, 잘못된 정보로 인해 혼란을 초래할 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C582" t="n">
+        <v>0.4564786961463363</v>
+      </c>
+      <c r="D582" t="inlineStr">
+        <is>
+          <t>동의대 보육가정상담 충원 합격 3차에서 예비 12번 받았는데 합격 가능성 있을까요?</t>
+        </is>
+      </c>
+      <c r="E582" t="inlineStr">
+        <is>
+          <t>12번을 받으셨다면, 이는 동점자 처리 기준 중 하나인 '영어교과 전 과목 등급 평균 상위자'에 해당합니다. 따라서, 동의대 보육가정상담 충원 합격 3차에서 합격 가능성은 있습니다.
+하지만, 확실한 것은 아닙니다. 최종 합격 여부는 여러 요인에 따라 결정되며, 다른 지원자의 성적과 기준 등급 평균도 고려됩니다. 따라서, 정확한 합격 가능성을 확인하려면 입학관리팀에서 상세히 문의하거나, 공지된 홈페이지를 통해 개별 조회하는 것이 좋습니다.
+더 궁금하신 점이 있으시다면 https://ipsi. deu. ac. kr/main. do 에 접속하여 자세한 정보를 확인하실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F582" t="inlineStr">
+        <is>
+          <t>동의대학교의 충원 합격자 발표 및 등록 일정에 따르면, 충원 합격자 발표는 1차, 2차, 그리고 3차 이후로 나뉘어 진행됩니다. 3차 이후의 충원 합격자 발표는 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18:00까지 개별 전화 통보로 이루어집니다.
+예비 12번을 받으셨다면, 앞선 예비 번호를 받은 지원자들이 등록을 포기하거나 다른 대학에 등록하는 경우, 합격 가능성이 있습니다. 충원 합격은 지원자들의 등록 포기 여부에 따라 달라지므로, 정확한 예측은 어렵습니다. 하지만 예비 번호가 12번이라면, 충원 합격 가능성이 아예 없는 것은 아닙니다.
+충원 합격자 발표 기간 동안 전화 통보를 기다리시고, 다른 대학의 등록 상황도 주시하시기 바랍니다. 간절한 마음이 잘 전달되어 좋은 결과가 있기를 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="583">
+      <c r="A583" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B583" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 생성된 응답은 4.75라는 성적이 높은 점수라고 언급하고 있지만, 유아교육학과에 지원하기 어려운 이유를 명확히 설명하지 않고 있습니다. 원본 텍스트에서는 유아교육학과의 평균 성적이 4.18로, 4.75로 지원하기 어려운 이유를 명확히 제시하고 있습니다. 따라서 일부 사실이 누락되었습니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 유아교육학과의 특성과 관련된 정보를 제공하지만, 원본 텍스트에서 제시된 수치와 비교할 때 일관성이 부족합니다. 원본 텍스트는 4.75 성적이 유아교육학과에 지원하기 어려운 점을 강조하고 있으나, 생성된 응답은 이를 명확히 반영하지 않고 있습니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 유아교육학과에 대한 정보와 4.75 성적의 중요성을 다루고 있어 관련성이 높습니다. 그러나 원본 텍스트의 구체적인 데이터와 비교할 때 일부 정보가 부족합니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 반복적이어서 약간의 매끄러움이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 주제에 대한 흐름이 자연스럽습니다. 그러나 원본 텍스트의 구체적인 데이터와 비교할 때 일부 연결이 부족합니다.
+6. Accuracy Score (1-5): 3
+   - 생성된 응답은 4.75 성적이 높은 점수라고 언급하지만, 유아교육학과에 지원하기 어려운 이유를 명확히 설명하지 않아 정확성이 떨어집니다. 원본 텍스트의 수치와 비교할 때 일부 정보가 누락되었습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 전반적으로 생성된 응답은 관련성과 유창성에서 긍정적인 점수를 받지만, 사실성과 일관성에서 부족함이 있어 종합적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 유아교육학과와 관련된 내용을 적절하게 다루고 있으며, 의미적으로 적절합니다. 그러나 원본 텍스트의 구체적인 수치와 비교할 때 일부 정보가 부족합니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬우며, 명확한 언어로 작성되어 있습니다. 다만, 일부 반복적인 표현이 있어 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C583" t="n">
+        <v>0.7160076878086918</v>
+      </c>
+      <c r="D583" t="inlineStr">
+        <is>
+          <t>정시 성적으로 4.75 나오는데 가능할까요? 그리고 유아교육학과는 이 성적으로 어렵겠죠?</t>
+        </is>
+      </c>
+      <c r="E583" t="inlineStr">
+        <is>
+          <t>4.75라는 성적은 매우 높은 점수입니다. 정시모집에서 학생부교과성적이 중요한 요소 중 하나이지만, 수능 성적도 중요하게 평가됩니다. 특히 유아교육학과는 교육 분야에 대한 이해와 실무 능력이 요구되므로, 수능 성적 외에도 인성 및 전공 적합성을 고려합니다.
+4.75라는 높은 점수를 가지고 있다면, 학생부 종합 평가에서 유리한 위치에 있을 것입니다. 그러나 유아교육학과는 교육 분야의 특성상 실무 능력과 인성이 중요하므로, 수능 성적 외에도 면접 등 다른 요소들이 함께 고려될 것입니다.
+따라서 4.75라는 높은 점수를 가지고 있다면 유리할 것으로 보이지만, 유아교육학과의 특성상 실무 능력과 인성이 중요하므로, 전반적인 지원 자질을 잘 준비하는 것이 좋습니다. 더 자세한 정보는 https://ipsi. deu. ac. kr/main. do를 참조하시거나 대학 입학처에 문의하시는 것을 추천드립니다.</t>
+        </is>
+      </c>
+      <c r="F583" t="inlineStr">
+        <is>
+          <t>정시 성적 4.75로 지원 가능한 학과를 알아보겠습니다. 제공된 데이터에서 최종등록자의 수능 4개 영역 등급 평균을 기준으로 분석해보겠습니다.
+### 지원 가능 학과
+- **국어국문학과**: 4.92 (평균)
+- **중어중국학과**: 5.68 (평균)
+- **일본학과**: 4.87 (평균)
+- **영어영문학과**: 5.16 (평균)
+- **문헌정보학과**: 4.82 (평균)
+- **평생교육·청소년상담학과**: 5.22 (평균)
+- **아동학과**: 7.08 (평균)
+- **금융경영학과**: 5.41 (평균)
+- **재무부동산학과**: 5.82 (평균)
+- **무역학과**: 5.18 (평균)
+- **유통물류학과**: 5.45 (평균)
+- **회계학과**: 4.99 (평균)
+- **국제관광경영학과**: 5.41 (평균)
+- **호텔·컨벤션경영학과**: 6.12 (평균)
+- **외식경영학과**: 4.91 (평균)
+- **의료경영학과**: 5.92 (평균)
+- **식품영양학과**: 5.92 (평균)
+- **기계공학과, 로봇자동화공학과, 자동차공학과**: 6.30 (평균)
+- **조선해양공학과**: 6.16 (평균)
+- **신소재공학과, 고분자나노공학과**: 5.78 (평균)
+- **환경공학과, 화학공학과, 응용화학과**: 5.73 (평균)
+- **의생명공학과, 바이오의약공학과, 식품공학과**: 5.41 (평균)
+- **인간공학과, 제품디자인공학과**: 5.72 (평균)
+- **산업경영빅데이터공학과**: 5.27 (평균)
+- **인공지능학과**: 5.25 (평균)
+- **전기공학과, 전자공학과**: 5.37 (평균)
+- **게임공학과**: 4.78 (평균)
+- **영화학과**: 5.04 (평균)
+### 유아교육학과
+유아교육학과의 경우, 최종등록자의 수능 4개 영역 등급 평균이 4.18로 나타나 있습니다. 따라서, 4.75의 성적으로는 유아교육학과에 지원하기 어려울 것으로 보입니다.
+추가적인 정보나 문의사항이 있으시면 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="584">
+      <c r="A584" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B584" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 보육·가정상담학과의 경쟁률과 충원 합격자 수에 대한 정보를 포함하고 있지만, 원본 텍스트의 주요 사실인 아동학과의 평균 등급(6.33 및 7.08)과 비교하여 현재 정시 등급(4.16)의 합격 가능성에 대한 명확한 언급이 부족하다. 또한, 아동학과의 명칭 변경에 대한 정보는 원본 텍스트에 명시되어 있지 않다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 일부 정보와 일치하지만, 아동학과의 평균 등급과 관련된 정보가 누락되어 있어 일관성이 떨어진다. 또한, 경쟁률과 충원 합격자 수에 대한 정보는 원본 텍스트와의 일관성을 유지하지 않는다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 질문에 대한 분석을 제공하고 있으며, 보육·가정상담학과에 대한 정보를 포함하고 있다. 그러나 원본 텍스트의 주요 포인트인 정시 등급과 합격 가능성에 대한 직접적인 언급이 부족하여 약간의 관련성이 떨어진다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있다. 그러나 일부 문장은 다소 복잡하게 구성되어 있어 약간의 유창성 저하가 있다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 연결된 구조를 가지고 있으며, 각 문장이 주제를 잘 이어가고 있다. 그러나 원본 텍스트와의 연결이 약간 부족하여 완전한 일관성을 제공하지는 않는다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 일부 정확한 정보를 포함하고 있지만, 원본 텍스트의 주요 사실을 완전히 반영하지 않으며, 특히 아동학과의 평균 등급에 대한 정보가 누락되어 있다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 중간 정도의 품질을 보인다. 일부 정보는 정확하지만, 원본 텍스트의 주요 사실을 충분히 반영하지 못하고 있다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 의미가 적절하고 원본 텍스트의 맥락과 잘 맞아떨어진다. 그러나 일부 정보는 원본 텍스트와의 연결이 약간 부족하다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었다. 그러나 일부 문장은 다소 복잡하여 이해하는 데 약간의 어려움이 있을 수 있다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C584" t="n">
+        <v>0.5210271186683115</v>
+      </c>
+      <c r="D584" t="inlineStr">
+        <is>
+          <t>제가 동의대 정시 환산등급이 4.16인데 보육가정상담학과 일반학생전형으로 추합까지 생각해서 합격이 될까요?</t>
+        </is>
+      </c>
+      <c r="E584" t="inlineStr">
+        <is>
+          <t>2024학년도에 동의대학교에서 보육·가정상담학과로 지원하실 경우, 현재 정보를 바탕으로 분석해보겠습니다.
+보육·가정상담학과는 2023년도에는 아동학과였으며, 2024년도에는 아동학과로 명칭이 변경되었습니다. 2024년도에 해당 학과의 경쟁률은 4.57이며, 충원 합격자는 4명입니다.
+현재您的问题似乎是关于东国大学的自主招生换算等级是否能够被保育·家庭咨询学专业录取。根据您提供的信息，2024年该专业的平均换算等级为4.16，而竞争比率为4.57，录取人数为4人。
+基于这些数据，您的换算等级（4.16）接近于该专业的平均换算等级，并且略低于一些可能的最高分。考虑到竞争比率和录取人数，您有被录取的可能性，但并不是非常高。具体能否录取还需要考虑其他因素如成绩分布、加权分数等。
+建议您可以参考以下步骤：
+1. **详细了解**：查看东国大学2024年自主招生的具体要求和流程。
+2. **准备充分**：确保所有申请材料齐全且符合要求。
+3. **咨询老师或学长学姐**：获取更多关于该专业的录取信息，以便更好地准备。
+如果还有疑问，可以访问东国大学的官方网站（https://ipsi. deu.ac.kr/main.do）以获得更多信息。</t>
+        </is>
+      </c>
+      <c r="F584" t="inlineStr">
+        <is>
+          <t>보육가정상담학과의 최종등록자 데이터를 기준으로 보면, 아동학과의 영어 등급 평균은 6.33이고, 수능 4개 영역 등급 평균은 7.08입니다. 
+따라서, 현재 정시 등급이 4.16라면 아동학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 추가합격까지 생각해서 합격할 가능성이 높습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="585">
+      <c r="A585" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B585" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 소프트웨어융합학과가 정시로 지원할 수 없다는 원문과 상충되는 정보를 제공합니다. "정시모집군이 변경되어 소프트웨어공학부로 바뀌었다"는 내용은 사실이 아닙니다. 원문에서 명시된 바와 같이, 소프트웨어융합학과는 정시로 지원할 수 없으므로, 생성된 응답은 여러 가지 부정확한 정보를 포함하고 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 일관성이 전혀 없습니다. 원문은 소프트웨어융합학과가 정시로 지원할 수 없다고 명확히 언급하고 있지만, 생성된 응답은 정시모집군의 변경에 대한 정보를 제공하여 서로 모순됩니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 관련된 내용을 포함하고 있지만, 주제에서 벗어난 정보가 많습니다. 원문이 정시 지원 불가에 대한 질문에 대한 답변인 반면, 생성된 응답은 학과의 변경 사항과 평균 등급에 대한 정보로 주제를 벗어나 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 내용의 정확성과 관련성 부족으로 인해 전체적인 품질이 저하됩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 정보를 포함하고 있지만, 원문과의 연결이 부족하여 일관된 흐름이 없습니다. 정보가 분산되어 있어 논리적인 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 제공된 사실과 완전히 일치하지 않으며, 잘못된 정보를 포함하고 있습니다. 소프트웨어융합학과의 정시 지원 불가라는 사실을 무시하고 잘못된 정보를 제시하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다. 원문과의 불일치로 인해 전반적인 품질이 저하되었습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원문과의 의미적 일치가 전혀 없으며, 주제와 관련이 없는 정보를 포함하고 있습니다. 따라서 의미적으로 부적절합니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 문법적으로는 이해할 수 있지만, 내용의 부정확성과 관련성 부족으로 인해 혼란을 초래할 수 있습니다. 따라서 이해 가능성은 중간 정도입니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C585" t="n">
+        <v>0.4069834847961391</v>
+      </c>
+      <c r="D585" t="inlineStr">
+        <is>
+          <t>소프트웨어융합학과 정시로 들어갈 수 있나요? 된다면 평균 몇 등급정도 받아야 하나요?</t>
+        </is>
+      </c>
+      <c r="E585" t="inlineStr">
+        <is>
+          <t>2024학년도에 소프트웨어융합학과는 정시모집군이 변경되어 "소프트웨어공학부(컴퓨터소프트웨어공학, 응용소프트웨어공학)"로 바뀌었습니다. 이전에는 "창의소프트웨어공학부(컴퓨터소프트웨어공학, 응용소프트웨어공학)"였던 것을 참고하시면 좋을 것 같습니다.
+2024학년도에 소프트웨어공학부로 변경된 경우, 평균 등급으로는 4.5 이상 받아야 경쟁력을 갖추게 됩니다. 이는 과거의 데이터를 바탕으로 추정한 것입니다. 실제 수능 점수와 경쟁률은 매년 변동이 있으므로, 정확한 정보는 해당 대학의 입시 홈페이지에서 확인하시기 바랍니다.
+입시 관련 자세한 내용은 "https://ipsi.ipsi.ipsi.ipsi"를 방문하여 확인해보세요.</t>
+        </is>
+      </c>
+      <c r="F585" t="inlineStr">
+        <is>
+          <t>아니요. 소프트웨어융합학과는 정시로 지원할 수 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="586">
+      <c r="A586" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B586" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 면접에서의 질문 내용과 준비 사항에 대해 언급하고 있지만, 원본 텍스트에서 명시된 서류 평가와 면접 고사에 대한 구체적인 정보는 누락되어 있습니다. 따라서 일부 사실이 정확하지 않거나 누락된 정보가 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 일부 일치하지만, 면접 점수와 세특 내용의 중요성에 대한 주장은 원본 텍스트의 평가 방식과 일치하지 않습니다. 이로 인해 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 면접 준비와 관련된 정보를 제공하고 있지만, 원본 텍스트의 서류 평가와 관련된 정보는 다루지 않고 있습니다. 그러나 면접과 관련된 내용은 적절하게 다루고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 면접 준비에 대한 조언이 일관되게 제시되고 있습니다. 그러나 원본 텍스트와의 연결이 약해 다소 떨어질 수 있습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 면접 준비에 대한 정보는 제공하지만, 원본 텍스트의 평가 방식에 대한 정확한 설명이 부족합니다. 따라서 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이지만, 원본 텍스트의 핵심 정보를 충분히 반영하지 못하고 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 면접 준비와 관련된 의미를 잘 전달하고 있으며, 전반적으로 적절한 맥락을 유지하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 명확하고 이해하기 쉬운 내용으로 구성되어 있습니다. 다만, 일부 문장이 길어질 수 있어 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C586" t="n">
+        <v>0.3662957949891082</v>
+      </c>
+      <c r="D586" t="inlineStr">
+        <is>
+          <t>소프트웨어 융합과 면접 점수보다 세특 내용을 많이 보시나요? 따로 준비해야하는 서류 존재하나요?</t>
+        </is>
+      </c>
+      <c r="E586" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 면접에서는 주로 지원동기, 학업역량, 전공적합성 등에 대한 질문이 주어집니다. 따라서 세특 내용은 중요하지만, 면접 점수보다는 지원자의 진실한 답변과 자기소개가 더 중점을 두어야 합니다.
+따라서 세특 준비 시에는 다음과 같은 사항을 고려해 보세요:
+1. 지원동기와 학업계획에 대한 명확한 답변
+2. 학교생활 및 동아리 활동에서의 경험과 역량
+3. 전공적합성과 관련된 교내활동 또는 프로젝트 참여 경력
+따로 서류는 제출하지 않지만, 면접 질문을 바탕으로 작성한 자기소개서나 학업계획서 등을 준비하는 것이 좋습니다.
+면접 시에는 진실한 답변과 자신감 있는 태도를 유지하며, 입학사정관들이 지원자에게 관심을 가지고 싶어할 만한 내용을 강조하는 것이 중요합니다.</t>
+        </is>
+      </c>
+      <c r="F586" t="inlineStr">
+        <is>
+          <t>소프트웨어융합학과는 서류 평가(공동체 역량, 학업 역량, 전공 적합성)과 면접 고사(400점 만점), 
+	학생부 교과성적을 합쳐서 평가합니다. 
+	준비해야하는 서류와 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="587">
+      <c r="A587" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B587" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 동의대학교 소프트웨어공학부의 평균 점수와 관련된 정보가 잘못되었습니다. 원본 텍스트에서는 최초합격자의 평균 등급이 4.12라고 명시되어 있지만, 생성된 응답에서는 4.08이 평균 점수보다 낮다고 언급하고 있습니다. 이는 사실과 다릅니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일관성이 부족합니다. 원본 텍스트는 4.08이 평균 등급에 근접하다고 언급했으나, 생성된 응답에서는 4.08이 평균 점수보다 낮다고 주장하고 있어 서로 모순됩니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 동의대학교 소프트웨어공학부의 최초합격 가능성에 대한 질문에 관련된 정보를 제공하고 있으나, 일부 정보는 원본 텍스트와 관련이 적습니다. 예를 들어, 소프트웨어융합학과의 충원 합격 정보는 질문과 직접적인 관련이 없습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장 구조를 가지고 있습니다. 그러나 일부 문장은 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 정보를 포함하고 있지만, 정보의 흐름이 다소 불명확하여 일관된 주제를 유지하지 못하고 있습니다. 특히, 정원 외 모집에 대한 언급이 갑작스럽게 나타나며, 전체적인 논리적 흐름이 약간 어색합니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 일치하지 않는 부분이 많습니다. 특히, 4.08의 점수가 평균 점수보다 낮다고 언급한 부분은 명백한 오류입니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 낮은 점수를 받았습니다. 사실성과 일관성에서 큰 문제가 있으며, 정확성 또한 부족합니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 일부 일치하지만, 잘못된 정보로 인해 전체적인 의미 전달이 왜곡되었습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 문장으로 구성되어 있으나, 일부 정보가 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C587" t="n">
+        <v>0.8153455240063513</v>
+      </c>
+      <c r="D587" t="inlineStr">
+        <is>
+          <t>정시 성적이 4.08인데 동의대학교 소프트웨어공학부  최초합격자로 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E587" t="inlineStr">
+        <is>
+          <t>4.08이라는 수능 점수를 가지고 동의대학교 소프트웨어공학부에 최초합격이 가능한지 판단하기 위해서는 해당 학과의 경쟁률과 평균 점수가 중요합니다.
+현재 제공된 정보에서는 정시 모집에서 소프트웨어융합학과의 경우, 충원 합격 (후보순위)은 3이며, 수능 4개 영역  (가산점 포함) 표준 변환 점수 합의 평균은 430.10입니다. 이는 경쟁률이 높고 평균 점수가 상대적으로 높다는 것을 의미합니다.
+당신의 수능 점수인 4.08은 평균 점수(430.10)에 비해 낮습니다. 따라서 정시로는 최초합격이 어려울 것으로 보입니다. 하지만, 동의대학교 소프트웨어공학부는 정원 외 모집에서도 학생을 선발합니다.
+정원 외 모집에서는 전형요소 반영비율이 서류 60%와 면접 40%로 구성되어 있습니다. 따라서 수능 점수뿐만 아니라, 서류 평가에서의 성적과 면접 성적이 중요하게 작용합니다.
+따라서, 정시로는 최초합격이 어려울 것으로 보이나, 정원 외 모집에서는 학생부 종합전형을 통해 가능성을 살펴볼 수 있습니다. 이 경우, 학생부에서의 활동과 성적, 면접 준비가 중요하게 작용할 것입니다.
+더 자세한 정보를 얻기 위해서는 동의대학교 입학처 웹사이트(https://ipsi. deu.ac.kr/main.do)를 참조하거나 직접 문의하는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F587" t="inlineStr">
+        <is>
+          <t>동의대학교 소프트웨어공학부의 2024학년도 수능(일반학생전형) 최초합격자의 수능 4개 영역 등급 평균은 4.12입니다. 따라서, 4.08의 성적은 최초합격자의 평균 등급보다 약간 높은 수준입니다. 
+	최초합격자의 평균 등급과 비교적 근접한 성적이므로, 최초합격 가능성은 있지만 확실하지는 않습니다. 추가적인 요소나 경쟁률에 따라 결과가 달라질 수 있습니다. 
+	정확한 정보는 동의대학교 입학처에 문의하는 것이 좋습니다. 추가적인 문의는 "https://ipsi.deu.ac.kr/main.do"에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="588">
+      <c r="A588" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B588" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 소프트웨어융합학과의 정시 모집에 대한 구체적인 합격 등급 정보가 제공되지 않았다는 점을 잘 반영하고 있습니다. 그러나 "2024학년도에 대한 정보가 주어지지 않았습니다"라는 부분은 다소 모호하게 느껴질 수 있으며, 원문에서 언급된 특정한 정보가 누락된 것으로 보입니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원문과 일부 일치하지만, "현재 제공된 정보는 다른 학과들의 경쟁률, 지원 인원 등이 포함되어 있습니다"라는 문장은 원문에서 언급되지 않은 내용으로, 일관성이 떨어집니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원문에서 다루고 있는 주제와 관련이 깊으며, 소프트웨어융합학과에 대한 정보 요청에 적절히 대응하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉽습니다. 다만, 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 주제에 대한 흐름이 자연스럽습니다. 그러나 일부 문장이 원문과의 연결이 약해 보일 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원문에서 제공된 정보와 대체로 일치하지만, 특정 세부사항이 누락되어 있어 완전한 정확성에는 다소 부족함이 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행되고 있으며, 특히 관련성과 유창성에서 높은 점수를 받았습니다. 그러나 일관성과 정확성에서 약간의 개선이 필요합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원문과 의미적으로 잘 연결되어 있으며, 주제에 적합한 내용을 담고 있습니다. 그러나 일부 표현이 다소 모호하게 느껴질 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었습니다. 그러나 일부 문장에서 약간의 혼란을 줄 수 있는 표현이 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C588" t="n">
+        <v>0.6769169997111913</v>
+      </c>
+      <c r="D588" t="inlineStr">
+        <is>
+          <t>소프트웨어융합학과 정시 평균 5등급으로 여기 올 수 있나요?</t>
+        </is>
+      </c>
+      <c r="E588" t="inlineStr">
+        <is>
+          <t>2024학년도에 대한 정보가 주어지지 않았습니다. 현재 제공된 정보는 다른 학과들의 경쟁률, 지원 인원 등이 포함되어 있습니다. 소프트웨어융합학과의 경우 특정한 변경사항이나 평균 5등급으로의 입학 가능성은 해당 학과의 정시모집군 변경 사항 및 전형 요소 반영 비율 등을 고려해야 합니다.
+만약에 소프트웨어융합학과의 정보가 필요하다면, "https://ipsi. deu. ac. kr/main. do" 웹사이트를 참조하거나, 대학 입학처와 직접 문의하는 것이 가장 정확한 방법입니다.</t>
+        </is>
+      </c>
+      <c r="F588" t="inlineStr">
+        <is>
+          <t>소프트웨어융합학과의 정시 모집에 대한 구체적인 합격 등급 정보는 제공된 Context에 포함되어 있지 않습니다. 소프트웨어융합학과는 나군 학생부종합(조기취업형계약학과전형)으로도 모집하며, 이 경우 서류 60%와 면접 40%의 비율로 전형요소를 반영합니다.
+정확한 합격 가능성을 확인하기 위해서는 해당 학과의 최근 합격자 평균 등급이나 입시 결과를 참고해야 합니다. 이러한 정보는 대학의 입학처 홈페이지나 모집요강에서 확인할 수 있습니다. 추가적인 정보가 필요하다면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="589">
+      <c r="A589" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B589" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 제공된 자료에서 동의대학교 신소재공학부에 대한 정보를 찾을 수 없다고 주장하지만, 원본 텍스트에는 신소재공학과에 대한 명확한 정보가 포함되어 있습니다. 따라서 사실성이 낮습니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 내용과 일치하지 않으며, 원본에서 제공된 정보와 상반된 주장을 하고 있습니다. 이는 일관성이 부족함을 나타냅니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 동의대학교 신소재공학부에 대한 질문에 대한 답변을 제공하고 있으나, 원본 텍스트의 구체적인 정보를 무시하고 있습니다. 그러나 여전히 관련된 주제를 다루고 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 약간의 어색함이 있을 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 논리적인 흐름이 있지만, 원본 텍스트와의 연결이 약해 전체적인 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 사실을 왜곡하고 있으며, 제공된 정보에 대한 정확성이 부족합니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 여러 차원에서의 품질이 낮으며, 사실성, 일관성, 정확성에서 큰 문제를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 의미적으로 적절한 부분이 있지만, 원본 텍스트의 맥락을 잘 반영하지 못하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 전반적으로 이해하기 쉬운 내용이지만, 원본 텍스트와의 불일치로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C589" t="n">
+        <v>0.6164827673098725</v>
+      </c>
+      <c r="D589" t="inlineStr">
+        <is>
+          <t>정시 성적이 4.28인데 동의대학교 신소재 공학부 들어갈 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E589" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 신소재공학부에 대한 정보는 제공된 자료에서 찾을 수 없습니다. 제공된 자료는 다른 단과대학 및 학과와 관련된 정보만 포함하고 있습니다.
+정시 성적이 4.28인 경우, 동의대학교 신소재공학부에 지원할 수 있는지 확인하려면, 해당 대학의 공식 웹사이트를 참조하거나 입학처에 문의하는 것이 가장 정확한 방법입니다. 
+입학 관련 자세한 정보는 "https://ipsi. deu. ac. kr/main. do" 링크에서 확인하실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F589" t="inlineStr">
+        <is>
+          <t>정확한 답변을 위해서는 더 많은 정보가 필요하지만, 제공된 데이터를 바탕으로 대략적인 판단을 할 수 있습니다.
+### 신소재공학과, 분자나노공학과 (공과대학) - 2024학년도
+- **최초합격자 평균 수능 4개 영역 등급**: 5.32
+- **최종등록자 평균 수능 4개 영역 등급**: 5.78
+### 귀하의 성적
+- **수능 4개 영역 등급**: 4.28
+귀하의 성적이 신소재공학과의 최초합격자와 최종등록자의 평균 등급보다 높습니다. 따라서, 동의대학교 신소재공학과에 합격할 가능성이 높다고 판단됩니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="590">
+      <c r="A590" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B590" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 수능 일반학생전형에 자기소개서가 필요 없다는 사실을 정확하게 반영하고 있습니다. 그러나 추가적인 정보(학생부 온라인 제공 동의 등)는 원문에 포함되어 있지 않으므로, 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원문과 일치하는 부분이 있지만, 추가적인 정보가 포함되어 있어 원문과의 일관성이 떨어집니다. 특히, 원문에서는 자기소개서가 필요 없다고만 언급하고 있어, 추가적인 내용이 혼란을 줄 수 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 질문에 대한 직접적인 답변을 제공하며, 관련된 추가 정보를 포함하고 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장 구조를 가지고 있습니다. 다만, 약간의 어색한 표현이 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 명확하게 전달됩니다. 그러나 원문과의 일관성 문제로 인해 완전한 일관성은 부족합니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 수능 일반학생전형에 대한 정확한 정보를 제공하지만, 원문에 없는 추가 정보가 포함되어 있어 완전한 정확성은 떨어집니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행되고 있지만, 원문과의 일관성 문제로 인해 약간의 점수를 잃었습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 의미적으로 적절하며, 원문과 관련된 내용을 잘 전달하고 있습니다. 그러나 원문에 없는 정보가 포함되어 있어 약간의 부적절성이 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었습니다. 다만, 원문과의 차이로 인해 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C590" t="n">
+        <v>0.6073991979866055</v>
+      </c>
+      <c r="D590" t="inlineStr">
+        <is>
+          <t>수능 일반학생전형으로 넣으려고 하는데 자기소개서 써야하나요?</t>
+        </is>
+      </c>
+      <c r="E590" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 수능 일반학생전형에서는 자기소개서가 요구되지 않습니다. 이 전형은 주로 수능 점수를 기준으로 모집을 진행합니다. 하지만 제출서류에 따라 학생부 온라인 제공 동의 등이 필요할 수 있으므로, 해당 대학의 공식 웹사이트 (https://ipsi. deu. ac. kr/main. do)에서 최신 정보를 확인해보시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F590" t="inlineStr">
+        <is>
+          <t>아니요. 수능 일반학생전형은 자기소개서가 필요없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="591">
+      <c r="A591" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B591" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 생성된 응답은 동의대학교의 수능 정시 모집에 대한 정보를 잘 반영하고 있으며, 추가 모집에 대한 여러 요인들을 언급하고 있습니다. 그러나, 원문에서 제공된 구체적인 평균 등급과 표준 편차에 대한 정보는 포함되어 있지 않아 약간의 정보 누락이 있습니다.
+2. Consistency Score (1-5): 4
+   - 생성된 응답은 원문과 일관되게 동의대학교의 추가 모집 가능성에 대해 설명하고 있으며, 경쟁률과 성적 산출 방법에 대한 정보를 제공하고 있습니다. 다만, 원문에서 강조된 각 학과의 평균 등급과 비교하는 중요성에 대한 언급이 부족합니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원문에서 다룬 주제와 관련이 깊으며, 수능 성적과 추가 모집에 대한 질문에 직접적으로 답변하고 있습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 자연스럽게 작성되어 있으며, 읽기 쉽고 이해하기 쉬운 구조를 가지고 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 요인이 어떻게 추가 모집에 영향을 미치는지를 명확하게 설명하고 있습니다.
+6. Accuracy Score (1-5): 4
+   - 생성된 응답은 동의대학교의 추가 모집에 대한 정보와 관련된 여러 요인을 정확하게 설명하고 있지만, 원문에서 제공된 구체적인 수치나 데이터는 포함되어 있지 않아 약간의 정확성 부족이 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 생성된 응답은 전반적으로 높은 품질을 유지하고 있으며, 사실성, 일관성, 관련성, 정확성에서 좋은 점수를 받고 있습니다. 그러나 일부 정보 누락으로 인해 완벽하지는 않습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원문과 의미적으로 잘 일치하며, 주제에 적합한 내용을 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 명확하고 이해하기 쉬운 방식으로 작성되어 있어, 독자가 쉽게 내용을 파악할 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C591" t="n">
+        <v>0.715225143729103</v>
+      </c>
+      <c r="D591" t="inlineStr">
+        <is>
+          <t>동의대 수능 정시 산출로 4.5나왔는데 추가모집이든 해서 들어갈수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E591" t="inlineStr">
+        <is>
+          <t>4.5라는 수능 성적을 가지고 동의대학교에 추가 모집으로 들어갈 수 있는지는 여러 요인에 따라 달라질 수 있습니다.
+1. **모집단위와 경쟁률**: 각 모집단위별로 지원 인원과 모집 인원이 다르므로, 경쟁률이 매우 높을 수도 있고 낮을 수도 있습니다.
+2. **성적 산출방법**: 동의대학교에서 사용하는 성적 산출 방법에 따라 달라질 수 있습니다. 예를 들어, 일부 학과에서는 국어+수학+영어+탐구를 합산하여 평균 점수를 산출할 수도 있고, 다른 학과에서는 가산점이 포함될 수도 있습니다.
+3. **등급 변환**: 영어 등급을 표준점수로 변환하는 방법도 중요합니다.
+주어진 정보만으로는 정확한 판단이 어렵습니다. 동의대학교의 공식 웹사이트인 "https://ipsi. deu. ac. kr/main. do"를 방문하여 해당 학교의 추가 모집에 대한 자세한 내용을 확인하시거나, 입학처와 직접 문의하는 것이 가장 정확한 방법입니다.
+추가로, 동의대학교의 성적 산출방법과 각 모집단위별 경쟁률 등을 확인하시면 더 구체적인 판단이 가능할 것입니다.</t>
+        </is>
+      </c>
+      <c r="F591" t="inlineStr">
+        <is>
+          <t>동의대학교의 수능 정시 모집에서 합격 가능성을 평가하기 위해서는 각 학과의 평균 등급과 표준 편차를 참고하는 것이 중요합니다. 제공된 데이터에 따르면, 각 학과의 수능 4개 영역 등급 평균과 표준 편차가 나와 있습니다. 
+예를 들어, 인문사회과학대학의 국어국문학과의 경우, 최초 합격자의 수능 4개 영역 등급 평균은 4.65이고, 최종 등록자의 경우 4.92입니다. 
+따라서, 수능 4개 영역 등급이 4.5라면, 일부 학과에서는 합격 가능성이 있을 수 있습니다. 그러나, 각 학과마다 요구하는 등급이 다르므로, 지원하고자 하는 학과의 평균 등급과 비교해보는 것이 중요합니다.
+추가 모집의 경우, 경쟁률이 낮아질 수 있으므로 합격 가능성이 높아질 수 있습니다. 하지만, 추가 모집에 대한 정보는 학교의 공식 홈페이지나 입학처에 문의하는 것이 가장 정확합니다.
+자세한 사항은 동의대학교 입학처에 문의하시기 바랍니다. 추가 정보는 "https://ipsi.deu.ac.kr/main.do"에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="592">
+      <c r="A592" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B592" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 신소재공학부의 경쟁률과 평균 점수에 대한 정보를 제공하지만, 원본 텍스트에서 언급된 영어 등급 평균(5.06)과 수능 4개 영역 등급 평균(5.78)에 대한 정보는 포함되어 있지 않습니다. 따라서 일부 사실이 누락되어 있어 점수를 3으로 평가합니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 신소재공학부의 경쟁률과 평균 점수에 대한 정보를 제공하지만, 원본 텍스트의 주요 내용과는 다소 일치하지 않습니다. 원본 텍스트는 평균 등급에 대한 정보를 제공하는 반면, 생성된 응답은 경쟁률과 점수에 초점을 맞추고 있습니다. 이로 인해 일관성이 떨어져 점수를 3으로 평가합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 동의대학교 신소재공학부에 대한 정보를 제공하며, 질문의 주제와 관련이 있습니다. 그러나 원본 텍스트의 핵심 정보인 평균 등급에 대한 언급이 부족하여 점수를 4로 평가합니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 읽기 쉽게 작성되었습니다. 문장 구조와 표현이 자연스러워 점수를 5로 평가합니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 명확하게 전달됩니다. 그러나 원본 텍스트와의 연결이 약해 점수를 4로 평가합니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 신소재공학부의 경쟁률과 평균 점수에 대한 정보를 제공하지만, 원본 텍스트의 평균 등급 정보가 누락되어 있습니다. 이로 인해 정확성이 떨어져 점수를 3으로 평가합니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 유용한 정보를 제공하지만, 원본 텍스트의 핵심 사실이 누락되어 있어 다차원적인 품질이 다소 떨어집니다. 따라서 점수를 4로 평가합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 주제와 관련된 정보를 제공하며, 의미적으로 적절합니다. 그러나 원본 텍스트의 핵심 정보가 누락되어 있어 점수를 4로 평가합니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉽게 작성되었습니다. 정보가 잘 정리되어 있어 점수를 5로 평가합니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 5,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C592" t="n">
+        <v>0.6465112774596379</v>
+      </c>
+      <c r="D592" t="inlineStr">
+        <is>
+          <t>동의대학교 신소재 공학부는 정시 몇 등급이면 합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E592" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 신소재공학부의 경쟁률과 평균 점수를 확인해보겠습니다.
+먼저, 2024학년도 동의대학교 신소재공학부에 대한 정보는 다음과 같습니다:
+- 모집 인원: 6명
+- 지원 인원: 22명
+- 경쟁률: 3.67
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균: 312.33
+- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합의 평균: 432.67
+이 정보를 바탕으로, 동의대학교 신소재공학부는 경쟁률이 3.67이며, 평균 수능 점수가 높은 편입니다.
+따라서, 동의대학교 신소재공학부에 합격하기 위해서는 대략적으로 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합이 310점 이상이고, 수능 4개 영역 (가산점 포함) 표준 변환 점수 합이 430점 이상이어야 합니다.
+하지만, 정확한 등급은 해당 대학의 입시 홈페이지에서 확인하거나, 동의대학교 입시센터에 문의하시는 것이 가장 정확할 것입니다. "https://ipsi. deu. ac. kr/main. do" 링크를 통해 동의대학교 입시 정보를 확인하실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F592" t="inlineStr">
+        <is>
+          <t>신소재학과의 최종등록자 데이터를 기준으로 보면, 신소재공학과의 영어 등급 평균은 5.06이고, 수능 4개 영역 등급 평균은 5.78입니다. 
+따라서, 신소재공학과의 평균 등급보다 높은 성적을 가지고 있으시면 합격 가능성이 올라갑니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="593">
+      <c r="A593" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B593" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 447점의 표준 점수가 작년 신소재공학과의 평균 점수보다 높다는 사실을 무시하고, 오히려 낮게 환산될 가능성이 매우 낮다고 주장하고 있습니다. 이는 원본 텍스트의 사실과 상충합니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일관성이 없습니다. 원본 텍스트는 447점이 평균보다 훨씬 높다고 명시하고 있지만, 생성된 응답은 그와 반대되는 주장을 하고 있습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 질문에 대한 답변을 제공하고 있으며, 관련된 정보를 포함하고 있습니다. 그러나 원본 텍스트의 핵심 사실을 왜곡하고 있어 완전한 관련성을 갖추지 못했습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 반복되어 다소 어색하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적인 흐름이 다소 부족합니다. 원본 텍스트의 정보와 상충하는 내용을 포함하고 있어 일관된 주장을 전달하지 못하고 있습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 왜곡하고 있으며, 447점이 평균보다 낮게 환산될 가능성이 낮다고 주장하는 것은 사실과 다릅니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 낮은 점수를 받았습니다. 사실성, 일관성, 정확성에서 큰 문제를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 의미적으로 적절한 부분도 있지만, 원본 텍스트의 맥락을 왜곡하고 있어 완전한 적절성을 갖추지 못했습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 문장 구조를 가지고 있으나, 내용의 일관성이 부족하여 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C593" t="n">
+        <v>0.6567748289248198</v>
+      </c>
+      <c r="D593" t="inlineStr">
+        <is>
+          <t>제가 동의대학교 정시 표준점수가 447점으로 환산되는데 작년 신소재공학과 표점이 447점보다 1점 정도 위더라구요 (최종 평균)가능성은 있을까요?</t>
+        </is>
+      </c>
+      <c r="E593" t="inlineStr">
+        <is>
+          <t>447점의 표준 점수가 작년 동일한 학과에서 최종 평균으로 1점 정도 높게 환산될 가능성은 매우 낮습니다. 하지만 정확한 결과는 해당 대학의 입시 홈페이지를 확인하거나, 직접 입학처에 문의하는 것이 가장 확실합니다.
+입력하신 정보와 관련된 데이터를 바탕으로, 작년 동일 학과의 평균 점수가 447점보다 높게 환산될 가능성은 매우 낮습니다. 하지만 정확한 결과는 대학 입시 홈페이지나 직접 입학처에 문의하여 확인하는 것이 가장 확실합니다.
+더 궁금하신 사항이 있으시면 "https://ipsi. deu. ac. kr/main. do"를 참조하거나, 동의대학교 입학처로 문의해보세요.</t>
+        </is>
+      </c>
+      <c r="F593" t="inlineStr">
+        <is>
+          <t>작년 동의대학교 신소재공학과의 최종 등록자 평균 표준 변환 점수는 378.15점이었습니다. 따라서, 귀하의 표준점수 447점은 작년 신소재공학과의 평균 점수보다 훨씬 높습니다. 이 점수라면 신소재공학과에 합격할 가능성이 매우 높다고 할 수 있습니다. 
+추가적인 정보나 문의사항이 있으시면 "https://ipsi.deu.ac.kr/main.do"를 방문해 주시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="594">
+      <c r="A594" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B594" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 동의대학교 신소재공학부의 전형에 대한 정보를 제공하고 있으며, 성적 외 평가와 전형 요소 반영 비율에 대한 내용을 포함하고 있습니다. 그러나 원본 텍스트에서 제공된 평균 성적 데이터와 비교할 때, 성적에 대한 구체적인 수치가 부족하여 다소 아쉬운 점이 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 일부 일치하지만, 성적에 대한 구체적인 비교가 부족하여 일관성이 떨어지는 부분이 있습니다. 특히, 4.3 등급대의 성적에 대한 언급이 원본 텍스트의 평균 성적과의 비교 없이 진행되어 다소 모호합니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 신소재공학부의 전형에 대한 정보를 잘 다루고 있습니다. 성적 외 평가와 전형 요소 반영 비율에 대한 언급은 질문자의 관심사와 직접적으로 관련이 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며, 읽기 쉽게 작성되었습니다. 다만, 일부 문장이 다소 복잡하게 구성되어 있어 약간의 개선이 필요할 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 구분되어 있습니다. 그러나 성적에 대한 비교가 명확하지 않아 전체적인 흐름이 약간 끊기는 느낌이 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 동의대학교 신소재공학부의 전형에 대한 정확한 정보를 제공하고 있으며, 성적 외 평가와 전형 요소 반영 비율에 대한 내용도 사실에 기반하고 있습니다. 그러나 원본 텍스트의 평균 성적 데이터와의 직접적인 비교가 부족하여 완전한 정확성을 보장하지는 않습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행되고 있으며, 특히 관련성과 유창성에서 높은 점수를 받습니다. 그러나 일관성과 정확성에서 약간의 개선이 필요합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하며, 질문자의 상황에 적절한 정보를 제공합니다. 다만, 성적 비교에 대한 명확성이 부족하여 약간의 개선이 필요합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬우며, 정보가 명확하게 전달됩니다. 그러나 일부 문장이 복잡하게 구성되어 있어 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C594" t="n">
+        <v>0.5632672301063864</v>
+      </c>
+      <c r="D594" t="inlineStr">
+        <is>
+          <t>제 정시 성적이 현재로선 4.3등급대고 동의대식 성적산출하면 4.1~4.2정도 나올거같은데 신소재공학부 일반학생전형 붙을수있을까요?</t>
+        </is>
+      </c>
+      <c r="E594" t="inlineStr">
+        <is>
+          <t>4.3 등급대의 성적과 4.1~4.2 정도의 성적산출이면, 동의대학교 신소재공학부 일반학생전형에 합격할 수 있을지는 여러 요인에 따라 다릅니다.
+1. **성적 외 평가**: 동의대학교는 학생부종합전형을 실시하므로 성적 외 평가도 중요합니다. 인성, 창의력, 사회참여 등이 고려됩니다.
+2. **전형 요소 반영 비율**: 2024학년도 전형요소 반영비율은 학생부교과 18%, 출결 12%, 서류(실적) 70%입니다. 따라서 성적이 아닌 다른 평가 항목들도 중요합니다.
+3. **전형 명세**: 신소재공학부 일반학생전형의 지원 자격, 전형 요소 등 세부 조건을 확인해야 합니다.
+따라서, 현재의 성적만으로는 확실한 결론을 내리기 어렵습니다. 동의대학교의 공식 홈페이지 (https://ipsi. deu.ac.kr/main.do)를 참조하거나, 입학처에 문의하여 자세한 정보를 얻으시는 것이 좋겠습니다.</t>
+        </is>
+      </c>
+      <c r="F594" t="inlineStr">
+        <is>
+          <t>동의대학교 신소재공학부(일반학생전형)의 최종등록자 데이터를 바탕으로 판단해보겠습니다.
+	신소재공학부의 최종등록자 평균 성적은 다음과 같습니다:
+	- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 평균 271.64, 표준 편차 19.52
+	- 영어 등급: 평균 5.06, 표준 편차 1.22
+	- 수능 4개 영역 등급: 평균 5.78, 표준 편차 0.49
+	- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 평균 378.15, 표준 편차 21.81
+	귀하의 성적이 4.1~4.2등급대라면, 신소재공학부의 최종등록자 평균 성적과 비교했을 때 다소 높은 편입니다. 특히, 영어 등급과 수능 4개 영역 등급에서 차이가 있을 수 있습니다.
+	따라서, 귀하의 성적이 신소재공학부의 최종등록자 평균 성적과 비교했을 때 다소 높으므로, 합격 가능성은 높습니다. 그러나, 최종 합격 여부는 지원자 전체의 성적 분포와 경쟁률에 따라 달라질 수 있습니다.
+	더 자세한 정보나 상담이 필요하다면, 동의대학교 입학처에 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="595">
+      <c r="A595" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B595" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 동의대학교 인공지능학과의 수능 일반학생전형에 대한 성적 정보를 제공하지 않고, 과목별 성적 요구 사항에 대한 정보를 포함하고 있습니다. 이는 원본 텍스트의 핵심 정보를 왜곡하고 있습니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원본 텍스트와 일관성이 없습니다. 원본 텍스트는 합격자 성적에 대한 정보를 제공하는 반면, 생성된 응답은 과목별 성적 요구 사항에 대한 정보를 제공합니다. 이로 인해 두 텍스트 간의 일관성이 결여되어 있습니다.
+3. Relevance Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 적습니다. 원본 텍스트는 합격자 성적에 대한 정보에 중점을 두고 있지만, 생성된 응답은 과목별 성적 요구 사항에 대한 정보를 제공하여 주제에서 벗어나 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 일관성 부족으로 인해 전체적인 흐름이 매끄럽지 않습니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 과목별 성적 요구 사항에 대한 정보를 나열하고 있지만, 원본 텍스트와의 연결이 부족하여 일관된 논리적 흐름이 결여되어 있습니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 사실과 일치하지 않으며, 잘못된 정보를 포함하고 있습니다. 원본 텍스트의 성적 정보와는 전혀 다른 내용을 다루고 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 생성된 응답은 여러 품질 차원에서 낮은 점수를 받았습니다. 사실성, 일관성, 관련성, 정확성 모두에서 부족함이 드러났습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 부합하지 않으며, 주제와 관련이 없는 내용을 포함하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 문법적으로 명확하고 이해하기 쉬운 문장으로 구성되어 있지만, 내용의 일관성 부족으로 인해 전체적인 이해가 어려울 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C595" t="n">
+        <v>0.6744958097330931</v>
+      </c>
+      <c r="D595" t="inlineStr">
+        <is>
+          <t>동의대 인공지능학과 수능 일반학생전형으로 가고싶어요 성적좀 알려주세요</t>
+        </is>
+      </c>
+      <c r="E595" t="inlineStr">
+        <is>
+          <t>东义大学的人工智能学部在普通学生招生中，对于科目成绩的要求如下：
+- **국어 (Korean)**: 고전, 고전읽기, 국어, 국어생활, 독서, 독서와문법, 문법, 문학, 실용국어, 심화국어, 언어와매체, 작문, 화법, 화법과작문 등이 반영됩니다.
+- **수학 (Mathematics)**: 경제수학, 고급수학, 공통수학, 기하, 기하와벡터, 미분과적분(미적분), 미적분과통계기본, 수학(10-가(나)), 수학과제탐구, 수학의활용, 실용수학, 이산수학, 인문수학, 일반수학, 자연수학, 적분과통계, 확률(과)통계, 기본수학, 인공지능수학, 심화수학 등이 반영됩니다.
+- **영어 (English)**: 공통영어, 실용영어, 실용영어회화, 실용영어독해와작문, 심화영어독해, 심화영어독해와작문, 심화영어, 심화영어회화, 심화영어작문, 영미문학읽기, 영어강독, 영어권문화, 영어문법, 영어청해, 영어(10-a(б)), 영어독해, 영어독해와작문, 영어작문, 영어회화, 진로영어, 기본영어 등이 반영됩니다.
+- **과학 (Science)**: 고급물리(학), 고급생명과학, 고급생물, 고급지구과학, 고급화학, 공통과학, 과학, 과학사, 과학사및과학철학, 물리(학), 생명과학, 생명과학실험, 생물, 생물실험, 생활(과)과학, 융합과학, 정보과학, 지구과학, 지구과학실험, 통합과학, 화학, 화학실험, 환경과학 등이 반영됩니다.
+- **사회 (History/ Ethics included)**: 고전과윤리, 국제경제, 국제관계와국제기구, 국제문제, 국제법, 국제정치, 경제, 경제지리, 공통사회, 국민윤리, 国史, 동아시아사, 도덕, 법과사회, 法政, 社会, 社会科学方法论, 社会问题探究, 社会·文化, 生活与伦理, 世界史, 世界地理, 市民伦理, 旅行地理, 历史, 道德, 道德与思想, 人类社会与环境, 人类的未来社会, 传统道德, 政治, 政治经济, 政治与法律, 地区理解, 综合社会, 韩国近·现代史, 韩国的社会和文化, 韩国地理, 韩国史 등이 반영됩니다.
+각 과목별로 최소한의 점수를 얻는 것이 중요하며, 특히 인공지능 분야에서는 수학과 영어가 매우 중요합니다. 성적을 높이기 위해서는 꾸준히 공부하고 실력을 키워야 합니다. 더 자세한 정보나 도움이 필요하시다면 [https://ipsi. deu. ac. kr/main. do](https://ipsi.deu.ac.kr/main.do)를 참조해보세요.</t>
+        </is>
+      </c>
+      <c r="F595" t="inlineStr">
+        <is>
+          <t>동의대학교 인공지능학과의 수능 일반학생전형 최초합격자 성적은 다음과 같습니다:
+- **모집 인원**: 15명
+- **지원 인원**: 24명
+- **경쟁률**: 1.60
+- **충원 합격 (후보순위)**: 5명
+- **국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합**: 평균 301.87, 표준 편차 12.38
+- **영어 등급**: 평균 4.13, 표준 편차 0.71
+- **수능 4개 영역 등급**: 평균 4.98, 표준 편차 0.25
+- **수능 4개 영역 (가산점 포함) 표준 변환 점수 합**: 평균 415.80, 표준 편차 10.49
+이 성적을 참고하여 준비하시기 바랍니다. 추가적인 정보가 필요하면 "https://ipsi.deu.ac.kr/main.do"를 방문해 주세요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="596">
+      <c r="A596" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B596" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 5.27 성적이 낮다고 언급하고 있지만, 원본 텍스트에서는 5.27 성적이 충원 합격이 가능한 학과를 명시하고 있습니다. 따라서 사실과 일치하지 않는 부분이 있습니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원본 텍스트와 상충하는 내용을 포함하고 있습니다. 원본 텍스트는 5.27 성적이 충원 합격이 가능한 학과를 나열하고 있지만, 생성된 응답은 이 성적이 낮다고 주장합니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 동의대학교의 입학 관련 정보를 다루고 있지만, 원본 텍스트의 주요 내용인 충원 합격 가능성에 대한 정보와는 다소 거리가 있습니다. 그러나 여전히 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장으로 구성되어 있습니다. 다만, 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 논리적인 흐름이 있지만, 원본 텍스트와의 불일치로 인해 일관성이 떨어집니다. 원본의 정보와 연결되지 않는 부분이 있습니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 5.27 성적이 낮다고 주장하는데, 이는 원본 텍스트의 정보와 상반됩니다. 따라서 정확성 점수가 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 여러 차원에서 평가했을 때, 생성된 응답은 사실성, 일관성, 정확성에서 낮은 점수를 받았습니다. 전반적으로 원본 텍스트와의 불일치가 많습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 의미적으로 적절한 부분이 있지만, 원본 텍스트와의 불일치로 인해 의미 전달이 명확하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬운 문장으로 구성되어 있으나, 원본 텍스트와의 불일치로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C596" t="n">
+        <v>0.5900525882920955</v>
+      </c>
+      <c r="D596" t="inlineStr">
+        <is>
+          <t>동의대 정시 성적으로 5.27인데 이 성적으로 추합 가능한가요?</t>
+        </is>
+      </c>
+      <c r="E596" t="inlineStr">
+        <is>
+          <t>5.27이라는 성적을 가지고 동의대학교에 추천입학(정시)으로는 낮은 점수로 보입니다. 동의대학교의 정시모집에서 인문사회과학대학, 상경대학 등의 모집단위에서는 수능 영어 등급이 큰 비중을 차지하므로, 5.27이라는 성적만으로 추천입학에 성공하기는 어려울 것으로 보입니다.
+추천입학의 경우 주로 학생부와 면접에서 높은 점수를 받는 것이 중요합니다. 특히, 나군 학생부종합 평가 영역 중 공동체역량이나 전공적합성 등에서 높은 점수를 받기 위해서는 관련 활동을 충분히 수행하고 기록해야 합니다.
+추천입학에 대한 확실한 답변을 얻으시려면, 동의대학교 입학사정관에게 직접 문의하거나, 제공된 링크인 "https://ipsi. deu. ac. kr/main. do"를 통해 더 자세한 정보를 확인하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F596" t="inlineStr">
+        <is>
+          <t>동의대학교의 정시 성적을 기준으로 5.27의 성적으로 충원 합격(추합)이 가능한지 확인하기 위해서는 각 학과의 최종 등록자 성적을 비교해보아야 합니다. 아래는 각 학과의 수능 4개 영역 등급 평균과 표준 편차를 기준으로 5.27 성적이 충원 합격 가능한지 확인한 결과입니다:
+1. **인문사회과학대학**
+   - 국어국문학과: 평균 4.92, 표준 편차 0.35
+   - 중어중국학과: 평균 5.68, 표준 편차 0.74
+   - 일본학과: 평균 4.87, 표준 편차 0.13
+   - 영어영문학과: 평균 5.16, 표준 편차 0.66
+   - 문헌정보학과: 평균 4.82, 표준 편차 0.33
+   - 평생교육·청소년상담학과: 평균 5.22, 표준 편차 0.29
+   - 아동학과: 평균 7.08, 표준 편차 0.56
+   - 유아교육과: 평균 4.18, 표준 편차 0.25
+   - 광고홍보학과: 평균 4.47, 표준 편차 0.18
+   - 미디어커뮤니케이션학과: 평균 4.29, 표준 편차 0.23
+   - 법학과: 평균 4.27, 표준 편차 0.27
+   - 경찰행정학과: 평균 4.12, 표준 편차 0.18
+   - 소방방재행정학과: 평균 4.43, 표준 편차 0.40
+   - 행정학과: 평균 4.36, 표준 편차 0.33
+   - 사회복지학과: 평균 4.69, 표준 편차 0.23
+2. **상경대학**
+   - 금융경영학과: 평균 5.41, 표준 편차 0.52
+   - 재무부동산학과: 평균 5.82, 표준 편차 1.25
+   - 무역학과: 평균 5.18, 표준 편차 0.50
+   - 유통물류학과: 평균 5.45, 표준 편차 0.52
+   - 경영학과: 평균 4.69, 표준 편차 0.22
+   - 회계학과: 평균 4.99, 표준 편차 0.41
+   - 경영정보학과: 평균 4.31, 표준 편차 0.23
+   - e비즈니스학과: 평균 4.53, 표준 편차 0.36
+   - 국제관광경영학과: 평균 5.41, 표준 편차 0.56
+   - 호텔·컨벤션경영학과: 평균 6.12, 표준 편차 0.77
+   - 외식경영학과: 평균 4.91, 표준 편차 0.28
+3. **의료보건생활대학**
+   - 간호학과: 평균 3.37, 표준 편차 0.29
+   - 임상병리학과: 평균 4.15, 표준 편차 0.12
+   - 치위생학과: 평균 4.18, 표준 편차 0.20
+   - 방사선학과: 평균 3.82, 표준 편차 0.20
+   - 의료경영학과: 평균 5.92, 표준 편차 1.08
+   - 물리치료학과: 평균 3.62, 표준 편차 0.15
+   - 식품영양학과: 평균 5.92, 표준 편차 1.06
+4. **한의과대학**
+   - 한의예과(수학&lt;미적분/기하&gt;): 평균 1.21, 표준 편차 0.09
+   - 한의예과(수학&lt;확률과통계&gt;): 평균 1.20, 표준 편차 0.05
+5. **공과대학**
+   - 기계공학과, 로봇자동화공학과, 자동차공학과: 평균 6.30, 표준 편차 1.1
+   - 조선해양공학과: 평균 6.16, 표준 편차 1.00
+   - 신소재공학과, 분자나노공학과: 평균 5.78, 표준 편차 0.49
+   - 건축학과(5년제), 건축공학과, 토목공학과, 도시공학과: 평균 4.69, 표준 편차 0.25
+   - 환경공학과, 화학공학과, 응용화학과: 평균 5.73, 표준 편차 0.57
+   - 의생명공학과, 바이오의약공학과, 식품공학과: 평균 5.41, 표준 편차 0.65
+   - 인간공학과, 제품디자인공학과: 평균 5.72, 표준 편차 0.73
+   - 산업경영빅데이터공학과: 평균 5.27, 표준 편차 0.43
+6. **ICT융합공과대학**
+   - 컴퓨터공학과: 평균 4.29, 표준 편차 0.16
+   - 소프트웨어공학부: 평균 4.49, 표준 편차 0.30
+   - 인공지능학과: 평균 5.25, 표준 편차 0.35
+   - 전기공학과, 전자공학과: 평균 5.37, 표준 편차 0.60
+   - 디지털콘텐츠학과: 평균 4.47, 표준 편차 0.24
+   - 게임공학과: 평균 4.78, 표준 편차 0.20
+   - 영화학과: 평균 5.04, 표준 편차 0.76
+7. **예술디자인체육대학**
+   - 패션디자인학과: 평균 4.46, 표준 편차 0.31
+위의 정보를 바탕으로, 5.27의 성적으로 충원 합격이 가능한 학과는 다음과 같습니다:
+- 인문사회과학대학: 중어중국학과, 영어영문학과, 평생교육·청소년상담학과, 아동학과
+- 상경대학: 금융경영학과, 재무부동산학과, 무역학과, 유통물류학과, 호텔·컨벤션경영학과, 외식경영학과
+- 의료보건생활대학: 의료경영학과, 식품영양학과
+- 공과대학: 기계공학과, 로봇자동화공학과, 자동차공학과, 조선해양공학과, 신소재공학과, 분자나노공학과, 환경공학과, 화학공학과, 응용화학과, 의생명공학과, 바이오의약공학과, 식품공학과, 인간공학과, 제품디자인공학과, 산업경영빅데이터공학과
+- ICT융합공과대학: 인공지능학과, 전기공학과, 전자공학과, 영화학과
+위 학과들은 5.27의 성적으로 충원 합격이 가능할 것으로 보입니다. 더 자세한 정보는 동의대학교 입학처에 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="597">
+      <c r="A597" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B597" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 소프트웨어공학부의 평균 등급과 정시 성적 4.2의 관계를 잘 설명하고 있으며, 합격 가능성에 대한 정보도 제공하고 있습니다. 그러나 일부 세부사항(예: 지원 인원, 경쟁률 등)은 원본 텍스트에 포함되어 있지 않으므로 완전한 정확성은 부족합니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일부 일치하지만, 추가된 정보(지원 인원, 경쟁률 등)가 원본 텍스트와의 일관성을 떨어뜨립니다. 따라서 일관성 점수는 중간 정도로 평가됩니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 질문의 주제와 관련된 정보를 잘 다루고 있으며, 정시 성적 4.2에 대한 합격 가능성을 평가하는 데 필요한 모든 정보를 포함하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적인 흐름을 가지고 있으며, 각 문장이 잘 연결되어 있습니다. 그러나 추가된 정보가 원본 텍스트와의 연결성을 약간 떨어뜨릴 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 정시 성적 4.2에 대한 합격 가능성을 잘 설명하고 있지만, 원본 텍스트에 없는 정보가 포함되어 있어 완전한 정확성은 부족합니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행하고 있으며, 특히 관련성과 유창성에서 높은 점수를 받았습니다. 그러나 일관성과 정확성에서 약간의 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하지만, 추가된 정보가 원본의 의미를 약간 왜곡할 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽지만, 일부 문장이 길어 다소 복잡하게 느껴질 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C597" t="n">
+        <v>0.6610451373270223</v>
+      </c>
+      <c r="D597" t="inlineStr">
+        <is>
+          <t>정시 성적 4.2인데 동의대학교 소프트웨어공학부 합격 가능성 있을까요?</t>
+        </is>
+      </c>
+      <c r="E597" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 소프트웨어공학부에 대한 정보를 바탕으로, 정시 성적 4.2인 경우 합격 가능성은 어느 정도일지 판단해보겠습니다.
+소프트웨어공학부는 일반학생전형에서 모집하고 있으며, 2024학년도 지원 인원이 16명이고, 경쟁률이 5.33입니다. 이에 따라 충원 합격자는 3명이며, 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균은 303.05이고, 표준 편차는 8.27입니다.
+정시 성적 4.2를 기준으로 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균은 303.05이고, 표준 편차는 8.27입니다. 이에 따라 정시 성적 4.2는 평균보다 약간 높은 수치로 판단할 수 있습니다.
+따라서, 정시 성적 4.2인 경우 동의대학교 소프트웨어공학부에서 충원 합격 가능성은 상당히 높다고 볼 수 있습니다. 하지만 최종 합격 여부는 지원자의 개인적인 성적과 경쟁률 등 다양한 요소에 따라 결정되므로, 정확한 판단을 위해서는 동의대학교 입시 홈페이지(https://ipsi. deu. ac. kr/main. do)를 참고하시거나, 입학처와 상담하는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F597" t="inlineStr">
+        <is>
+          <t>소프트웨어공학부의 최종등록자 데이터를 기준으로 보면, 소프트웨어공학부의 영어 등급 평균은 3.77이고, 수능 4개 영역 등급 평균은 4.49입니다. 
+따라서, 현재 정시 등급이 4.2라면 소프트웨어공학부의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="598">
+      <c r="A598" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B598" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 화학환경공학부의 평균 등급과 관련된 정보를 제공하고 있으며, 3.92라는 성적이 합격 가능성이 높다는 점을 언급하고 있습니다. 그러나, 구체적인 전형성적 산출 방법에 대한 정보가 부족하여 완전한 사실성을 보장하지는 않습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일치하는 부분이 있지만, 추가적인 정보가 필요하다는 점에서 일관성이 떨어질 수 있습니다. 원본 텍스트는 합격 가능성이 높다고 명확히 언급하고 있으나, 생성된 응답은 확정적인 판단을 내리지 않고 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 화학환경공학부의 일반학생전형에 대한 지원 가능성을 다루고 있습니다. 따라서 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 연결되어 있습니다. 그러나, 정보의 흐름이 약간 더 매끄럽게 연결될 수 있었던 부분이 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 잘 반영하고 있으며, 3.92라는 성적에 대한 해석도 적절합니다. 그러나, 전형성적 산출 방법에 대한 구체적인 정보가 부족하여 완전한 정확성을 보장하지는 않습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행되고 있으며, 사실성, 일관성, 관련성, 정확성 모두에서 긍정적인 평가를 받을 수 있습니다. 다만, 일부 부분에서 개선의 여지가 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하며, 적절한 의미를 전달하고 있습니다. 그러나, 일부 문장에서 의미가 다소 모호하게 전달될 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되어 있습니다. 그러나, 일부 문장에서 추가적인 설명이 필요할 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C598" t="n">
+        <v>0.7318384344373684</v>
+      </c>
+      <c r="D598" t="inlineStr">
+        <is>
+          <t>동의대식 정시 성적 산출로 3.92 나오는데 화학환경공학부 일반학생전형 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E598" t="inlineStr">
+        <is>
+          <t>3.92라는 성적 산출 결과를 보면, 해당 학생이 화학환경공학부의 일반학생전형에 지원 가능한지 판단하기 위해서는 몇 가지 정보가 필요합니다.
+1. **모집단위와 전형성적 산출방법**: 화학환경공학부의 일반학생전형에서 사용하는 수능 반영 영역 및 가산점 방식을 확인해야 합니다.
+2. **성적 산출 방법**: 동의대학교의 정시 성적 산출 방법이 어떻게 되는지 알아보아야 합니다.
+현재 제공된 정보만으로는 확정적으로 판단하기 어렵습니다. 하지만 일반적으로 수능 4개 영역 등급의 평균 점수가 높은 학생들이 경쟁률이 높은 모집단위에 지원하는 경향이 있습니다. 따라서 3.92라는 성적 산출 결과를 보면, 화학환경공학부의 일반학생전형에 지원 가능할 것으로 보입니다.
+하지만 정확한 판단을 위해서는 동의대학교의 공식 홈페이지 (https://ipsi. deu.ac.kr/main.do)에서 해당 모집단위와 전형성적 산출방법을 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F598" t="inlineStr">
+        <is>
+          <t>화학환경공학부의 최종등록자 데이터를 기준으로 보면, 화학환경공학부의 영어 등급 평균은 4.82이고, 수능 4개 영역 등급 평균은 5.73입니다. 
+따라서, 현재 정시 등급이 3.92라면 화학환경공학부의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 추가합격까지 생각해서 합격할 가능성이 높습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="599">
+      <c r="A599" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B599" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 동의대학교 화학환경공학부의 수능 일반학생전형에 대한 정보를 제공하고 있지만, 제공된 성적 4.25가 최초합격자의 평균보다 높다고 판단한 원본 텍스트와는 상반된 내용을 담고 있습니다. 원본 텍스트는 4.25가 합격 가능성이 높다고 했으나, 생성된 응답은 4.25로는 지원하기 어렵다고 판단하고 있습니다. 이로 인해 사실관계에 큰 오류가 발생했습니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원본 텍스트와 상충되는 정보를 제공합니다. 원본 텍스트는 4.25가 합격 가능성이 높다고 했으나, 생성된 응답은 반대로 4.25로는 지원하기 어렵다고 주장합니다. 이러한 모순으로 인해 일관성이 낮습니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 동의대학교 화학환경공학부와 관련된 정보를 제공하고 있으며, 질문의 맥락에 맞는 내용을 다루고 있습니다. 그러나 원본 텍스트의 핵심 정보와는 다소 차이가 있어 완전한 관련성은 부족합니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 논리적으로 연결된 내용을 담고 있으나, 원본 텍스트와의 불일치로 인해 전체적인 일관성이 떨어집니다. 정보의 흐름은 있지만, 결론이 원본과 상반되어 혼란을 줄 수 있습니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 사실과 크게 다릅니다. 원본 텍스트는 4.25가 합격 가능성이 높다고 했으나, 생성된 응답은 이를 부정하고 있습니다. 이로 인해 정확성이 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 여러 차원에서 평가했을 때, 생성된 응답은 사실관계와 일관성에서 큰 문제를 보이고 있습니다. 관련성은 어느 정도 있지만, 전반적인 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 주제와 관련된 내용을 다루고 있으나, 원본 텍스트의 의미와는 다소 다르게 해석되고 있습니다. 따라서 의미적으로 적절성은 있지만, 완전하지는 않습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 명확한 언어로 작성되어 있습니다. 그러나 원본과의 불일치로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C599" t="n">
+        <v>0.6835142772924102</v>
+      </c>
+      <c r="D599" t="inlineStr">
+        <is>
+          <t>동의대 화학환경공학부 원서접수 했습니다. 동의대식 정시 성적 4.25인데 수능 일반학생전형으로 가능하나요?</t>
+        </is>
+      </c>
+      <c r="E599" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 화학환경공학부에 대한 정보를 바탕으로 답변 드리겠습니다.
+화학환경공학부는 2024학년도 모집단위로 수능(일반학생전형)을 통해 모집되었습니다. 지원 인원이 많고 경쟁률이 높은 것을 확인할 수 있습니다 (지원인원: 122, 모집인원: 101, 경쟁률: 1.21). 이와 관련하여 성적 평균과 표준편차를 보면 국어+수학+탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균은 269.13이고, 표준 편차는 24.49입니다.
+당신이 제시한 정시 성적 4.25를 기반으로 국어+수학+탐구(2개) (가산점 포함) 표준 변환 점수 합을 계산하면, 이 점수가 평균보다 낮은 것을 확인할 수 있습니다.
+따라서 정시 성적 4.25로는 동의대학교 화학환경공학부에 지원하기 어렵다고 판단됩니다. 경쟁률이 높고 평균 점수가 높기 때문에, 더 높은 점수를 가진 학생들이 선발될 가능성이 큽니다.
+추가적으로, 수능(일반학생전형)을 통해 지원하는 경우에도 충원 합격 (후보순위)이 21명으로 많아 경쟁률이 높습니다. 따라서 더 높은 점수를 가진 학생들이 선발될 가능성이 큽니다.
+따라서, 정시 성적 4.25로는 동의대학교 화학환경공학부에 지원하기 어렵다고 판단됩니다. 다른 전형이나 추가 준비가 필요할 수 있습니다. 자세한 정보는 동의대학교 입학처 웹사이트를 참조하시거나 직접 문의하시는 것이 좋습니다. "https://ipsi. deu. ac. kr/main. do"</t>
+        </is>
+      </c>
+      <c r="F599" t="inlineStr">
+        <is>
+          <t>동의대학교 화학환경공학부의 수능 일반학생전형 최초합격자 데이터를 바탕으로 판단해보겠습니다.
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합 평균: 276.61
+- 영어 등급 평균: 4.70
+- 수능 4개 영역 등급 평균: 5.59
+- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합 평균: 385.99
+귀하의 성적 4.25는 최초합격자의 평균값보다 높으므로 합격 가능성이 높은 것으로 판단됩니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="600">
+      <c r="A600" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B600" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 주어진 데이터와 비교했을 때 대체로 정확하지만, 지원 인원과 경쟁률에 대한 정보는 원본 텍스트에 포함되어 있지 않으므로 이 부분에서 약간의 부정확성이 존재합니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일부 일치하지만, 추가된 정보(지원 인원, 경쟁률 등)가 원본 텍스트와 일관되지 않아서 일관성 점수가 낮습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 주제와 관련이 깊으며, 질문에 대한 적절한 답변을 제공합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬우나, 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 명확하게 전달되지만, 일부 문장이 길어져서 흐름이 약간 끊길 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 응답은 주어진 데이터에 기반하여 정확한 정보를 제공하지만, 추가된 정보가 원본 텍스트에 없기 때문에 완전한 정확성은 부족합니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 전반적으로 응답은 여러 품질 차원에서 잘 수행되지만, 일관성과 정확성에서 약간의 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 맞지만, 추가된 정보가 원본과 다소 어긋나므로 완전한 적합성은 부족합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 응답은 전반적으로 이해하기 쉽지만, 일부 문장이 길어져서 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C600" t="n">
+        <v>0.7110389123855743</v>
+      </c>
+      <c r="D600" t="inlineStr">
+        <is>
+          <t>이번에 정시전형으로 영화학과 지원했습니다. 정시 성적이 4.2정도 나왔는데 합격 할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E600" t="inlineStr">
+        <is>
+          <t>4.2라는 점수는 현재 주어진 데이터를 바탕으로 평균치와 비교했을 때 상당히 높은 점수입니다. 예를 들어, 영화학과의 경우 지원 인원이 11명이고 경쟁률이 2.20이며, 충원 합격자는 6명이라는 정보가 주어졌습니다. 이는 전체적으로 경쟁률이 낮고 충원 합격자 수가 많은 상황입니다.
+현재 제공된 데이터를 바탕으로 국어+수학+탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균은 286.77이며, 이보다 높은 점수가 나왔다면 좋은 성적이라고 볼 수 있습니다.
+영어 등급의 평균이 3.66이고, 이보다 높은 영어 등급을 받았다면 더 좋습니다. 또한, 수능 4개 영역 (가산점 포함) 표준 변환 점수 합의 평균은 404.43이라는 점도 고려해야 합니다.
+따라서, 현재의 성적인 4.2는 상대적으로 좋은 성적이므로 합격 가능성은 높다고 볼 수 있습니다. 하지만 최종 합격 여부는 여러 요소가综上所述，根据提供的数据和当前的考试成绩，电影学专业的竞争情况相对较为宽松。你的综合成绩为4.2，在目前给出的数据中属于较高的水平。考虑到电影学专业有11名考生，录取6人的情况，且平均标准转换总分为286.77，而你超过了这个平均水平。
+此外，英语等级的平均值是3.66，如果你的成绩高于这一平均值也会增加你的录取几率。同时，4个科目（含加分）的标准转换总分平均值为404.43，这也表明你的成绩在整体上是不错的。
+因此，基于以上分析，你的成绩有较高的可能性会被电影学专业录取。不过最终结果还需参考具体的招生政策和实际的评审标准，请关注学校官方发布的最新信息或直接咨询相关部门以获取准确的信息。如果需要进一步的帮助或详细信息，可以访问“https://ipsi. deu. ac. kr/main. do”进行查询。</t>
+        </is>
+      </c>
+      <c r="F600" t="inlineStr">
+        <is>
+          <t>영화학과의 2024학년도 수능(일반학생전형) 최종등록자의 평균 성적을 보면 다음과 같습니다:
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 286.77 (표준 편차: 17.29)
+- 영어 등급: 3.66 (표준 편차: 1.24)
+- 수능 4개 영역 등급: 5.04 (표준 편차: 0.76)
+- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 404.43 (표준 편차: 27.09)
+이를 통해, 귀하의 정시 성적이 4.2정도라면 영화학과에 합격할 가능성이 존재한다고 판단됩니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="601">
+      <c r="A601" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B601" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 면접 절차에 대한 정보를 정확하게 전달하고 있으며, 원본 텍스트의 내용을 대부분 포함하고 있습니다. 그러나 "나군 학생부종합(평생학습자전형ㅣ성인학습자(정원내·외)전형ㅣ재직자전형)"이라는 추가 정보는 원본 텍스트에 포함되어 있지 않아 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 면접 절차를 따르지만, 추가된 전형에 대한 정보가 원본과 일치하지 않아 일관성이 떨어집니다. 원본 텍스트의 내용과는 다소 다른 맥락을 제공하고 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 면접 절차에 대한 정보를 직접적으로 다루고 있으며, 원본 텍스트의 주요 주제와 잘 연결되어 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉽습니다. 다만, "나군 학생부종합" 부분이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 면접 절차를 명확하게 설명하고 있습니다. 그러나 추가된 정보가 원본과의 연결성을 약간 떨어뜨립니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 면접 절차에 대한 정보는 정확하지만, 추가된 전형 정보가 원본 텍스트에 포함되어 있지 않아 정확성에 약간의 문제가 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 유지하고 있으며, 여러 차원에서 잘 수행되고 있습니다. 그러나 일관성과 정확성에서 약간의 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 맞지만, 추가된 정보가 다소 혼란을 줄 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽지만, 추가된 정보로 인해 약간의 혼란이 있을 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C601" t="n">
+        <v>0.7897860486778453</v>
+      </c>
+      <c r="D601" t="inlineStr">
+        <is>
+          <t>면접 절차를 알려줘.</t>
+        </is>
+      </c>
+      <c r="E601" t="inlineStr">
+        <is>
+          <t>나군 학생부종합(평생학습자전형ㅣ성인학습자(정원내·외)전형ㅣ재직자전형)의 면접 절차는 다음과 같습니다:
+1. 대기실 입실
+2. 신분 확인
+3. 고사장 앞 이동
+4. 고사장 입실
+5. 지원동기 및 학업계획 발표
+6. 학업역량, 전공적합성 관련 공통문항 발표 및 질의응답
+7. 기타 질의응답(제출서류 진위 여부 등)
+8. 퇴실
+이 절차를 따르며 면접이 진행됩니다.</t>
+        </is>
+      </c>
+      <c r="F601" t="inlineStr">
+        <is>
+          <t>면접 절차는 다음과 같습니다:
+1. 대기실 입실
+2. 신분 확인
+3. 고사장 앞 이동
+4. 고사장 입실
+5. 지원동기 및 학업계획 발표
+6. 학업역량, 전공적합성 관련 공통문항 발표 및 질의응답
+7. 기타 질의응답(제출서류 진위 여부 등)
+8. 퇴실</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" paperSize="9"/>
